--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -716,25 +716,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>160200</v>
+        <v>154600</v>
       </c>
       <c r="E8" s="3">
-        <v>168600</v>
+        <v>162800</v>
       </c>
       <c r="F8" s="3">
-        <v>162600</v>
+        <v>157000</v>
       </c>
       <c r="G8" s="3">
-        <v>136000</v>
+        <v>131300</v>
       </c>
       <c r="H8" s="3">
-        <v>106800</v>
+        <v>103100</v>
       </c>
       <c r="I8" s="3">
-        <v>81400</v>
+        <v>78600</v>
       </c>
       <c r="J8" s="3">
-        <v>55000</v>
+        <v>53100</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -746,25 +746,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>86400</v>
+        <v>83400</v>
       </c>
       <c r="E9" s="3">
-        <v>87900</v>
+        <v>84900</v>
       </c>
       <c r="F9" s="3">
-        <v>81000</v>
+        <v>78100</v>
       </c>
       <c r="G9" s="3">
-        <v>64300</v>
+        <v>62000</v>
       </c>
       <c r="H9" s="3">
-        <v>48300</v>
+        <v>46600</v>
       </c>
       <c r="I9" s="3">
-        <v>36400</v>
+        <v>35200</v>
       </c>
       <c r="J9" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -776,25 +776,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>73800</v>
+        <v>71200</v>
       </c>
       <c r="E10" s="3">
-        <v>80700</v>
+        <v>77900</v>
       </c>
       <c r="F10" s="3">
-        <v>81600</v>
+        <v>78800</v>
       </c>
       <c r="G10" s="3">
-        <v>71800</v>
+        <v>69300</v>
       </c>
       <c r="H10" s="3">
-        <v>58500</v>
+        <v>56500</v>
       </c>
       <c r="I10" s="3">
-        <v>45000</v>
+        <v>43400</v>
       </c>
       <c r="J10" s="3">
-        <v>30800</v>
+        <v>29700</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -880,19 +880,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E14" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="F14" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I14" s="3">
         <v>900</v>
@@ -910,25 +910,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E15" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="F15" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G15" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I15" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J15" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -951,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181000</v>
+        <v>174800</v>
       </c>
       <c r="E17" s="3">
-        <v>187200</v>
+        <v>180700</v>
       </c>
       <c r="F17" s="3">
-        <v>167300</v>
+        <v>161500</v>
       </c>
       <c r="G17" s="3">
-        <v>124600</v>
+        <v>120200</v>
       </c>
       <c r="H17" s="3">
-        <v>99500</v>
+        <v>96000</v>
       </c>
       <c r="I17" s="3">
-        <v>75900</v>
+        <v>73200</v>
       </c>
       <c r="J17" s="3">
-        <v>52300</v>
+        <v>50500</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -981,25 +981,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20900</v>
+        <v>-20200</v>
       </c>
       <c r="E18" s="3">
-        <v>-18600</v>
+        <v>-17900</v>
       </c>
       <c r="F18" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="G18" s="3">
-        <v>11500</v>
+        <v>11100</v>
       </c>
       <c r="H18" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="I18" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="J18" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1031,19 +1031,19 @@
         <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>-106100</v>
+        <v>-102400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="J20" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1055,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-14200</v>
+        <v>-13700</v>
       </c>
       <c r="E21" s="3">
-        <v>-10700</v>
+        <v>-10300</v>
       </c>
       <c r="F21" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G21" s="3">
-        <v>-89800</v>
+        <v>-86700</v>
       </c>
       <c r="H21" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="I21" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J21" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1088,7 +1088,7 @@
         <v>1200</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1097,13 +1097,13 @@
         <v>800</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1115,25 +1115,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-21600</v>
+        <v>-20800</v>
       </c>
       <c r="E23" s="3">
-        <v>-19900</v>
+        <v>-19300</v>
       </c>
       <c r="F23" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="G23" s="3">
-        <v>-95400</v>
+        <v>-92100</v>
       </c>
       <c r="H23" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I23" s="3">
         <v>-2300</v>
       </c>
       <c r="J23" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1145,25 +1145,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="G24" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="H24" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="I24" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1205,25 +1205,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="E26" s="3">
-        <v>-19900</v>
+        <v>-19200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G26" s="3">
-        <v>-98900</v>
+        <v>-95500</v>
       </c>
       <c r="H26" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I26" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J26" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1235,25 +1235,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="E27" s="3">
-        <v>-19900</v>
+        <v>-19200</v>
       </c>
       <c r="F27" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G27" s="3">
-        <v>-98900</v>
+        <v>-95500</v>
       </c>
       <c r="H27" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I27" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J27" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1298,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
@@ -1391,19 +1391,19 @@
         <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>106100</v>
+        <v>102400</v>
       </c>
       <c r="H32" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I32" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="J32" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1415,25 +1415,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="E33" s="3">
-        <v>-21500</v>
+        <v>-20700</v>
       </c>
       <c r="F33" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G33" s="3">
-        <v>-98900</v>
+        <v>-95500</v>
       </c>
       <c r="H33" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I33" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J33" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1475,25 +1475,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="E35" s="3">
-        <v>-21500</v>
+        <v>-20700</v>
       </c>
       <c r="F35" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G35" s="3">
-        <v>-98900</v>
+        <v>-95500</v>
       </c>
       <c r="H35" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I35" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J35" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1568,25 +1568,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>31700</v>
+        <v>30600</v>
       </c>
       <c r="E41" s="3">
-        <v>47800</v>
+        <v>46100</v>
       </c>
       <c r="F41" s="3">
-        <v>48500</v>
+        <v>46800</v>
       </c>
       <c r="G41" s="3">
-        <v>54600</v>
+        <v>52700</v>
       </c>
       <c r="H41" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="I41" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="J41" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1628,19 +1628,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E43" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F43" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G43" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="H43" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I43" s="3">
         <v>800</v>
@@ -1658,25 +1658,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="E44" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="F44" s="3">
-        <v>23500</v>
+        <v>22700</v>
       </c>
       <c r="G44" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="H44" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="I44" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="J44" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1688,25 +1688,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="E45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G45" s="3">
         <v>5800</v>
       </c>
-      <c r="F45" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6000</v>
-      </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1718,25 +1718,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>70000</v>
+        <v>67600</v>
       </c>
       <c r="E46" s="3">
-        <v>76600</v>
+        <v>73900</v>
       </c>
       <c r="F46" s="3">
-        <v>79700</v>
+        <v>76900</v>
       </c>
       <c r="G46" s="3">
-        <v>76400</v>
+        <v>73700</v>
       </c>
       <c r="H46" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="I46" s="3">
-        <v>23000</v>
+        <v>22200</v>
       </c>
       <c r="J46" s="3">
-        <v>16500</v>
+        <v>15900</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1778,25 +1778,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="E48" s="3">
-        <v>27500</v>
+        <v>26600</v>
       </c>
       <c r="F48" s="3">
-        <v>38500</v>
+        <v>37200</v>
       </c>
       <c r="G48" s="3">
-        <v>35600</v>
+        <v>34400</v>
       </c>
       <c r="H48" s="3">
-        <v>26800</v>
+        <v>25900</v>
       </c>
       <c r="I48" s="3">
-        <v>22500</v>
+        <v>21700</v>
       </c>
       <c r="J48" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1808,25 +1808,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H49" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="3">
         <v>1100</v>
       </c>
       <c r="J49" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="G52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H52" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -1958,25 +1958,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>92200</v>
+        <v>89000</v>
       </c>
       <c r="E54" s="3">
-        <v>111400</v>
+        <v>107400</v>
       </c>
       <c r="F54" s="3">
-        <v>131200</v>
+        <v>126600</v>
       </c>
       <c r="G54" s="3">
-        <v>119700</v>
+        <v>115500</v>
       </c>
       <c r="H54" s="3">
-        <v>59500</v>
+        <v>57400</v>
       </c>
       <c r="I54" s="3">
-        <v>46600</v>
+        <v>45000</v>
       </c>
       <c r="J54" s="3">
-        <v>37500</v>
+        <v>36200</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -2016,25 +2016,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15800</v>
+        <v>15200</v>
       </c>
       <c r="E57" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="F57" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="G57" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="H57" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="I57" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="J57" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I58" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2076,25 +2076,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="E59" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="F59" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="G59" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H59" s="3">
         <v>2200</v>
       </c>
       <c r="I59" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J59" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2106,25 +2106,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>23300</v>
+        <v>22400</v>
       </c>
       <c r="E60" s="3">
-        <v>18400</v>
+        <v>17800</v>
       </c>
       <c r="F60" s="3">
-        <v>20400</v>
+        <v>19700</v>
       </c>
       <c r="G60" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="H60" s="3">
-        <v>14800</v>
+        <v>14300</v>
       </c>
       <c r="I60" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="J60" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="I61" s="3">
-        <v>7900</v>
+        <v>7600</v>
       </c>
       <c r="J61" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2166,25 +2166,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18200</v>
+        <v>17500</v>
       </c>
       <c r="E62" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="F62" s="3">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="G62" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H62" s="3">
-        <v>40100</v>
+        <v>38700</v>
       </c>
       <c r="I62" s="3">
-        <v>33000</v>
+        <v>31800</v>
       </c>
       <c r="J62" s="3">
-        <v>25200</v>
+        <v>24300</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2286,25 +2286,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="E66" s="3">
-        <v>35100</v>
+        <v>33800</v>
       </c>
       <c r="F66" s="3">
-        <v>30800</v>
+        <v>29700</v>
       </c>
       <c r="G66" s="3">
-        <v>18800</v>
+        <v>18100</v>
       </c>
       <c r="H66" s="3">
-        <v>59600</v>
+        <v>57500</v>
       </c>
       <c r="I66" s="3">
-        <v>53600</v>
+        <v>51700</v>
       </c>
       <c r="J66" s="3">
-        <v>40400</v>
+        <v>39000</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2450,25 +2450,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-36100</v>
+        <v>-34800</v>
       </c>
       <c r="E72" s="3">
-        <v>-11100</v>
+        <v>-10700</v>
       </c>
       <c r="F72" s="3">
-        <v>-107200</v>
+        <v>-103400</v>
       </c>
       <c r="G72" s="3">
-        <v>-104200</v>
+        <v>-100600</v>
       </c>
       <c r="H72" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I72" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="J72" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2570,25 +2570,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>50800</v>
+        <v>49000</v>
       </c>
       <c r="E76" s="3">
-        <v>76300</v>
+        <v>73600</v>
       </c>
       <c r="F76" s="3">
-        <v>100500</v>
+        <v>96900</v>
       </c>
       <c r="G76" s="3">
-        <v>100900</v>
+        <v>97300</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="J76" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2665,25 +2665,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="E81" s="3">
-        <v>-21500</v>
+        <v>-20700</v>
       </c>
       <c r="F81" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="G81" s="3">
-        <v>-98900</v>
+        <v>-95500</v>
       </c>
       <c r="H81" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I81" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="J81" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2709,25 +2709,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E83" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="F83" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="G83" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I83" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J83" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2889,22 +2889,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-10000</v>
+        <v>-9600</v>
       </c>
       <c r="E89" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="F89" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="G89" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="H89" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="I89" s="3">
-        <v>10700</v>
+        <v>10300</v>
       </c>
       <c r="J89" s="3">
         <v>100</v>
@@ -2933,25 +2933,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="E91" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="F91" s="3">
-        <v>-15500</v>
+        <v>-14900</v>
       </c>
       <c r="G91" s="3">
-        <v>-12700</v>
+        <v>-12200</v>
       </c>
       <c r="H91" s="3">
-        <v>-9400</v>
+        <v>-9000</v>
       </c>
       <c r="I91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="J91" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3023,25 +3023,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="E94" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="F94" s="3">
-        <v>-16600</v>
+        <v>-16000</v>
       </c>
       <c r="G94" s="3">
-        <v>-13600</v>
+        <v>-13100</v>
       </c>
       <c r="H94" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="I94" s="3">
-        <v>-6600</v>
+        <v>-6400</v>
       </c>
       <c r="J94" s="3">
-        <v>-10100</v>
+        <v>-9700</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3193,19 +3193,19 @@
         <v>1300</v>
       </c>
       <c r="F100" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G100" s="3">
-        <v>41500</v>
+        <v>40100</v>
       </c>
       <c r="H100" s="3">
         <v>500</v>
       </c>
       <c r="I100" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J100" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3247,25 +3247,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16100</v>
+        <v>-15600</v>
       </c>
       <c r="E102" s="3">
         <v>-700</v>
       </c>
       <c r="F102" s="3">
-        <v>-6100</v>
+        <v>-5900</v>
       </c>
       <c r="G102" s="3">
-        <v>39700</v>
+        <v>38300</v>
       </c>
       <c r="H102" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I102" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="J102" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>DTEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,155 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43498</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43134</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42763</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42399</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42035</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41664</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41300</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>154600</v>
+        <v>149500</v>
       </c>
       <c r="E8" s="3">
-        <v>162800</v>
+        <v>161900</v>
       </c>
       <c r="F8" s="3">
-        <v>157000</v>
+        <v>170500</v>
       </c>
       <c r="G8" s="3">
-        <v>131300</v>
+        <v>164400</v>
       </c>
       <c r="H8" s="3">
-        <v>103100</v>
+        <v>137500</v>
       </c>
       <c r="I8" s="3">
-        <v>78600</v>
+        <v>108000</v>
       </c>
       <c r="J8" s="3">
+        <v>82300</v>
+      </c>
+      <c r="K8" s="3">
         <v>53100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>83400</v>
+        <v>66900</v>
       </c>
       <c r="E9" s="3">
-        <v>84900</v>
+        <v>87400</v>
       </c>
       <c r="F9" s="3">
-        <v>78100</v>
+        <v>88900</v>
       </c>
       <c r="G9" s="3">
-        <v>62000</v>
+        <v>81800</v>
       </c>
       <c r="H9" s="3">
-        <v>46600</v>
+        <v>65000</v>
       </c>
       <c r="I9" s="3">
-        <v>35200</v>
+        <v>48900</v>
       </c>
       <c r="J9" s="3">
+        <v>36800</v>
+      </c>
+      <c r="K9" s="3">
         <v>23400</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>71200</v>
+        <v>82600</v>
       </c>
       <c r="E10" s="3">
-        <v>77900</v>
+        <v>74600</v>
       </c>
       <c r="F10" s="3">
-        <v>78800</v>
+        <v>81600</v>
       </c>
       <c r="G10" s="3">
-        <v>69300</v>
+        <v>82500</v>
       </c>
       <c r="H10" s="3">
-        <v>56500</v>
+        <v>72600</v>
       </c>
       <c r="I10" s="3">
-        <v>43400</v>
+        <v>59100</v>
       </c>
       <c r="J10" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K10" s="3">
         <v>29700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,8 +826,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,69 +889,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9200</v>
+        <v>13600</v>
       </c>
       <c r="E14" s="3">
-        <v>11000</v>
+        <v>9600</v>
       </c>
       <c r="F14" s="3">
-        <v>5700</v>
+        <v>11500</v>
       </c>
       <c r="G14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
-        <v>3000</v>
-      </c>
       <c r="I14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6000</v>
+        <v>14800</v>
       </c>
       <c r="E15" s="3">
-        <v>7200</v>
+        <v>6200</v>
       </c>
       <c r="F15" s="3">
-        <v>6400</v>
+        <v>7500</v>
       </c>
       <c r="G15" s="3">
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="H15" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="I15" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="J15" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K15" s="3">
         <v>2300</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,68 +970,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>174800</v>
+        <v>169900</v>
       </c>
       <c r="E17" s="3">
-        <v>180700</v>
+        <v>183000</v>
       </c>
       <c r="F17" s="3">
-        <v>161500</v>
+        <v>189300</v>
       </c>
       <c r="G17" s="3">
-        <v>120200</v>
+        <v>169200</v>
       </c>
       <c r="H17" s="3">
-        <v>96000</v>
+        <v>125900</v>
       </c>
       <c r="I17" s="3">
-        <v>73200</v>
+        <v>100600</v>
       </c>
       <c r="J17" s="3">
+        <v>76700</v>
+      </c>
+      <c r="K17" s="3">
         <v>50500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20200</v>
+        <v>-20300</v>
       </c>
       <c r="E18" s="3">
-        <v>-17900</v>
+        <v>-21100</v>
       </c>
       <c r="F18" s="3">
-        <v>-4600</v>
+        <v>-18800</v>
       </c>
       <c r="G18" s="3">
-        <v>11100</v>
+        <v>-4800</v>
       </c>
       <c r="H18" s="3">
-        <v>7100</v>
+        <v>11600</v>
       </c>
       <c r="I18" s="3">
-        <v>5400</v>
+        <v>7400</v>
       </c>
       <c r="J18" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,158 +1051,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
       <c r="G20" s="3">
-        <v>-102400</v>
+        <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>-900</v>
+        <v>-107300</v>
       </c>
       <c r="I20" s="3">
-        <v>-6200</v>
+        <v>-1000</v>
       </c>
       <c r="J20" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-13700</v>
+        <v>-5000</v>
       </c>
       <c r="E21" s="3">
-        <v>-10300</v>
+        <v>-14400</v>
       </c>
       <c r="F21" s="3">
-        <v>2200</v>
+        <v>-10800</v>
       </c>
       <c r="G21" s="3">
-        <v>-86700</v>
+        <v>2300</v>
       </c>
       <c r="H21" s="3">
-        <v>10100</v>
+        <v>-90800</v>
       </c>
       <c r="I21" s="3">
-        <v>2600</v>
+        <v>10600</v>
       </c>
       <c r="J21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E22" s="3">
         <v>1200</v>
       </c>
-      <c r="E22" s="3">
-        <v>1700</v>
-      </c>
       <c r="F22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
-        <v>1700</v>
-      </c>
       <c r="I22" s="3">
-        <v>1400</v>
+        <v>1800</v>
       </c>
       <c r="J22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20800</v>
+        <v>-24900</v>
       </c>
       <c r="E23" s="3">
-        <v>-19300</v>
+        <v>-21800</v>
       </c>
       <c r="F23" s="3">
-        <v>-4300</v>
+        <v>-20200</v>
       </c>
       <c r="G23" s="3">
-        <v>-92100</v>
+        <v>-4500</v>
       </c>
       <c r="H23" s="3">
-        <v>4400</v>
+        <v>-96500</v>
       </c>
       <c r="I23" s="3">
-        <v>-2300</v>
+        <v>4700</v>
       </c>
       <c r="J23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3500</v>
+        <v>-1400</v>
       </c>
       <c r="E24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>-1600</v>
-      </c>
       <c r="G24" s="3">
-        <v>3400</v>
+        <v>-1700</v>
       </c>
       <c r="H24" s="3">
-        <v>-200</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
-        <v>2200</v>
+        <v>-300</v>
       </c>
       <c r="J24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K24" s="3">
         <v>1200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,69 +1246,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24400</v>
+        <v>-23400</v>
       </c>
       <c r="E26" s="3">
-        <v>-19200</v>
+        <v>-25500</v>
       </c>
       <c r="F26" s="3">
-        <v>-2700</v>
+        <v>-20100</v>
       </c>
       <c r="G26" s="3">
-        <v>-95500</v>
+        <v>-2800</v>
       </c>
       <c r="H26" s="3">
-        <v>4700</v>
+        <v>-100000</v>
       </c>
       <c r="I26" s="3">
-        <v>-4500</v>
+        <v>4900</v>
       </c>
       <c r="J26" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24400</v>
+        <v>-23400</v>
       </c>
       <c r="E27" s="3">
-        <v>-19200</v>
+        <v>-25500</v>
       </c>
       <c r="F27" s="3">
-        <v>-2700</v>
+        <v>-20100</v>
       </c>
       <c r="G27" s="3">
-        <v>-95500</v>
+        <v>-2800</v>
       </c>
       <c r="H27" s="3">
-        <v>4700</v>
+        <v>-100000</v>
       </c>
       <c r="I27" s="3">
-        <v>-4500</v>
+        <v>4900</v>
       </c>
       <c r="J27" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,20 +1345,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E29" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1318,9 +1378,12 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,69 +1444,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
       <c r="G32" s="3">
-        <v>102400</v>
+        <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>900</v>
+        <v>107300</v>
       </c>
       <c r="I32" s="3">
-        <v>6200</v>
+        <v>1000</v>
       </c>
       <c r="J32" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="E33" s="3">
-        <v>-20700</v>
+        <v>-25500</v>
       </c>
       <c r="F33" s="3">
-        <v>-2700</v>
+        <v>-21700</v>
       </c>
       <c r="G33" s="3">
-        <v>-95500</v>
+        <v>-2800</v>
       </c>
       <c r="H33" s="3">
-        <v>4700</v>
+        <v>-100000</v>
       </c>
       <c r="I33" s="3">
-        <v>-4500</v>
+        <v>4900</v>
       </c>
       <c r="J33" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,74 +1543,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="E35" s="3">
-        <v>-20700</v>
+        <v>-25500</v>
       </c>
       <c r="F35" s="3">
-        <v>-2700</v>
+        <v>-21700</v>
       </c>
       <c r="G35" s="3">
-        <v>-95500</v>
+        <v>-2800</v>
       </c>
       <c r="H35" s="3">
-        <v>4700</v>
+        <v>-100000</v>
       </c>
       <c r="I35" s="3">
-        <v>-4500</v>
+        <v>4900</v>
       </c>
       <c r="J35" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43498</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43134</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42763</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42399</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42035</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41664</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41300</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,38 +1647,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>30600</v>
+        <v>35300</v>
       </c>
       <c r="E41" s="3">
-        <v>46100</v>
+        <v>32000</v>
       </c>
       <c r="F41" s="3">
-        <v>46800</v>
+        <v>48300</v>
       </c>
       <c r="G41" s="3">
-        <v>52700</v>
+        <v>49000</v>
       </c>
       <c r="H41" s="3">
-        <v>14400</v>
+        <v>55200</v>
       </c>
       <c r="I41" s="3">
-        <v>11100</v>
+        <v>15100</v>
       </c>
       <c r="J41" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K41" s="3">
         <v>5500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,129 +1710,144 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5700</v>
+        <v>5500</v>
       </c>
       <c r="E43" s="3">
-        <v>4400</v>
+        <v>5900</v>
       </c>
       <c r="F43" s="3">
-        <v>2900</v>
+        <v>4600</v>
       </c>
       <c r="G43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24900</v>
+        <v>17000</v>
       </c>
       <c r="E44" s="3">
-        <v>17800</v>
+        <v>26100</v>
       </c>
       <c r="F44" s="3">
-        <v>22700</v>
+        <v>18600</v>
       </c>
       <c r="G44" s="3">
-        <v>12900</v>
+        <v>23800</v>
       </c>
       <c r="H44" s="3">
-        <v>9100</v>
+        <v>13500</v>
       </c>
       <c r="I44" s="3">
-        <v>8200</v>
+        <v>9500</v>
       </c>
       <c r="J44" s="3">
+        <v>8600</v>
+      </c>
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6400</v>
+        <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>5600</v>
+        <v>6700</v>
       </c>
       <c r="F45" s="3">
-        <v>4400</v>
+        <v>5900</v>
       </c>
       <c r="G45" s="3">
-        <v>5800</v>
+        <v>4700</v>
       </c>
       <c r="H45" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67600</v>
+        <v>61300</v>
       </c>
       <c r="E46" s="3">
-        <v>73900</v>
+        <v>70800</v>
       </c>
       <c r="F46" s="3">
-        <v>76900</v>
+        <v>77400</v>
       </c>
       <c r="G46" s="3">
-        <v>73700</v>
+        <v>80600</v>
       </c>
       <c r="H46" s="3">
-        <v>28000</v>
+        <v>77300</v>
       </c>
       <c r="I46" s="3">
-        <v>22200</v>
+        <v>29300</v>
       </c>
       <c r="J46" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K46" s="3">
         <v>15900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1771,69 +1875,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17300</v>
+        <v>40200</v>
       </c>
       <c r="E48" s="3">
-        <v>26600</v>
+        <v>18100</v>
       </c>
       <c r="F48" s="3">
-        <v>37200</v>
+        <v>27800</v>
       </c>
       <c r="G48" s="3">
-        <v>34400</v>
+        <v>38900</v>
       </c>
       <c r="H48" s="3">
-        <v>25900</v>
+        <v>36000</v>
       </c>
       <c r="I48" s="3">
-        <v>21700</v>
+        <v>27100</v>
       </c>
       <c r="J48" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K48" s="3">
         <v>18900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4100</v>
+        <v>4800</v>
       </c>
       <c r="E49" s="3">
-        <v>3200</v>
+        <v>4300</v>
       </c>
       <c r="F49" s="3">
-        <v>2100</v>
+        <v>3400</v>
       </c>
       <c r="G49" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>1200</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J49" s="3">
         <v>1100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,39 +2007,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>10400</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="3">
-        <v>5700</v>
+        <v>10900</v>
       </c>
       <c r="H52" s="3">
-        <v>2300</v>
+        <v>6000</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+        <v>2400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,39 +2073,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>89000</v>
+        <v>106300</v>
       </c>
       <c r="E54" s="3">
-        <v>107400</v>
+        <v>93200</v>
       </c>
       <c r="F54" s="3">
-        <v>126600</v>
+        <v>112600</v>
       </c>
       <c r="G54" s="3">
-        <v>115500</v>
+        <v>132700</v>
       </c>
       <c r="H54" s="3">
-        <v>57400</v>
+        <v>121000</v>
       </c>
       <c r="I54" s="3">
-        <v>45000</v>
+        <v>60200</v>
       </c>
       <c r="J54" s="3">
+        <v>47100</v>
+      </c>
+      <c r="K54" s="3">
         <v>36200</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,43 +2139,47 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>15200</v>
+        <v>12600</v>
       </c>
       <c r="E57" s="3">
-        <v>8100</v>
+        <v>15900</v>
       </c>
       <c r="F57" s="3">
-        <v>10200</v>
+        <v>8500</v>
       </c>
       <c r="G57" s="3">
-        <v>8000</v>
+        <v>10600</v>
       </c>
       <c r="H57" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="I57" s="3">
-        <v>7300</v>
+        <v>9500</v>
       </c>
       <c r="J57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>12500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2054,89 +2187,98 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H58" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="J58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7200</v>
+        <v>8400</v>
       </c>
       <c r="E59" s="3">
-        <v>9600</v>
+        <v>7600</v>
       </c>
       <c r="F59" s="3">
-        <v>9500</v>
+        <v>10100</v>
       </c>
       <c r="G59" s="3">
-        <v>5700</v>
+        <v>10000</v>
       </c>
       <c r="H59" s="3">
-        <v>2200</v>
+        <v>5900</v>
       </c>
       <c r="I59" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22400</v>
+        <v>33500</v>
       </c>
       <c r="E60" s="3">
-        <v>17800</v>
+        <v>23500</v>
       </c>
       <c r="F60" s="3">
-        <v>19700</v>
+        <v>18600</v>
       </c>
       <c r="G60" s="3">
-        <v>13600</v>
+        <v>20600</v>
       </c>
       <c r="H60" s="3">
         <v>14300</v>
       </c>
       <c r="I60" s="3">
-        <v>12300</v>
+        <v>15000</v>
       </c>
       <c r="J60" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9800</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>55000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2148,50 +2290,56 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>7600</v>
+        <v>4700</v>
       </c>
       <c r="J61" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K61" s="3">
         <v>4900</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17500</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>16000</v>
+        <v>18400</v>
       </c>
       <c r="F62" s="3">
-        <v>10000</v>
+        <v>16800</v>
       </c>
       <c r="G62" s="3">
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="H62" s="3">
-        <v>38700</v>
+        <v>4700</v>
       </c>
       <c r="I62" s="3">
-        <v>31800</v>
+        <v>40500</v>
       </c>
       <c r="J62" s="3">
+        <v>33300</v>
+      </c>
+      <c r="K62" s="3">
         <v>24300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,39 +2433,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40000</v>
+        <v>88500</v>
       </c>
       <c r="E66" s="3">
-        <v>33800</v>
+        <v>41900</v>
       </c>
       <c r="F66" s="3">
-        <v>29700</v>
+        <v>35400</v>
       </c>
       <c r="G66" s="3">
-        <v>18100</v>
+        <v>31100</v>
       </c>
       <c r="H66" s="3">
-        <v>57500</v>
+        <v>19000</v>
       </c>
       <c r="I66" s="3">
-        <v>51700</v>
+        <v>60200</v>
       </c>
       <c r="J66" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K66" s="3">
         <v>39000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,39 +2613,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-34800</v>
+        <v>-70200</v>
       </c>
       <c r="E72" s="3">
-        <v>-10700</v>
+        <v>-36500</v>
       </c>
       <c r="F72" s="3">
-        <v>-103400</v>
+        <v>-11200</v>
       </c>
       <c r="G72" s="3">
-        <v>-100600</v>
+        <v>-108400</v>
       </c>
       <c r="H72" s="3">
+        <v>-105400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3000</v>
       </c>
-      <c r="I72" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,39 +2745,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49000</v>
+        <v>17800</v>
       </c>
       <c r="E76" s="3">
-        <v>73600</v>
+        <v>51300</v>
       </c>
       <c r="F76" s="3">
-        <v>96900</v>
+        <v>77200</v>
       </c>
       <c r="G76" s="3">
-        <v>97300</v>
+        <v>101600</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>102000</v>
       </c>
       <c r="I76" s="3">
-        <v>-6800</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K76" s="3">
         <v>-2800</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,74 +2811,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43498</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43134</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42763</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42399</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42035</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41664</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41300</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24400</v>
+        <v>-23700</v>
       </c>
       <c r="E81" s="3">
-        <v>-20700</v>
+        <v>-25500</v>
       </c>
       <c r="F81" s="3">
-        <v>-2700</v>
+        <v>-21700</v>
       </c>
       <c r="G81" s="3">
-        <v>-95500</v>
+        <v>-2800</v>
       </c>
       <c r="H81" s="3">
-        <v>4700</v>
+        <v>-100000</v>
       </c>
       <c r="I81" s="3">
-        <v>-4500</v>
+        <v>4900</v>
       </c>
       <c r="J81" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,38 +2900,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6000</v>
+        <v>14800</v>
       </c>
       <c r="E83" s="3">
-        <v>7200</v>
+        <v>6200</v>
       </c>
       <c r="F83" s="3">
-        <v>6400</v>
+        <v>7500</v>
       </c>
       <c r="G83" s="3">
-        <v>4700</v>
+        <v>6700</v>
       </c>
       <c r="H83" s="3">
-        <v>4000</v>
+        <v>4900</v>
       </c>
       <c r="I83" s="3">
-        <v>3400</v>
+        <v>4100</v>
       </c>
       <c r="J83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K83" s="3">
         <v>2300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,39 +3095,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9600</v>
+        <v>25200</v>
       </c>
       <c r="E89" s="3">
-        <v>7200</v>
+        <v>-10100</v>
       </c>
       <c r="F89" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="G89" s="3">
-        <v>11300</v>
+        <v>8500</v>
       </c>
       <c r="H89" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="I89" s="3">
-        <v>10300</v>
+        <v>12900</v>
       </c>
       <c r="J89" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,38 +3146,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2800</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-7000</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-14900</v>
+        <v>-7300</v>
       </c>
       <c r="G91" s="3">
-        <v>-12200</v>
+        <v>-15600</v>
       </c>
       <c r="H91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9000</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,39 +3242,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6000</v>
+        <v>-4300</v>
       </c>
       <c r="E94" s="3">
-        <v>-9200</v>
+        <v>-6300</v>
       </c>
       <c r="F94" s="3">
-        <v>-16000</v>
+        <v>-9600</v>
       </c>
       <c r="G94" s="3">
-        <v>-13100</v>
+        <v>-16800</v>
       </c>
       <c r="H94" s="3">
-        <v>-9600</v>
+        <v>-13700</v>
       </c>
       <c r="I94" s="3">
-        <v>-6400</v>
+        <v>-10000</v>
       </c>
       <c r="J94" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,39 +3422,45 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>1300</v>
-      </c>
       <c r="F100" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="G100" s="3">
-        <v>40100</v>
+        <v>2100</v>
       </c>
       <c r="H100" s="3">
+        <v>42000</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>1600</v>
-      </c>
       <c r="J100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K100" s="3">
         <v>13000</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3240,37 +3488,43 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15600</v>
+        <v>3200</v>
       </c>
       <c r="E102" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
-        <v>-5900</v>
-      </c>
       <c r="G102" s="3">
-        <v>38300</v>
+        <v>-6100</v>
       </c>
       <c r="H102" s="3">
-        <v>3200</v>
+        <v>40100</v>
       </c>
       <c r="I102" s="3">
-        <v>5600</v>
+        <v>3400</v>
       </c>
       <c r="J102" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K102" s="3">
         <v>3400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>149500</v>
+        <v>151200</v>
       </c>
       <c r="E8" s="3">
-        <v>161900</v>
+        <v>163800</v>
       </c>
       <c r="F8" s="3">
-        <v>170500</v>
+        <v>172500</v>
       </c>
       <c r="G8" s="3">
-        <v>164400</v>
+        <v>166300</v>
       </c>
       <c r="H8" s="3">
-        <v>137500</v>
+        <v>139100</v>
       </c>
       <c r="I8" s="3">
-        <v>108000</v>
+        <v>109200</v>
       </c>
       <c r="J8" s="3">
-        <v>82300</v>
+        <v>83300</v>
       </c>
       <c r="K8" s="3">
         <v>53100</v>
@@ -752,25 +752,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>66900</v>
+        <v>67700</v>
       </c>
       <c r="E9" s="3">
-        <v>87400</v>
+        <v>88400</v>
       </c>
       <c r="F9" s="3">
-        <v>88900</v>
+        <v>89900</v>
       </c>
       <c r="G9" s="3">
-        <v>81800</v>
+        <v>82800</v>
       </c>
       <c r="H9" s="3">
-        <v>65000</v>
+        <v>65700</v>
       </c>
       <c r="I9" s="3">
-        <v>48900</v>
+        <v>49400</v>
       </c>
       <c r="J9" s="3">
-        <v>36800</v>
+        <v>37300</v>
       </c>
       <c r="K9" s="3">
         <v>23400</v>
@@ -785,25 +785,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>83600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>75400</v>
+      </c>
+      <c r="F10" s="3">
         <v>82600</v>
       </c>
-      <c r="E10" s="3">
-        <v>74600</v>
-      </c>
-      <c r="F10" s="3">
-        <v>81600</v>
-      </c>
       <c r="G10" s="3">
-        <v>82500</v>
+        <v>83500</v>
       </c>
       <c r="H10" s="3">
-        <v>72600</v>
+        <v>73400</v>
       </c>
       <c r="I10" s="3">
-        <v>59100</v>
+        <v>59800</v>
       </c>
       <c r="J10" s="3">
-        <v>45500</v>
+        <v>46000</v>
       </c>
       <c r="K10" s="3">
         <v>29700</v>
@@ -899,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13600</v>
+        <v>13800</v>
       </c>
       <c r="E14" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="F14" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
       </c>
       <c r="I14" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J14" s="3">
         <v>900</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="E15" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F15" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G15" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H15" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I15" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J15" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K15" s="3">
         <v>2300</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>169900</v>
+        <v>171800</v>
       </c>
       <c r="E17" s="3">
-        <v>183000</v>
+        <v>185100</v>
       </c>
       <c r="F17" s="3">
-        <v>189300</v>
+        <v>191500</v>
       </c>
       <c r="G17" s="3">
-        <v>169200</v>
+        <v>171100</v>
       </c>
       <c r="H17" s="3">
-        <v>125900</v>
+        <v>127400</v>
       </c>
       <c r="I17" s="3">
-        <v>100600</v>
+        <v>101700</v>
       </c>
       <c r="J17" s="3">
-        <v>76700</v>
+        <v>77600</v>
       </c>
       <c r="K17" s="3">
         <v>50500</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20300</v>
+        <v>-20600</v>
       </c>
       <c r="E18" s="3">
-        <v>-21100</v>
+        <v>-21400</v>
       </c>
       <c r="F18" s="3">
-        <v>-18800</v>
+        <v>-19000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="H18" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I18" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J18" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="K18" s="3">
         <v>2600</v>
@@ -1070,13 +1070,13 @@
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>-107300</v>
+        <v>-108500</v>
       </c>
       <c r="I20" s="3">
         <v>-1000</v>
       </c>
       <c r="J20" s="3">
-        <v>-6500</v>
+        <v>-6600</v>
       </c>
       <c r="K20" s="3">
         <v>-3200</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="E21" s="3">
-        <v>-14400</v>
+        <v>-14500</v>
       </c>
       <c r="F21" s="3">
-        <v>-10800</v>
+        <v>-11000</v>
       </c>
       <c r="G21" s="3">
         <v>2300</v>
       </c>
       <c r="H21" s="3">
-        <v>-90800</v>
+        <v>-91800</v>
       </c>
       <c r="I21" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="J21" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K21" s="3">
         <v>1700</v>
@@ -1124,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E22" s="3">
         <v>1200</v>
@@ -1157,19 +1157,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-24900</v>
+        <v>-25200</v>
       </c>
       <c r="E23" s="3">
-        <v>-21800</v>
+        <v>-22100</v>
       </c>
       <c r="F23" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="G23" s="3">
         <v>-4500</v>
       </c>
       <c r="H23" s="3">
-        <v>-96500</v>
+        <v>-97600</v>
       </c>
       <c r="I23" s="3">
         <v>4700</v>
@@ -1190,10 +1190,10 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
@@ -1208,7 +1208,7 @@
         <v>-300</v>
       </c>
       <c r="J24" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K24" s="3">
         <v>1200</v>
@@ -1256,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23400</v>
+        <v>-23700</v>
       </c>
       <c r="E26" s="3">
-        <v>-25500</v>
+        <v>-25800</v>
       </c>
       <c r="F26" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="G26" s="3">
         <v>-2800</v>
       </c>
       <c r="H26" s="3">
-        <v>-100000</v>
+        <v>-101200</v>
       </c>
       <c r="I26" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J26" s="3">
         <v>-4700</v>
@@ -1289,22 +1289,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23400</v>
+        <v>-23700</v>
       </c>
       <c r="E27" s="3">
-        <v>-25500</v>
+        <v>-25800</v>
       </c>
       <c r="F27" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="G27" s="3">
         <v>-2800</v>
       </c>
       <c r="H27" s="3">
-        <v>-100000</v>
+        <v>-101200</v>
       </c>
       <c r="I27" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="3">
         <v>-4700</v>
@@ -1466,13 +1466,13 @@
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>107300</v>
+        <v>108500</v>
       </c>
       <c r="I32" s="3">
         <v>1000</v>
       </c>
       <c r="J32" s="3">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="K32" s="3">
         <v>3200</v>
@@ -1487,22 +1487,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-23700</v>
+        <v>-24000</v>
       </c>
       <c r="E33" s="3">
-        <v>-25500</v>
+        <v>-25800</v>
       </c>
       <c r="F33" s="3">
-        <v>-21700</v>
+        <v>-21900</v>
       </c>
       <c r="G33" s="3">
         <v>-2800</v>
       </c>
       <c r="H33" s="3">
-        <v>-100000</v>
+        <v>-101200</v>
       </c>
       <c r="I33" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="3">
         <v>-4700</v>
@@ -1553,22 +1553,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-23700</v>
+        <v>-24000</v>
       </c>
       <c r="E35" s="3">
-        <v>-25500</v>
+        <v>-25800</v>
       </c>
       <c r="F35" s="3">
-        <v>-21700</v>
+        <v>-21900</v>
       </c>
       <c r="G35" s="3">
         <v>-2800</v>
       </c>
       <c r="H35" s="3">
-        <v>-100000</v>
+        <v>-101200</v>
       </c>
       <c r="I35" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
         <v>-4700</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35300</v>
+        <v>35700</v>
       </c>
       <c r="E41" s="3">
-        <v>32000</v>
+        <v>32400</v>
       </c>
       <c r="F41" s="3">
-        <v>48300</v>
+        <v>48900</v>
       </c>
       <c r="G41" s="3">
-        <v>49000</v>
+        <v>49600</v>
       </c>
       <c r="H41" s="3">
-        <v>55200</v>
+        <v>55800</v>
       </c>
       <c r="I41" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="J41" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="K41" s="3">
         <v>5500</v>
@@ -1720,13 +1720,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="E43" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="F43" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="G43" s="3">
         <v>3100</v>
@@ -1735,10 +1735,10 @@
         <v>2500</v>
       </c>
       <c r="I43" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J43" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17000</v>
+        <v>17200</v>
       </c>
       <c r="E44" s="3">
-        <v>26100</v>
+        <v>26400</v>
       </c>
       <c r="F44" s="3">
-        <v>18600</v>
+        <v>18800</v>
       </c>
       <c r="G44" s="3">
-        <v>23800</v>
+        <v>24100</v>
       </c>
       <c r="H44" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="I44" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J44" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="K44" s="3">
         <v>7900</v>
@@ -1789,7 +1789,7 @@
         <v>3500</v>
       </c>
       <c r="E45" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="F45" s="3">
         <v>5900</v>
@@ -1798,7 +1798,7 @@
         <v>4700</v>
       </c>
       <c r="H45" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I45" s="3">
         <v>2300</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61300</v>
+        <v>62000</v>
       </c>
       <c r="E46" s="3">
-        <v>70800</v>
+        <v>71600</v>
       </c>
       <c r="F46" s="3">
-        <v>77400</v>
+        <v>78300</v>
       </c>
       <c r="G46" s="3">
-        <v>80600</v>
+        <v>81500</v>
       </c>
       <c r="H46" s="3">
-        <v>77300</v>
+        <v>78200</v>
       </c>
       <c r="I46" s="3">
-        <v>29300</v>
+        <v>29700</v>
       </c>
       <c r="J46" s="3">
-        <v>23300</v>
+        <v>23500</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40200</v>
+        <v>40700</v>
       </c>
       <c r="E48" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="F48" s="3">
-        <v>27800</v>
+        <v>28100</v>
       </c>
       <c r="G48" s="3">
-        <v>38900</v>
+        <v>39400</v>
       </c>
       <c r="H48" s="3">
-        <v>36000</v>
+        <v>36400</v>
       </c>
       <c r="I48" s="3">
-        <v>27100</v>
+        <v>27400</v>
       </c>
       <c r="J48" s="3">
-        <v>22700</v>
+        <v>23000</v>
       </c>
       <c r="K48" s="3">
         <v>18900</v>
@@ -1918,10 +1918,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E49" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="F49" s="3">
         <v>3400</v>
@@ -1936,7 +1936,7 @@
         <v>1300</v>
       </c>
       <c r="J49" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>1400</v>
@@ -2026,13 +2026,13 @@
         <v>4000</v>
       </c>
       <c r="G52" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="I52" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>106300</v>
+        <v>107500</v>
       </c>
       <c r="E54" s="3">
-        <v>93200</v>
+        <v>94300</v>
       </c>
       <c r="F54" s="3">
-        <v>112600</v>
+        <v>113900</v>
       </c>
       <c r="G54" s="3">
-        <v>132700</v>
+        <v>134200</v>
       </c>
       <c r="H54" s="3">
-        <v>121000</v>
+        <v>122400</v>
       </c>
       <c r="I54" s="3">
-        <v>60200</v>
+        <v>60900</v>
       </c>
       <c r="J54" s="3">
-        <v>47100</v>
+        <v>47700</v>
       </c>
       <c r="K54" s="3">
         <v>36200</v>
@@ -2146,22 +2146,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="E57" s="3">
-        <v>15900</v>
+        <v>11500</v>
       </c>
       <c r="F57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="G57" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8400</v>
-      </c>
       <c r="I57" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="J57" s="3">
         <v>7700</v>
@@ -2179,7 +2179,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2197,7 +2197,7 @@
         <v>3300</v>
       </c>
       <c r="J58" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
@@ -2212,25 +2212,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="E59" s="3">
-        <v>7600</v>
+        <v>12300</v>
       </c>
       <c r="F59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="G59" s="3">
         <v>10100</v>
       </c>
-      <c r="G59" s="3">
-        <v>10000</v>
-      </c>
       <c r="H59" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I59" s="3">
         <v>2300</v>
       </c>
       <c r="J59" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K59" s="3">
         <v>1700</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33500</v>
+        <v>33900</v>
       </c>
       <c r="E60" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="F60" s="3">
-        <v>18600</v>
+        <v>18900</v>
       </c>
       <c r="G60" s="3">
-        <v>20600</v>
+        <v>20900</v>
       </c>
       <c r="H60" s="3">
-        <v>14300</v>
+        <v>14500</v>
       </c>
       <c r="I60" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="J60" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="K60" s="3">
         <v>9800</v>
@@ -2278,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55000</v>
+        <v>55600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2314,22 +2314,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="F62" s="3">
-        <v>16800</v>
+        <v>17000</v>
       </c>
       <c r="G62" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="H62" s="3">
         <v>4700</v>
       </c>
       <c r="I62" s="3">
-        <v>40500</v>
+        <v>41000</v>
       </c>
       <c r="J62" s="3">
-        <v>33300</v>
+        <v>33700</v>
       </c>
       <c r="K62" s="3">
         <v>24300</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88500</v>
+        <v>89500</v>
       </c>
       <c r="E66" s="3">
-        <v>41900</v>
+        <v>42400</v>
       </c>
       <c r="F66" s="3">
-        <v>35400</v>
+        <v>35800</v>
       </c>
       <c r="G66" s="3">
-        <v>31100</v>
+        <v>31500</v>
       </c>
       <c r="H66" s="3">
-        <v>19000</v>
+        <v>19200</v>
       </c>
       <c r="I66" s="3">
-        <v>60200</v>
+        <v>60900</v>
       </c>
       <c r="J66" s="3">
-        <v>54200</v>
+        <v>54900</v>
       </c>
       <c r="K66" s="3">
         <v>39000</v>
@@ -2623,22 +2623,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70200</v>
+        <v>-71000</v>
       </c>
       <c r="E72" s="3">
-        <v>-36500</v>
+        <v>-36900</v>
       </c>
       <c r="F72" s="3">
-        <v>-11200</v>
+        <v>-11300</v>
       </c>
       <c r="G72" s="3">
-        <v>-108400</v>
+        <v>-109600</v>
       </c>
       <c r="H72" s="3">
-        <v>-105400</v>
+        <v>-106600</v>
       </c>
       <c r="I72" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="J72" s="3">
         <v>-8100</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="E76" s="3">
-        <v>51300</v>
+        <v>51900</v>
       </c>
       <c r="F76" s="3">
-        <v>77200</v>
+        <v>78000</v>
       </c>
       <c r="G76" s="3">
-        <v>101600</v>
+        <v>102700</v>
       </c>
       <c r="H76" s="3">
-        <v>102000</v>
+        <v>103200</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-7100</v>
+        <v>-7200</v>
       </c>
       <c r="K76" s="3">
         <v>-2800</v>
@@ -2859,22 +2859,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-23700</v>
+        <v>-24000</v>
       </c>
       <c r="E81" s="3">
-        <v>-25500</v>
+        <v>-25800</v>
       </c>
       <c r="F81" s="3">
-        <v>-21700</v>
+        <v>-21900</v>
       </c>
       <c r="G81" s="3">
         <v>-2800</v>
       </c>
       <c r="H81" s="3">
-        <v>-100000</v>
+        <v>-101200</v>
       </c>
       <c r="I81" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J81" s="3">
         <v>-4700</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14800</v>
+        <v>14900</v>
       </c>
       <c r="E83" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="F83" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G83" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="H83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="I83" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J83" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K83" s="3">
         <v>2300</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25200</v>
+        <v>25500</v>
       </c>
       <c r="E89" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="F89" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="G89" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="H89" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="I89" s="3">
-        <v>12900</v>
+        <v>13100</v>
       </c>
       <c r="J89" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
@@ -3159,19 +3159,19 @@
         <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-7300</v>
+        <v>-7400</v>
       </c>
       <c r="G91" s="3">
-        <v>-15600</v>
+        <v>-15800</v>
       </c>
       <c r="H91" s="3">
-        <v>-12800</v>
+        <v>-13000</v>
       </c>
       <c r="I91" s="3">
-        <v>-9500</v>
+        <v>-9600</v>
       </c>
       <c r="J91" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="K91" s="3">
         <v>-9000</v>
@@ -3252,22 +3252,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="E94" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="F94" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="G94" s="3">
-        <v>-16800</v>
+        <v>-16900</v>
       </c>
       <c r="H94" s="3">
-        <v>-13700</v>
+        <v>-13900</v>
       </c>
       <c r="I94" s="3">
-        <v>-10000</v>
+        <v>-10100</v>
       </c>
       <c r="J94" s="3">
         <v>-6700</v>
@@ -3432,7 +3432,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17700</v>
+        <v>-17900</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -3444,7 +3444,7 @@
         <v>2100</v>
       </c>
       <c r="H100" s="3">
-        <v>42000</v>
+        <v>42500</v>
       </c>
       <c r="I100" s="3">
         <v>500</v>
@@ -3498,19 +3498,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E102" s="3">
-        <v>-16300</v>
+        <v>-16500</v>
       </c>
       <c r="F102" s="3">
         <v>-700</v>
       </c>
       <c r="G102" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="H102" s="3">
-        <v>40100</v>
+        <v>40600</v>
       </c>
       <c r="I102" s="3">
         <v>3400</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -719,25 +719,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>151200</v>
+        <v>155800</v>
       </c>
       <c r="E8" s="3">
-        <v>163800</v>
+        <v>168700</v>
       </c>
       <c r="F8" s="3">
-        <v>172500</v>
+        <v>177600</v>
       </c>
       <c r="G8" s="3">
-        <v>166300</v>
+        <v>171300</v>
       </c>
       <c r="H8" s="3">
-        <v>139100</v>
+        <v>143300</v>
       </c>
       <c r="I8" s="3">
-        <v>109200</v>
+        <v>112500</v>
       </c>
       <c r="J8" s="3">
-        <v>83300</v>
+        <v>85800</v>
       </c>
       <c r="K8" s="3">
         <v>53100</v>
@@ -752,25 +752,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>91000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>92600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>85300</v>
+      </c>
+      <c r="H9" s="3">
         <v>67700</v>
       </c>
-      <c r="E9" s="3">
-        <v>88400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>89900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>82800</v>
-      </c>
-      <c r="H9" s="3">
-        <v>65700</v>
-      </c>
       <c r="I9" s="3">
-        <v>49400</v>
+        <v>50900</v>
       </c>
       <c r="J9" s="3">
-        <v>37300</v>
+        <v>38400</v>
       </c>
       <c r="K9" s="3">
         <v>23400</v>
@@ -785,25 +785,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>83600</v>
+        <v>86100</v>
       </c>
       <c r="E10" s="3">
-        <v>75400</v>
+        <v>77700</v>
       </c>
       <c r="F10" s="3">
-        <v>82600</v>
+        <v>85000</v>
       </c>
       <c r="G10" s="3">
-        <v>83500</v>
+        <v>86000</v>
       </c>
       <c r="H10" s="3">
-        <v>73400</v>
+        <v>75600</v>
       </c>
       <c r="I10" s="3">
-        <v>59800</v>
+        <v>61600</v>
       </c>
       <c r="J10" s="3">
-        <v>46000</v>
+        <v>47400</v>
       </c>
       <c r="K10" s="3">
         <v>29700</v>
@@ -899,22 +899,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>13800</v>
+        <v>14200</v>
       </c>
       <c r="E14" s="3">
-        <v>9700</v>
+        <v>10000</v>
       </c>
       <c r="F14" s="3">
-        <v>11700</v>
+        <v>12000</v>
       </c>
       <c r="G14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H14" s="3">
         <v>200</v>
       </c>
       <c r="I14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J14" s="3">
         <v>900</v>
@@ -932,25 +932,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="E15" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="F15" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="G15" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H15" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I15" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J15" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K15" s="3">
         <v>2300</v>
@@ -977,25 +977,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>171800</v>
+        <v>177000</v>
       </c>
       <c r="E17" s="3">
-        <v>185100</v>
+        <v>190700</v>
       </c>
       <c r="F17" s="3">
-        <v>191500</v>
+        <v>197200</v>
       </c>
       <c r="G17" s="3">
-        <v>171100</v>
+        <v>176300</v>
       </c>
       <c r="H17" s="3">
-        <v>127400</v>
+        <v>131200</v>
       </c>
       <c r="I17" s="3">
-        <v>101700</v>
+        <v>104800</v>
       </c>
       <c r="J17" s="3">
-        <v>77600</v>
+        <v>79900</v>
       </c>
       <c r="K17" s="3">
         <v>50500</v>
@@ -1010,25 +1010,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-20600</v>
+        <v>-21200</v>
       </c>
       <c r="E18" s="3">
-        <v>-21400</v>
+        <v>-22000</v>
       </c>
       <c r="F18" s="3">
-        <v>-19000</v>
+        <v>-19600</v>
       </c>
       <c r="G18" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="H18" s="3">
-        <v>11700</v>
+        <v>12100</v>
       </c>
       <c r="I18" s="3">
-        <v>7500</v>
+        <v>7700</v>
       </c>
       <c r="J18" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="K18" s="3">
         <v>2600</v>
@@ -1061,7 +1061,7 @@
         <v>600</v>
       </c>
       <c r="E20" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
@@ -1070,13 +1070,13 @@
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>-108500</v>
+        <v>-111800</v>
       </c>
       <c r="I20" s="3">
         <v>-1000</v>
       </c>
       <c r="J20" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="K20" s="3">
         <v>-3200</v>
@@ -1091,25 +1091,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5100</v>
+        <v>-5200</v>
       </c>
       <c r="E21" s="3">
-        <v>-14500</v>
+        <v>-14900</v>
       </c>
       <c r="F21" s="3">
-        <v>-11000</v>
+        <v>-11300</v>
       </c>
       <c r="G21" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="H21" s="3">
-        <v>-91800</v>
+        <v>-94600</v>
       </c>
       <c r="I21" s="3">
-        <v>10700</v>
+        <v>11000</v>
       </c>
       <c r="J21" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K21" s="3">
         <v>1700</v>
@@ -1124,13 +1124,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="E22" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1139,10 +1139,10 @@
         <v>800</v>
       </c>
       <c r="I22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1157,25 +1157,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25200</v>
+        <v>-25900</v>
       </c>
       <c r="E23" s="3">
-        <v>-22100</v>
+        <v>-22700</v>
       </c>
       <c r="F23" s="3">
-        <v>-20400</v>
+        <v>-21000</v>
       </c>
       <c r="G23" s="3">
-        <v>-4500</v>
+        <v>-4700</v>
       </c>
       <c r="H23" s="3">
-        <v>-97600</v>
+        <v>-100500</v>
       </c>
       <c r="I23" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J23" s="3">
-        <v>-2400</v>
+        <v>-2500</v>
       </c>
       <c r="K23" s="3">
         <v>-1900</v>
@@ -1193,16 +1193,16 @@
         <v>-1500</v>
       </c>
       <c r="E24" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
         <v>-300</v>
@@ -1256,25 +1256,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-23700</v>
+        <v>-24400</v>
       </c>
       <c r="E26" s="3">
-        <v>-25800</v>
+        <v>-26600</v>
       </c>
       <c r="F26" s="3">
-        <v>-20300</v>
+        <v>-20900</v>
       </c>
       <c r="G26" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H26" s="3">
-        <v>-101200</v>
+        <v>-104200</v>
       </c>
       <c r="I26" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J26" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K26" s="3">
         <v>-3200</v>
@@ -1289,25 +1289,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-23700</v>
+        <v>-24400</v>
       </c>
       <c r="E27" s="3">
-        <v>-25800</v>
+        <v>-26600</v>
       </c>
       <c r="F27" s="3">
-        <v>-20300</v>
+        <v>-20900</v>
       </c>
       <c r="G27" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H27" s="3">
-        <v>-101200</v>
+        <v>-104200</v>
       </c>
       <c r="I27" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J27" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K27" s="3">
         <v>-3200</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1457,7 +1457,7 @@
         <v>-600</v>
       </c>
       <c r="E32" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
@@ -1466,13 +1466,13 @@
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>108500</v>
+        <v>111800</v>
       </c>
       <c r="I32" s="3">
         <v>1000</v>
       </c>
       <c r="J32" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="K32" s="3">
         <v>3200</v>
@@ -1487,25 +1487,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24000</v>
+        <v>-24700</v>
       </c>
       <c r="E33" s="3">
-        <v>-25800</v>
+        <v>-26600</v>
       </c>
       <c r="F33" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="G33" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H33" s="3">
-        <v>-101200</v>
+        <v>-104200</v>
       </c>
       <c r="I33" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J33" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K33" s="3">
         <v>-3200</v>
@@ -1553,25 +1553,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24000</v>
+        <v>-24700</v>
       </c>
       <c r="E35" s="3">
-        <v>-25800</v>
+        <v>-26600</v>
       </c>
       <c r="F35" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="G35" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H35" s="3">
-        <v>-101200</v>
+        <v>-104200</v>
       </c>
       <c r="I35" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J35" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K35" s="3">
         <v>-3200</v>
@@ -1654,25 +1654,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>35700</v>
+        <v>36700</v>
       </c>
       <c r="E41" s="3">
-        <v>32400</v>
+        <v>33400</v>
       </c>
       <c r="F41" s="3">
-        <v>48900</v>
+        <v>50300</v>
       </c>
       <c r="G41" s="3">
-        <v>49600</v>
+        <v>51100</v>
       </c>
       <c r="H41" s="3">
-        <v>55800</v>
+        <v>57500</v>
       </c>
       <c r="I41" s="3">
-        <v>15200</v>
+        <v>15700</v>
       </c>
       <c r="J41" s="3">
-        <v>11800</v>
+        <v>12200</v>
       </c>
       <c r="K41" s="3">
         <v>5500</v>
@@ -1720,19 +1720,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="E43" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="F43" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="I43" s="3">
         <v>2500</v>
@@ -1753,25 +1753,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="E44" s="3">
-        <v>26400</v>
+        <v>27200</v>
       </c>
       <c r="F44" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="G44" s="3">
-        <v>24100</v>
+        <v>24800</v>
       </c>
       <c r="H44" s="3">
-        <v>13700</v>
+        <v>14100</v>
       </c>
       <c r="I44" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="J44" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="K44" s="3">
         <v>7900</v>
@@ -1786,25 +1786,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E45" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G45" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H45" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="I45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J45" s="3">
         <v>2300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>2200</v>
       </c>
       <c r="K45" s="3">
         <v>2000</v>
@@ -1819,25 +1819,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62000</v>
+        <v>63800</v>
       </c>
       <c r="E46" s="3">
-        <v>71600</v>
+        <v>73800</v>
       </c>
       <c r="F46" s="3">
-        <v>78300</v>
+        <v>80700</v>
       </c>
       <c r="G46" s="3">
-        <v>81500</v>
+        <v>83900</v>
       </c>
       <c r="H46" s="3">
-        <v>78200</v>
+        <v>80500</v>
       </c>
       <c r="I46" s="3">
-        <v>29700</v>
+        <v>30600</v>
       </c>
       <c r="J46" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="K46" s="3">
         <v>15900</v>
@@ -1885,25 +1885,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40700</v>
+        <v>41900</v>
       </c>
       <c r="E48" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="F48" s="3">
-        <v>28100</v>
+        <v>29000</v>
       </c>
       <c r="G48" s="3">
-        <v>39400</v>
+        <v>40600</v>
       </c>
       <c r="H48" s="3">
-        <v>36400</v>
+        <v>37500</v>
       </c>
       <c r="I48" s="3">
-        <v>27400</v>
+        <v>28200</v>
       </c>
       <c r="J48" s="3">
-        <v>23000</v>
+        <v>23700</v>
       </c>
       <c r="K48" s="3">
         <v>18900</v>
@@ -1918,19 +1918,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="F49" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G49" s="3">
         <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I49" s="3">
         <v>1300</v>
@@ -2023,13 +2023,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G52" s="3">
-        <v>11100</v>
+        <v>11400</v>
       </c>
       <c r="H52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I52" s="3">
         <v>2500</v>
@@ -2083,25 +2083,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>107500</v>
+        <v>110800</v>
       </c>
       <c r="E54" s="3">
-        <v>94300</v>
+        <v>97100</v>
       </c>
       <c r="F54" s="3">
-        <v>113900</v>
+        <v>117300</v>
       </c>
       <c r="G54" s="3">
-        <v>134200</v>
+        <v>138300</v>
       </c>
       <c r="H54" s="3">
-        <v>122400</v>
+        <v>126100</v>
       </c>
       <c r="I54" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="J54" s="3">
-        <v>47700</v>
+        <v>49100</v>
       </c>
       <c r="K54" s="3">
         <v>36200</v>
@@ -2146,25 +2146,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="E57" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F57" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="G57" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="H57" s="3">
-        <v>8500</v>
+        <v>8700</v>
       </c>
       <c r="I57" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="J57" s="3">
-        <v>7700</v>
+        <v>8000</v>
       </c>
       <c r="K57" s="3">
         <v>4700</v>
@@ -2179,7 +2179,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2194,10 +2194,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="J58" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
@@ -2212,22 +2212,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8500</v>
+        <v>8800</v>
       </c>
       <c r="E59" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="F59" s="3">
-        <v>10200</v>
+        <v>10500</v>
       </c>
       <c r="G59" s="3">
-        <v>10100</v>
+        <v>10400</v>
       </c>
       <c r="H59" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I59" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J59" s="3">
         <v>2600</v>
@@ -2245,25 +2245,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33900</v>
+        <v>35000</v>
       </c>
       <c r="E60" s="3">
-        <v>23800</v>
+        <v>24500</v>
       </c>
       <c r="F60" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="G60" s="3">
-        <v>20900</v>
+        <v>21500</v>
       </c>
       <c r="H60" s="3">
-        <v>14500</v>
+        <v>14900</v>
       </c>
       <c r="I60" s="3">
-        <v>15200</v>
+        <v>15600</v>
       </c>
       <c r="J60" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="K60" s="3">
         <v>9800</v>
@@ -2278,7 +2278,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>55600</v>
+        <v>57300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2293,10 +2293,10 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J61" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="K61" s="3">
         <v>4900</v>
@@ -2314,22 +2314,22 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>18600</v>
+        <v>19100</v>
       </c>
       <c r="F62" s="3">
-        <v>17000</v>
+        <v>17500</v>
       </c>
       <c r="G62" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="H62" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="I62" s="3">
-        <v>41000</v>
+        <v>42200</v>
       </c>
       <c r="J62" s="3">
-        <v>33700</v>
+        <v>34700</v>
       </c>
       <c r="K62" s="3">
         <v>24300</v>
@@ -2443,25 +2443,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>89500</v>
+        <v>92200</v>
       </c>
       <c r="E66" s="3">
-        <v>42400</v>
+        <v>43700</v>
       </c>
       <c r="F66" s="3">
-        <v>35800</v>
+        <v>36900</v>
       </c>
       <c r="G66" s="3">
-        <v>31500</v>
+        <v>32400</v>
       </c>
       <c r="H66" s="3">
-        <v>19200</v>
+        <v>19800</v>
       </c>
       <c r="I66" s="3">
-        <v>60900</v>
+        <v>62700</v>
       </c>
       <c r="J66" s="3">
-        <v>54900</v>
+        <v>56500</v>
       </c>
       <c r="K66" s="3">
         <v>39000</v>
@@ -2623,25 +2623,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-71000</v>
+        <v>-73200</v>
       </c>
       <c r="E72" s="3">
-        <v>-36900</v>
+        <v>-38000</v>
       </c>
       <c r="F72" s="3">
-        <v>-11300</v>
+        <v>-11700</v>
       </c>
       <c r="G72" s="3">
-        <v>-109600</v>
+        <v>-112900</v>
       </c>
       <c r="H72" s="3">
-        <v>-106600</v>
+        <v>-109800</v>
       </c>
       <c r="I72" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="J72" s="3">
-        <v>-8100</v>
+        <v>-8400</v>
       </c>
       <c r="K72" s="3">
         <v>-3000</v>
@@ -2755,25 +2755,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="E76" s="3">
-        <v>51900</v>
+        <v>53500</v>
       </c>
       <c r="F76" s="3">
-        <v>78000</v>
+        <v>80400</v>
       </c>
       <c r="G76" s="3">
-        <v>102700</v>
+        <v>105800</v>
       </c>
       <c r="H76" s="3">
-        <v>103200</v>
+        <v>106300</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>-7200</v>
+        <v>-7400</v>
       </c>
       <c r="K76" s="3">
         <v>-2800</v>
@@ -2859,25 +2859,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24000</v>
+        <v>-24700</v>
       </c>
       <c r="E81" s="3">
-        <v>-25800</v>
+        <v>-26600</v>
       </c>
       <c r="F81" s="3">
-        <v>-21900</v>
+        <v>-22600</v>
       </c>
       <c r="G81" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="H81" s="3">
-        <v>-101200</v>
+        <v>-104200</v>
       </c>
       <c r="I81" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J81" s="3">
-        <v>-4700</v>
+        <v>-4900</v>
       </c>
       <c r="K81" s="3">
         <v>-3200</v>
@@ -2907,25 +2907,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>14900</v>
+        <v>15400</v>
       </c>
       <c r="E83" s="3">
-        <v>6300</v>
+        <v>6500</v>
       </c>
       <c r="F83" s="3">
-        <v>7600</v>
+        <v>7900</v>
       </c>
       <c r="G83" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J83" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K83" s="3">
         <v>2300</v>
@@ -3105,25 +3105,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>25500</v>
+        <v>26300</v>
       </c>
       <c r="E89" s="3">
-        <v>-10200</v>
+        <v>-10500</v>
       </c>
       <c r="F89" s="3">
-        <v>7600</v>
+        <v>7800</v>
       </c>
       <c r="G89" s="3">
-        <v>8600</v>
+        <v>8900</v>
       </c>
       <c r="H89" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="I89" s="3">
-        <v>13100</v>
+        <v>13500</v>
       </c>
       <c r="J89" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
@@ -3156,22 +3156,22 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="F91" s="3">
-        <v>-7400</v>
+        <v>-7600</v>
       </c>
       <c r="G91" s="3">
-        <v>-15800</v>
+        <v>-16300</v>
       </c>
       <c r="H91" s="3">
-        <v>-13000</v>
+        <v>-13400</v>
       </c>
       <c r="I91" s="3">
-        <v>-9600</v>
+        <v>-9900</v>
       </c>
       <c r="J91" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="K91" s="3">
         <v>-9000</v>
@@ -3252,25 +3252,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="E94" s="3">
-        <v>-6400</v>
+        <v>-6600</v>
       </c>
       <c r="F94" s="3">
-        <v>-9700</v>
+        <v>-10000</v>
       </c>
       <c r="G94" s="3">
-        <v>-16900</v>
+        <v>-17500</v>
       </c>
       <c r="H94" s="3">
-        <v>-13900</v>
+        <v>-14300</v>
       </c>
       <c r="I94" s="3">
-        <v>-10100</v>
+        <v>-10400</v>
       </c>
       <c r="J94" s="3">
-        <v>-6700</v>
+        <v>-6900</v>
       </c>
       <c r="K94" s="3">
         <v>-9700</v>
@@ -3432,7 +3432,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-17900</v>
+        <v>-18400</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -3441,16 +3441,16 @@
         <v>1400</v>
       </c>
       <c r="G100" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="H100" s="3">
-        <v>42500</v>
+        <v>43700</v>
       </c>
       <c r="I100" s="3">
         <v>500</v>
       </c>
       <c r="J100" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="K100" s="3">
         <v>13000</v>
@@ -3498,25 +3498,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E102" s="3">
-        <v>-16500</v>
+        <v>-17000</v>
       </c>
       <c r="F102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G102" s="3">
-        <v>-6200</v>
+        <v>-6400</v>
       </c>
       <c r="H102" s="3">
-        <v>40600</v>
+        <v>41800</v>
       </c>
       <c r="I102" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J102" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="K102" s="3">
         <v>3400</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>DTEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,155 +665,168 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43498</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43134</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42763</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42399</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42035</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41664</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41300</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>155800</v>
+        <v>100900</v>
       </c>
       <c r="E8" s="3">
-        <v>168700</v>
+        <v>162900</v>
       </c>
       <c r="F8" s="3">
-        <v>177600</v>
+        <v>176400</v>
       </c>
       <c r="G8" s="3">
-        <v>171300</v>
+        <v>185700</v>
       </c>
       <c r="H8" s="3">
-        <v>143300</v>
+        <v>179100</v>
       </c>
       <c r="I8" s="3">
-        <v>112500</v>
+        <v>149800</v>
       </c>
       <c r="J8" s="3">
+        <v>117600</v>
+      </c>
+      <c r="K8" s="3">
         <v>85800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>53100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>69700</v>
+        <v>59700</v>
       </c>
       <c r="E9" s="3">
-        <v>91000</v>
+        <v>72900</v>
       </c>
       <c r="F9" s="3">
-        <v>92600</v>
+        <v>95200</v>
       </c>
       <c r="G9" s="3">
-        <v>85300</v>
+        <v>96800</v>
       </c>
       <c r="H9" s="3">
-        <v>67700</v>
+        <v>89200</v>
       </c>
       <c r="I9" s="3">
-        <v>50900</v>
+        <v>70800</v>
       </c>
       <c r="J9" s="3">
+        <v>53200</v>
+      </c>
+      <c r="K9" s="3">
         <v>38400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>23400</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>86100</v>
+        <v>41200</v>
       </c>
       <c r="E10" s="3">
-        <v>77700</v>
+        <v>90000</v>
       </c>
       <c r="F10" s="3">
-        <v>85000</v>
+        <v>81200</v>
       </c>
       <c r="G10" s="3">
-        <v>86000</v>
+        <v>88900</v>
       </c>
       <c r="H10" s="3">
-        <v>75600</v>
+        <v>89900</v>
       </c>
       <c r="I10" s="3">
-        <v>61600</v>
+        <v>79000</v>
       </c>
       <c r="J10" s="3">
+        <v>64400</v>
+      </c>
+      <c r="K10" s="3">
         <v>47400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>29700</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,8 +840,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -859,9 +873,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +909,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>14200</v>
+        <v>45100</v>
       </c>
       <c r="E14" s="3">
-        <v>10000</v>
+        <v>14800</v>
       </c>
       <c r="F14" s="3">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="G14" s="3">
-        <v>6200</v>
+        <v>12600</v>
       </c>
       <c r="H14" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
-        <v>3300</v>
-      </c>
       <c r="J14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15400</v>
+        <v>6200</v>
       </c>
       <c r="E15" s="3">
-        <v>6500</v>
+        <v>16100</v>
       </c>
       <c r="F15" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="G15" s="3">
-        <v>7000</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3">
-        <v>5100</v>
+        <v>7300</v>
       </c>
       <c r="I15" s="3">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="J15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K15" s="3">
         <v>3800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2300</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,74 +997,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>177000</v>
+        <v>144900</v>
       </c>
       <c r="E17" s="3">
-        <v>190700</v>
+        <v>185000</v>
       </c>
       <c r="F17" s="3">
-        <v>197200</v>
+        <v>199400</v>
       </c>
       <c r="G17" s="3">
-        <v>176300</v>
+        <v>206200</v>
       </c>
       <c r="H17" s="3">
-        <v>131200</v>
+        <v>184300</v>
       </c>
       <c r="I17" s="3">
-        <v>104800</v>
+        <v>137200</v>
       </c>
       <c r="J17" s="3">
+        <v>109500</v>
+      </c>
+      <c r="K17" s="3">
         <v>79900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>50500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21200</v>
+        <v>-44000</v>
       </c>
       <c r="E18" s="3">
-        <v>-22000</v>
+        <v>-22200</v>
       </c>
       <c r="F18" s="3">
-        <v>-19600</v>
+        <v>-23000</v>
       </c>
       <c r="G18" s="3">
-        <v>-5000</v>
+        <v>-20500</v>
       </c>
       <c r="H18" s="3">
-        <v>12100</v>
+        <v>-5200</v>
       </c>
       <c r="I18" s="3">
-        <v>7700</v>
+        <v>12600</v>
       </c>
       <c r="J18" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,173 +1085,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>600</v>
+        <v>-4900</v>
       </c>
       <c r="F20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>400</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-111800</v>
-      </c>
       <c r="I20" s="3">
-        <v>-1000</v>
+        <v>-116800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-5200</v>
+        <v>-37500</v>
       </c>
       <c r="E21" s="3">
-        <v>-14900</v>
+        <v>-11000</v>
       </c>
       <c r="F21" s="3">
-        <v>-11300</v>
+        <v>-16900</v>
       </c>
       <c r="G21" s="3">
-        <v>2400</v>
+        <v>-11800</v>
       </c>
       <c r="H21" s="3">
-        <v>-94600</v>
+        <v>2500</v>
       </c>
       <c r="I21" s="3">
-        <v>11000</v>
+        <v>-98900</v>
       </c>
       <c r="J21" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>5400</v>
-      </c>
-      <c r="E22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>900</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-25900</v>
+        <v>-46400</v>
       </c>
       <c r="E23" s="3">
-        <v>-22700</v>
+        <v>-27100</v>
       </c>
       <c r="F23" s="3">
-        <v>-21000</v>
+        <v>-23800</v>
       </c>
       <c r="G23" s="3">
-        <v>-4700</v>
+        <v>-22000</v>
       </c>
       <c r="H23" s="3">
-        <v>-100500</v>
+        <v>-4900</v>
       </c>
       <c r="I23" s="3">
-        <v>4900</v>
+        <v>-105100</v>
       </c>
       <c r="J23" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1500</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3700</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,75 +1298,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-24400</v>
+        <v>-46700</v>
       </c>
       <c r="E26" s="3">
-        <v>-26600</v>
+        <v>-25500</v>
       </c>
       <c r="F26" s="3">
-        <v>-20900</v>
+        <v>-27800</v>
       </c>
       <c r="G26" s="3">
-        <v>-2900</v>
+        <v>-21900</v>
       </c>
       <c r="H26" s="3">
-        <v>-104200</v>
+        <v>-3000</v>
       </c>
       <c r="I26" s="3">
-        <v>5100</v>
+        <v>-109000</v>
       </c>
       <c r="J26" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-24400</v>
+        <v>-46700</v>
       </c>
       <c r="E27" s="3">
-        <v>-26600</v>
+        <v>-25500</v>
       </c>
       <c r="F27" s="3">
-        <v>-20900</v>
+        <v>-27800</v>
       </c>
       <c r="G27" s="3">
-        <v>-2900</v>
+        <v>-21900</v>
       </c>
       <c r="H27" s="3">
-        <v>-104200</v>
+        <v>-3000</v>
       </c>
       <c r="I27" s="3">
-        <v>5100</v>
+        <v>-109000</v>
       </c>
       <c r="J27" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,24 +1406,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-300</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1700</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1381,9 +1442,12 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1478,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,75 +1514,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>-600</v>
+        <v>4900</v>
       </c>
       <c r="F32" s="3">
+        <v>800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H32" s="3">
-        <v>111800</v>
-      </c>
       <c r="I32" s="3">
-        <v>1000</v>
+        <v>116800</v>
       </c>
       <c r="J32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-24700</v>
+        <v>-46400</v>
       </c>
       <c r="E33" s="3">
-        <v>-26600</v>
+        <v>-25900</v>
       </c>
       <c r="F33" s="3">
-        <v>-22600</v>
+        <v>-27800</v>
       </c>
       <c r="G33" s="3">
-        <v>-2900</v>
+        <v>-23600</v>
       </c>
       <c r="H33" s="3">
-        <v>-104200</v>
+        <v>-3000</v>
       </c>
       <c r="I33" s="3">
-        <v>5100</v>
+        <v>-109000</v>
       </c>
       <c r="J33" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,80 +1622,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-24700</v>
+        <v>-46400</v>
       </c>
       <c r="E35" s="3">
-        <v>-26600</v>
+        <v>-25900</v>
       </c>
       <c r="F35" s="3">
-        <v>-22600</v>
+        <v>-27800</v>
       </c>
       <c r="G35" s="3">
-        <v>-2900</v>
+        <v>-23600</v>
       </c>
       <c r="H35" s="3">
-        <v>-104200</v>
+        <v>-3000</v>
       </c>
       <c r="I35" s="3">
-        <v>5100</v>
+        <v>-109000</v>
       </c>
       <c r="J35" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43498</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43134</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42763</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42399</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42035</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41664</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41300</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1718,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1734,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36700</v>
+        <v>25000</v>
       </c>
       <c r="E41" s="3">
-        <v>33400</v>
+        <v>38400</v>
       </c>
       <c r="F41" s="3">
-        <v>50300</v>
+        <v>34900</v>
       </c>
       <c r="G41" s="3">
-        <v>51100</v>
+        <v>52600</v>
       </c>
       <c r="H41" s="3">
-        <v>57500</v>
+        <v>53400</v>
       </c>
       <c r="I41" s="3">
-        <v>15700</v>
+        <v>60100</v>
       </c>
       <c r="J41" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K41" s="3">
         <v>12200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5500</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,141 +1803,156 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5800</v>
+        <v>5200</v>
       </c>
       <c r="E43" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F43" s="3">
-        <v>4800</v>
+        <v>6500</v>
       </c>
       <c r="G43" s="3">
-        <v>3200</v>
+        <v>5100</v>
       </c>
       <c r="H43" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="I43" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="J43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17700</v>
+        <v>19500</v>
       </c>
       <c r="E44" s="3">
-        <v>27200</v>
+        <v>18500</v>
       </c>
       <c r="F44" s="3">
-        <v>19400</v>
+        <v>28500</v>
       </c>
       <c r="G44" s="3">
-        <v>24800</v>
+        <v>20300</v>
       </c>
       <c r="H44" s="3">
-        <v>14100</v>
+        <v>25900</v>
       </c>
       <c r="I44" s="3">
-        <v>9900</v>
+        <v>14700</v>
       </c>
       <c r="J44" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K44" s="3">
         <v>8900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7900</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>12000</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>3800</v>
       </c>
       <c r="F45" s="3">
-        <v>6100</v>
+        <v>7300</v>
       </c>
       <c r="G45" s="3">
-        <v>4800</v>
+        <v>6400</v>
       </c>
       <c r="H45" s="3">
-        <v>6300</v>
+        <v>5100</v>
       </c>
       <c r="I45" s="3">
-        <v>2400</v>
+        <v>6600</v>
       </c>
       <c r="J45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>63800</v>
+        <v>61600</v>
       </c>
       <c r="E46" s="3">
-        <v>73800</v>
+        <v>66700</v>
       </c>
       <c r="F46" s="3">
-        <v>80700</v>
+        <v>77100</v>
       </c>
       <c r="G46" s="3">
-        <v>83900</v>
+        <v>84400</v>
       </c>
       <c r="H46" s="3">
-        <v>80500</v>
+        <v>87700</v>
       </c>
       <c r="I46" s="3">
-        <v>30600</v>
+        <v>84200</v>
       </c>
       <c r="J46" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K46" s="3">
         <v>24300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,75 +1983,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41900</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>30300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>42400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>39200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>29500</v>
+      </c>
+      <c r="K48" s="3">
+        <v>23700</v>
+      </c>
+      <c r="L48" s="3">
         <v>18900</v>
       </c>
-      <c r="F48" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>40600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>37500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>28200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>23700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>18900</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="E49" s="3">
-        <v>4500</v>
+        <v>5300</v>
       </c>
       <c r="F49" s="3">
-        <v>3500</v>
+        <v>4700</v>
       </c>
       <c r="G49" s="3">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="I49" s="3">
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="J49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2091,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,42 +2127,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>11400</v>
+        <v>4300</v>
       </c>
       <c r="H52" s="3">
-        <v>6200</v>
+        <v>11900</v>
       </c>
       <c r="I52" s="3">
-        <v>2500</v>
+        <v>6500</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+        <v>2700</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2199,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>110800</v>
+        <v>67400</v>
       </c>
       <c r="E54" s="3">
-        <v>97100</v>
+        <v>115800</v>
       </c>
       <c r="F54" s="3">
-        <v>117300</v>
+        <v>101600</v>
       </c>
       <c r="G54" s="3">
-        <v>138300</v>
+        <v>122600</v>
       </c>
       <c r="H54" s="3">
-        <v>126100</v>
+        <v>144500</v>
       </c>
       <c r="I54" s="3">
-        <v>62700</v>
+        <v>131800</v>
       </c>
       <c r="J54" s="3">
+        <v>65500</v>
+      </c>
+      <c r="K54" s="3">
         <v>49100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36200</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2254,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,49 +2270,53 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13100</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>11900</v>
+        <v>13700</v>
       </c>
       <c r="F57" s="3">
-        <v>8900</v>
+        <v>12400</v>
       </c>
       <c r="G57" s="3">
-        <v>11100</v>
+        <v>9300</v>
       </c>
       <c r="H57" s="3">
-        <v>8700</v>
+        <v>11600</v>
       </c>
       <c r="I57" s="3">
-        <v>9900</v>
+        <v>9100</v>
       </c>
       <c r="J57" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4700</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13000</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>13600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2190,98 +2324,107 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="J58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8800</v>
+        <v>91100</v>
       </c>
       <c r="E59" s="3">
-        <v>12600</v>
+        <v>9200</v>
       </c>
       <c r="F59" s="3">
-        <v>10500</v>
+        <v>13200</v>
       </c>
       <c r="G59" s="3">
-        <v>10400</v>
+        <v>11000</v>
       </c>
       <c r="H59" s="3">
-        <v>6200</v>
+        <v>10900</v>
       </c>
       <c r="I59" s="3">
-        <v>2400</v>
+        <v>6500</v>
       </c>
       <c r="J59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>35000</v>
+        <v>93000</v>
       </c>
       <c r="E60" s="3">
-        <v>24500</v>
+        <v>36500</v>
       </c>
       <c r="F60" s="3">
-        <v>19400</v>
+        <v>25600</v>
       </c>
       <c r="G60" s="3">
-        <v>21500</v>
+        <v>20300</v>
       </c>
       <c r="H60" s="3">
-        <v>14900</v>
+        <v>22500</v>
       </c>
       <c r="I60" s="3">
         <v>15600</v>
       </c>
       <c r="J60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="K60" s="3">
         <v>13500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9800</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>57300</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>59900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2293,53 +2436,59 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K61" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L61" s="3">
         <v>4900</v>
       </c>
-      <c r="J61" s="3">
-        <v>8300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>4900</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>17500</v>
+        <v>20000</v>
       </c>
       <c r="G62" s="3">
-        <v>10900</v>
+        <v>18300</v>
       </c>
       <c r="H62" s="3">
-        <v>4900</v>
+        <v>11400</v>
       </c>
       <c r="I62" s="3">
-        <v>42200</v>
+        <v>5100</v>
       </c>
       <c r="J62" s="3">
+        <v>44200</v>
+      </c>
+      <c r="K62" s="3">
         <v>34700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>24300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2519,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2555,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2591,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92200</v>
+        <v>93300</v>
       </c>
       <c r="E66" s="3">
-        <v>43700</v>
+        <v>96400</v>
       </c>
       <c r="F66" s="3">
-        <v>36900</v>
+        <v>45600</v>
       </c>
       <c r="G66" s="3">
-        <v>32400</v>
+        <v>38600</v>
       </c>
       <c r="H66" s="3">
-        <v>19800</v>
+        <v>33900</v>
       </c>
       <c r="I66" s="3">
-        <v>62700</v>
+        <v>20700</v>
       </c>
       <c r="J66" s="3">
+        <v>65600</v>
+      </c>
+      <c r="K66" s="3">
         <v>56500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2646,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2679,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2715,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2751,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,42 +2787,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-73200</v>
+        <v>-122800</v>
       </c>
       <c r="E72" s="3">
-        <v>-38000</v>
+        <v>-76500</v>
       </c>
       <c r="F72" s="3">
-        <v>-11700</v>
+        <v>-39800</v>
       </c>
       <c r="G72" s="3">
-        <v>-112900</v>
+        <v>-12200</v>
       </c>
       <c r="H72" s="3">
-        <v>-109800</v>
+        <v>-118100</v>
       </c>
       <c r="I72" s="3">
-        <v>-3300</v>
+        <v>-114800</v>
       </c>
       <c r="J72" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2859,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2895,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,42 +2931,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18500</v>
+        <v>-25900</v>
       </c>
       <c r="E76" s="3">
-        <v>53500</v>
+        <v>19400</v>
       </c>
       <c r="F76" s="3">
-        <v>80400</v>
+        <v>55900</v>
       </c>
       <c r="G76" s="3">
-        <v>105800</v>
+        <v>84000</v>
       </c>
       <c r="H76" s="3">
-        <v>106300</v>
+        <v>110600</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>111100</v>
       </c>
       <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
         <v>-7400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,80 +3003,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43498</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43134</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42763</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42399</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42035</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41664</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41300</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-24700</v>
+        <v>-46400</v>
       </c>
       <c r="E81" s="3">
-        <v>-26600</v>
+        <v>-25900</v>
       </c>
       <c r="F81" s="3">
-        <v>-22600</v>
+        <v>-27800</v>
       </c>
       <c r="G81" s="3">
-        <v>-2900</v>
+        <v>-23600</v>
       </c>
       <c r="H81" s="3">
-        <v>-104200</v>
+        <v>-3000</v>
       </c>
       <c r="I81" s="3">
-        <v>5100</v>
+        <v>-109000</v>
       </c>
       <c r="J81" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,41 +3099,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15400</v>
+        <v>6200</v>
       </c>
       <c r="E83" s="3">
-        <v>6500</v>
+        <v>16100</v>
       </c>
       <c r="F83" s="3">
-        <v>7900</v>
+        <v>6800</v>
       </c>
       <c r="G83" s="3">
-        <v>7000</v>
+        <v>8200</v>
       </c>
       <c r="H83" s="3">
-        <v>5100</v>
+        <v>7300</v>
       </c>
       <c r="I83" s="3">
-        <v>4300</v>
+        <v>5300</v>
       </c>
       <c r="J83" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3168,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3204,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3240,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3276,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3312,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>26300</v>
+        <v>-9300</v>
       </c>
       <c r="E89" s="3">
-        <v>-10500</v>
+        <v>27400</v>
       </c>
       <c r="F89" s="3">
-        <v>7800</v>
+        <v>-11000</v>
       </c>
       <c r="G89" s="3">
-        <v>8900</v>
+        <v>8200</v>
       </c>
       <c r="H89" s="3">
-        <v>12400</v>
+        <v>9300</v>
       </c>
       <c r="I89" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="J89" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K89" s="3">
         <v>11300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,41 +3367,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3100</v>
+        <v>-900</v>
       </c>
       <c r="F91" s="3">
-        <v>-7600</v>
+        <v>-3200</v>
       </c>
       <c r="G91" s="3">
-        <v>-16300</v>
+        <v>-8000</v>
       </c>
       <c r="H91" s="3">
-        <v>-13400</v>
+        <v>-17000</v>
       </c>
       <c r="I91" s="3">
-        <v>-9900</v>
+        <v>-14000</v>
       </c>
       <c r="J91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-6600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3436,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3472,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4500</v>
+        <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6600</v>
+        <v>-4700</v>
       </c>
       <c r="F94" s="3">
-        <v>-10000</v>
+        <v>-6900</v>
       </c>
       <c r="G94" s="3">
-        <v>-17500</v>
+        <v>-10400</v>
       </c>
       <c r="H94" s="3">
-        <v>-14300</v>
+        <v>-18300</v>
       </c>
       <c r="I94" s="3">
-        <v>-10400</v>
+        <v>-14900</v>
       </c>
       <c r="J94" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-6900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3527,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3560,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3596,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3632,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,42 +3668,48 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-18400</v>
+        <v>-5000</v>
       </c>
       <c r="E100" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>1400</v>
-      </c>
       <c r="G100" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="H100" s="3">
-        <v>43700</v>
+        <v>2300</v>
       </c>
       <c r="I100" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>13000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3491,40 +3740,46 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>43700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>6100</v>
+      </c>
+      <c r="L102" s="3">
         <v>3400</v>
       </c>
-      <c r="E102" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-6400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>41800</v>
-      </c>
-      <c r="I102" s="3">
-        <v>3500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>3400</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
   <si>
     <t>DTEA</t>
   </si>
@@ -723,25 +723,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>100900</v>
+        <v>94900</v>
       </c>
       <c r="E8" s="3">
-        <v>162900</v>
+        <v>153200</v>
       </c>
       <c r="F8" s="3">
-        <v>176400</v>
+        <v>165900</v>
       </c>
       <c r="G8" s="3">
-        <v>185700</v>
+        <v>174700</v>
       </c>
       <c r="H8" s="3">
-        <v>179100</v>
+        <v>168400</v>
       </c>
       <c r="I8" s="3">
-        <v>149800</v>
+        <v>140900</v>
       </c>
       <c r="J8" s="3">
-        <v>117600</v>
+        <v>110600</v>
       </c>
       <c r="K8" s="3">
         <v>85800</v>
@@ -759,25 +759,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>59700</v>
+        <v>56100</v>
       </c>
       <c r="E9" s="3">
-        <v>72900</v>
+        <v>68500</v>
       </c>
       <c r="F9" s="3">
-        <v>95200</v>
+        <v>89500</v>
       </c>
       <c r="G9" s="3">
-        <v>96800</v>
+        <v>91000</v>
       </c>
       <c r="H9" s="3">
-        <v>89200</v>
+        <v>83800</v>
       </c>
       <c r="I9" s="3">
-        <v>70800</v>
+        <v>66600</v>
       </c>
       <c r="J9" s="3">
-        <v>53200</v>
+        <v>50000</v>
       </c>
       <c r="K9" s="3">
         <v>38400</v>
@@ -795,25 +795,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>41200</v>
+        <v>38800</v>
       </c>
       <c r="E10" s="3">
-        <v>90000</v>
+        <v>84700</v>
       </c>
       <c r="F10" s="3">
-        <v>81200</v>
+        <v>76400</v>
       </c>
       <c r="G10" s="3">
-        <v>88900</v>
+        <v>83600</v>
       </c>
       <c r="H10" s="3">
-        <v>89900</v>
+        <v>84600</v>
       </c>
       <c r="I10" s="3">
-        <v>79000</v>
+        <v>74300</v>
       </c>
       <c r="J10" s="3">
-        <v>64400</v>
+        <v>60600</v>
       </c>
       <c r="K10" s="3">
         <v>47400</v>
@@ -919,25 +919,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>45100</v>
+        <v>42400</v>
       </c>
       <c r="E14" s="3">
-        <v>14800</v>
+        <v>13900</v>
       </c>
       <c r="F14" s="3">
-        <v>10500</v>
+        <v>9800</v>
       </c>
       <c r="G14" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="H14" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
       </c>
       <c r="J14" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K14" s="3">
         <v>900</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="E15" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="F15" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="G15" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H15" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="I15" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J15" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K15" s="3">
         <v>3800</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>144900</v>
+        <v>136200</v>
       </c>
       <c r="E17" s="3">
-        <v>185000</v>
+        <v>174000</v>
       </c>
       <c r="F17" s="3">
-        <v>199400</v>
+        <v>187500</v>
       </c>
       <c r="G17" s="3">
-        <v>206200</v>
+        <v>193900</v>
       </c>
       <c r="H17" s="3">
-        <v>184300</v>
+        <v>173300</v>
       </c>
       <c r="I17" s="3">
-        <v>137200</v>
+        <v>129000</v>
       </c>
       <c r="J17" s="3">
-        <v>109500</v>
+        <v>103000</v>
       </c>
       <c r="K17" s="3">
         <v>79900</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-44000</v>
+        <v>-41400</v>
       </c>
       <c r="E18" s="3">
-        <v>-22200</v>
+        <v>-20800</v>
       </c>
       <c r="F18" s="3">
-        <v>-23000</v>
+        <v>-21600</v>
       </c>
       <c r="G18" s="3">
-        <v>-20500</v>
+        <v>-19200</v>
       </c>
       <c r="H18" s="3">
-        <v>-5200</v>
+        <v>-4900</v>
       </c>
       <c r="I18" s="3">
-        <v>12600</v>
+        <v>11900</v>
       </c>
       <c r="J18" s="3">
-        <v>8100</v>
+        <v>7600</v>
       </c>
       <c r="K18" s="3">
         <v>5900</v>
@@ -1095,22 +1095,22 @@
         <v>300</v>
       </c>
       <c r="E20" s="3">
-        <v>-4900</v>
+        <v>800</v>
       </c>
       <c r="F20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G20" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>-116800</v>
+        <v>-109900</v>
       </c>
       <c r="J20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>-6800</v>
@@ -1128,25 +1128,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-37500</v>
+        <v>-35200</v>
       </c>
       <c r="E21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-11000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-11800</v>
-      </c>
       <c r="H21" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I21" s="3">
-        <v>-98900</v>
+        <v>-92900</v>
       </c>
       <c r="J21" s="3">
-        <v>11500</v>
+        <v>10900</v>
       </c>
       <c r="K21" s="3">
         <v>2900</v>
@@ -1164,25 +1164,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>5400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K22" s="3">
         <v>1600</v>
@@ -1200,25 +1200,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-46400</v>
+        <v>-43600</v>
       </c>
       <c r="E23" s="3">
-        <v>-27100</v>
+        <v>-25500</v>
       </c>
       <c r="F23" s="3">
-        <v>-23800</v>
+        <v>-22300</v>
       </c>
       <c r="G23" s="3">
-        <v>-22000</v>
+        <v>-20700</v>
       </c>
       <c r="H23" s="3">
-        <v>-4900</v>
+        <v>-4600</v>
       </c>
       <c r="I23" s="3">
-        <v>-105100</v>
+        <v>-98800</v>
       </c>
       <c r="J23" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="K23" s="3">
         <v>-2500</v>
@@ -1239,19 +1239,19 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-1900</v>
+        <v>-1700</v>
       </c>
       <c r="I24" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="J24" s="3">
         <v>-300</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46700</v>
+        <v>-43900</v>
       </c>
       <c r="E26" s="3">
-        <v>-25500</v>
+        <v>-24000</v>
       </c>
       <c r="F26" s="3">
-        <v>-27800</v>
+        <v>-26100</v>
       </c>
       <c r="G26" s="3">
-        <v>-21900</v>
+        <v>-20600</v>
       </c>
       <c r="H26" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I26" s="3">
-        <v>-109000</v>
+        <v>-102500</v>
       </c>
       <c r="J26" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K26" s="3">
         <v>-4900</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46700</v>
+        <v>-43900</v>
       </c>
       <c r="E27" s="3">
-        <v>-25500</v>
+        <v>-24000</v>
       </c>
       <c r="F27" s="3">
-        <v>-27800</v>
+        <v>-26100</v>
       </c>
       <c r="G27" s="3">
-        <v>-21900</v>
+        <v>-20600</v>
       </c>
       <c r="H27" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I27" s="3">
-        <v>-109000</v>
+        <v>-102500</v>
       </c>
       <c r="J27" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K27" s="3">
         <v>-4900</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
@@ -1527,22 +1527,22 @@
         <v>-300</v>
       </c>
       <c r="E32" s="3">
-        <v>4900</v>
+        <v>-800</v>
       </c>
       <c r="F32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G32" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>116800</v>
+        <v>109900</v>
       </c>
       <c r="J32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>6800</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46400</v>
+        <v>-43600</v>
       </c>
       <c r="E33" s="3">
-        <v>-25900</v>
+        <v>-24300</v>
       </c>
       <c r="F33" s="3">
-        <v>-27800</v>
+        <v>-26100</v>
       </c>
       <c r="G33" s="3">
-        <v>-23600</v>
+        <v>-22200</v>
       </c>
       <c r="H33" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I33" s="3">
-        <v>-109000</v>
+        <v>-102500</v>
       </c>
       <c r="J33" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K33" s="3">
         <v>-4900</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46400</v>
+        <v>-43600</v>
       </c>
       <c r="E35" s="3">
-        <v>-25900</v>
+        <v>-24300</v>
       </c>
       <c r="F35" s="3">
-        <v>-27800</v>
+        <v>-26100</v>
       </c>
       <c r="G35" s="3">
-        <v>-23600</v>
+        <v>-22200</v>
       </c>
       <c r="H35" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I35" s="3">
-        <v>-109000</v>
+        <v>-102500</v>
       </c>
       <c r="J35" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K35" s="3">
         <v>-4900</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>25000</v>
+        <v>23500</v>
       </c>
       <c r="E41" s="3">
-        <v>38400</v>
+        <v>36100</v>
       </c>
       <c r="F41" s="3">
-        <v>34900</v>
+        <v>32800</v>
       </c>
       <c r="G41" s="3">
-        <v>52600</v>
+        <v>49500</v>
       </c>
       <c r="H41" s="3">
-        <v>53400</v>
+        <v>50200</v>
       </c>
       <c r="I41" s="3">
-        <v>60100</v>
+        <v>56500</v>
       </c>
       <c r="J41" s="3">
-        <v>16400</v>
+        <v>15400</v>
       </c>
       <c r="K41" s="3">
         <v>12200</v>
@@ -1813,25 +1813,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="E43" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F43" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="G43" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H43" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="I43" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J43" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K43" s="3">
         <v>900</v>
@@ -1849,25 +1849,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19500</v>
+        <v>18300</v>
       </c>
       <c r="E44" s="3">
-        <v>18500</v>
+        <v>17400</v>
       </c>
       <c r="F44" s="3">
-        <v>28500</v>
+        <v>26800</v>
       </c>
       <c r="G44" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="H44" s="3">
-        <v>25900</v>
+        <v>24400</v>
       </c>
       <c r="I44" s="3">
-        <v>14700</v>
+        <v>13900</v>
       </c>
       <c r="J44" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="K44" s="3">
         <v>8900</v>
@@ -1885,25 +1885,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12000</v>
+        <v>11300</v>
       </c>
       <c r="E45" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="F45" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G45" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="I45" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="J45" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K45" s="3">
         <v>2300</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>61600</v>
+        <v>58000</v>
       </c>
       <c r="E46" s="3">
-        <v>66700</v>
+        <v>62800</v>
       </c>
       <c r="F46" s="3">
-        <v>77100</v>
+        <v>72500</v>
       </c>
       <c r="G46" s="3">
-        <v>84400</v>
+        <v>79300</v>
       </c>
       <c r="H46" s="3">
-        <v>87700</v>
+        <v>82500</v>
       </c>
       <c r="I46" s="3">
-        <v>84200</v>
+        <v>79200</v>
       </c>
       <c r="J46" s="3">
-        <v>32000</v>
+        <v>30100</v>
       </c>
       <c r="K46" s="3">
         <v>24300</v>
@@ -1993,25 +1993,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>43800</v>
+        <v>41200</v>
       </c>
       <c r="F48" s="3">
-        <v>19700</v>
+        <v>18500</v>
       </c>
       <c r="G48" s="3">
-        <v>30300</v>
+        <v>28500</v>
       </c>
       <c r="H48" s="3">
-        <v>42400</v>
+        <v>39900</v>
       </c>
       <c r="I48" s="3">
-        <v>39200</v>
+        <v>36900</v>
       </c>
       <c r="J48" s="3">
-        <v>29500</v>
+        <v>27800</v>
       </c>
       <c r="K48" s="3">
         <v>23700</v>
@@ -2029,25 +2029,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="F49" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H49" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="J49" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K49" s="3">
         <v>1200</v>
@@ -2146,16 +2146,16 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="H52" s="3">
-        <v>11900</v>
+        <v>11200</v>
       </c>
       <c r="I52" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J52" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67400</v>
+        <v>63300</v>
       </c>
       <c r="E54" s="3">
-        <v>115800</v>
+        <v>108900</v>
       </c>
       <c r="F54" s="3">
-        <v>101600</v>
+        <v>95500</v>
       </c>
       <c r="G54" s="3">
-        <v>122600</v>
+        <v>115300</v>
       </c>
       <c r="H54" s="3">
-        <v>144500</v>
+        <v>135900</v>
       </c>
       <c r="I54" s="3">
-        <v>131800</v>
+        <v>123900</v>
       </c>
       <c r="J54" s="3">
-        <v>65500</v>
+        <v>61600</v>
       </c>
       <c r="K54" s="3">
         <v>49100</v>
@@ -2277,25 +2277,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>13700</v>
+        <v>12900</v>
       </c>
       <c r="F57" s="3">
-        <v>12400</v>
+        <v>11700</v>
       </c>
       <c r="G57" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="H57" s="3">
-        <v>11600</v>
+        <v>10900</v>
       </c>
       <c r="I57" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="J57" s="3">
-        <v>10300</v>
+        <v>9700</v>
       </c>
       <c r="K57" s="3">
         <v>8000</v>
@@ -2316,7 +2316,7 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>13600</v>
+        <v>12800</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="K58" s="3">
         <v>2900</v>
@@ -2349,25 +2349,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91100</v>
+        <v>85700</v>
       </c>
       <c r="E59" s="3">
-        <v>9200</v>
+        <v>8600</v>
       </c>
       <c r="F59" s="3">
-        <v>13200</v>
+        <v>12400</v>
       </c>
       <c r="G59" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="H59" s="3">
-        <v>10900</v>
+        <v>10200</v>
       </c>
       <c r="I59" s="3">
-        <v>6500</v>
+        <v>6100</v>
       </c>
       <c r="J59" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K59" s="3">
         <v>2600</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>93000</v>
+        <v>87500</v>
       </c>
       <c r="E60" s="3">
-        <v>36500</v>
+        <v>34400</v>
       </c>
       <c r="F60" s="3">
-        <v>25600</v>
+        <v>24100</v>
       </c>
       <c r="G60" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="H60" s="3">
-        <v>22500</v>
+        <v>21200</v>
       </c>
       <c r="I60" s="3">
-        <v>15600</v>
+        <v>14600</v>
       </c>
       <c r="J60" s="3">
-        <v>16300</v>
+        <v>15400</v>
       </c>
       <c r="K60" s="3">
         <v>13500</v>
@@ -2424,7 +2424,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>59900</v>
+        <v>56300</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="K61" s="3">
         <v>8300</v>
@@ -2463,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>20000</v>
+        <v>18800</v>
       </c>
       <c r="G62" s="3">
-        <v>18300</v>
+        <v>17200</v>
       </c>
       <c r="H62" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="I62" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="J62" s="3">
-        <v>44200</v>
+        <v>41500</v>
       </c>
       <c r="K62" s="3">
         <v>34700</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>93300</v>
+        <v>87700</v>
       </c>
       <c r="E66" s="3">
-        <v>96400</v>
+        <v>90700</v>
       </c>
       <c r="F66" s="3">
-        <v>45600</v>
+        <v>42900</v>
       </c>
       <c r="G66" s="3">
-        <v>38600</v>
+        <v>36300</v>
       </c>
       <c r="H66" s="3">
-        <v>33900</v>
+        <v>31900</v>
       </c>
       <c r="I66" s="3">
-        <v>20700</v>
+        <v>19400</v>
       </c>
       <c r="J66" s="3">
-        <v>65600</v>
+        <v>61700</v>
       </c>
       <c r="K66" s="3">
         <v>56500</v>
@@ -2797,25 +2797,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-122800</v>
+        <v>-115400</v>
       </c>
       <c r="E72" s="3">
-        <v>-76500</v>
+        <v>-71900</v>
       </c>
       <c r="F72" s="3">
-        <v>-39800</v>
+        <v>-37400</v>
       </c>
       <c r="G72" s="3">
-        <v>-12200</v>
+        <v>-11500</v>
       </c>
       <c r="H72" s="3">
-        <v>-118100</v>
+        <v>-111000</v>
       </c>
       <c r="I72" s="3">
-        <v>-114800</v>
+        <v>-108000</v>
       </c>
       <c r="J72" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="K72" s="3">
         <v>-8400</v>
@@ -2941,22 +2941,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-25900</v>
+        <v>-24400</v>
       </c>
       <c r="E76" s="3">
-        <v>19400</v>
+        <v>18200</v>
       </c>
       <c r="F76" s="3">
-        <v>55900</v>
+        <v>52600</v>
       </c>
       <c r="G76" s="3">
-        <v>84000</v>
+        <v>79000</v>
       </c>
       <c r="H76" s="3">
-        <v>110600</v>
+        <v>104000</v>
       </c>
       <c r="I76" s="3">
-        <v>111100</v>
+        <v>104500</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46400</v>
+        <v>-43600</v>
       </c>
       <c r="E81" s="3">
-        <v>-25900</v>
+        <v>-24300</v>
       </c>
       <c r="F81" s="3">
-        <v>-27800</v>
+        <v>-26100</v>
       </c>
       <c r="G81" s="3">
-        <v>-23600</v>
+        <v>-22200</v>
       </c>
       <c r="H81" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="I81" s="3">
-        <v>-109000</v>
+        <v>-102500</v>
       </c>
       <c r="J81" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="K81" s="3">
         <v>-4900</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="E83" s="3">
-        <v>16100</v>
+        <v>15100</v>
       </c>
       <c r="F83" s="3">
-        <v>6800</v>
+        <v>6400</v>
       </c>
       <c r="G83" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H83" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="I83" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="J83" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
@@ -3322,25 +3322,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-9300</v>
+        <v>-8800</v>
       </c>
       <c r="E89" s="3">
-        <v>27400</v>
+        <v>25800</v>
       </c>
       <c r="F89" s="3">
-        <v>-11000</v>
+        <v>-10300</v>
       </c>
       <c r="G89" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H89" s="3">
-        <v>9300</v>
+        <v>8700</v>
       </c>
       <c r="I89" s="3">
-        <v>12900</v>
+        <v>12200</v>
       </c>
       <c r="J89" s="3">
-        <v>14100</v>
+        <v>13200</v>
       </c>
       <c r="K89" s="3">
         <v>11300</v>
@@ -3374,25 +3374,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3200</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-8000</v>
+        <v>-7500</v>
       </c>
       <c r="H91" s="3">
-        <v>-17000</v>
+        <v>-16000</v>
       </c>
       <c r="I91" s="3">
-        <v>-14000</v>
+        <v>-13100</v>
       </c>
       <c r="J91" s="3">
-        <v>-10300</v>
+        <v>-9700</v>
       </c>
       <c r="K91" s="3">
         <v>-6600</v>
@@ -3485,22 +3485,22 @@
         <v>900</v>
       </c>
       <c r="E94" s="3">
-        <v>-4700</v>
+        <v>-4400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="G94" s="3">
-        <v>-10400</v>
+        <v>-9800</v>
       </c>
       <c r="H94" s="3">
-        <v>-18300</v>
+        <v>-17200</v>
       </c>
       <c r="I94" s="3">
-        <v>-14900</v>
+        <v>-14100</v>
       </c>
       <c r="J94" s="3">
-        <v>-10900</v>
+        <v>-10300</v>
       </c>
       <c r="K94" s="3">
         <v>-6900</v>
@@ -3678,22 +3678,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-5000</v>
+        <v>-4700</v>
       </c>
       <c r="E100" s="3">
-        <v>-19200</v>
+        <v>-18100</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H100" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I100" s="3">
-        <v>45700</v>
+        <v>43000</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
@@ -3750,25 +3750,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13400</v>
+        <v>-12600</v>
       </c>
       <c r="E102" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>41100</v>
+      </c>
+      <c r="J102" s="3">
         <v>3500</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-17700</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="I102" s="3">
-        <v>43700</v>
-      </c>
-      <c r="J102" s="3">
-        <v>3700</v>
       </c>
       <c r="K102" s="3">
         <v>6100</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>94900</v>
+        <v>95500</v>
       </c>
       <c r="E8" s="3">
-        <v>153200</v>
+        <v>154200</v>
       </c>
       <c r="F8" s="3">
-        <v>165900</v>
+        <v>167000</v>
       </c>
       <c r="G8" s="3">
-        <v>174700</v>
+        <v>175900</v>
       </c>
       <c r="H8" s="3">
-        <v>168400</v>
+        <v>169600</v>
       </c>
       <c r="I8" s="3">
-        <v>140900</v>
+        <v>141900</v>
       </c>
       <c r="J8" s="3">
-        <v>110600</v>
+        <v>111400</v>
       </c>
       <c r="K8" s="3">
         <v>85800</v>
@@ -759,25 +759,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56100</v>
+        <v>56500</v>
       </c>
       <c r="E9" s="3">
-        <v>68500</v>
+        <v>69000</v>
       </c>
       <c r="F9" s="3">
-        <v>89500</v>
+        <v>90100</v>
       </c>
       <c r="G9" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="H9" s="3">
-        <v>83800</v>
+        <v>84400</v>
       </c>
       <c r="I9" s="3">
-        <v>66600</v>
+        <v>67000</v>
       </c>
       <c r="J9" s="3">
-        <v>50000</v>
+        <v>50400</v>
       </c>
       <c r="K9" s="3">
         <v>38400</v>
@@ -795,25 +795,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>38800</v>
+        <v>39000</v>
       </c>
       <c r="E10" s="3">
-        <v>84700</v>
+        <v>85200</v>
       </c>
       <c r="F10" s="3">
-        <v>76400</v>
+        <v>76900</v>
       </c>
       <c r="G10" s="3">
-        <v>83600</v>
+        <v>84200</v>
       </c>
       <c r="H10" s="3">
-        <v>84600</v>
+        <v>85100</v>
       </c>
       <c r="I10" s="3">
-        <v>74300</v>
+        <v>74800</v>
       </c>
       <c r="J10" s="3">
-        <v>60600</v>
+        <v>61000</v>
       </c>
       <c r="K10" s="3">
         <v>47400</v>
@@ -919,19 +919,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42400</v>
+        <v>42700</v>
       </c>
       <c r="E14" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="F14" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="G14" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="H14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
         <v>200</v>
@@ -955,25 +955,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E15" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F15" s="3">
         <v>6400</v>
       </c>
       <c r="G15" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H15" s="3">
         <v>6900</v>
       </c>
       <c r="I15" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J15" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K15" s="3">
         <v>3800</v>
@@ -1004,25 +1004,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>136200</v>
+        <v>137200</v>
       </c>
       <c r="E17" s="3">
-        <v>174000</v>
+        <v>175200</v>
       </c>
       <c r="F17" s="3">
-        <v>187500</v>
+        <v>188800</v>
       </c>
       <c r="G17" s="3">
-        <v>193900</v>
+        <v>195200</v>
       </c>
       <c r="H17" s="3">
-        <v>173300</v>
+        <v>174500</v>
       </c>
       <c r="I17" s="3">
-        <v>129000</v>
+        <v>129900</v>
       </c>
       <c r="J17" s="3">
-        <v>103000</v>
+        <v>103700</v>
       </c>
       <c r="K17" s="3">
         <v>79900</v>
@@ -1040,25 +1040,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-41400</v>
+        <v>-41700</v>
       </c>
       <c r="E18" s="3">
-        <v>-20800</v>
+        <v>-21000</v>
       </c>
       <c r="F18" s="3">
-        <v>-21600</v>
+        <v>-21800</v>
       </c>
       <c r="G18" s="3">
-        <v>-19200</v>
+        <v>-19400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="I18" s="3">
         <v>11900</v>
       </c>
       <c r="J18" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="K18" s="3">
         <v>5900</v>
@@ -1107,7 +1107,7 @@
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>-109900</v>
+        <v>-110600</v>
       </c>
       <c r="J20" s="3">
         <v>-1000</v>
@@ -1128,22 +1128,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35200</v>
+        <v>-35500</v>
       </c>
       <c r="E21" s="3">
-        <v>-4700</v>
+        <v>-5000</v>
       </c>
       <c r="F21" s="3">
-        <v>-15900</v>
+        <v>-16100</v>
       </c>
       <c r="G21" s="3">
-        <v>-11000</v>
+        <v>-11200</v>
       </c>
       <c r="H21" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I21" s="3">
-        <v>-92900</v>
+        <v>-93600</v>
       </c>
       <c r="J21" s="3">
         <v>10900</v>
@@ -1167,13 +1167,13 @@
         <v>2500</v>
       </c>
       <c r="E22" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1200,22 +1200,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-43600</v>
+        <v>-43900</v>
       </c>
       <c r="E23" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="F23" s="3">
-        <v>-22300</v>
+        <v>-22500</v>
       </c>
       <c r="G23" s="3">
-        <v>-20700</v>
+        <v>-20800</v>
       </c>
       <c r="H23" s="3">
         <v>-4600</v>
       </c>
       <c r="I23" s="3">
-        <v>-98800</v>
+        <v>-99500</v>
       </c>
       <c r="J23" s="3">
         <v>4800</v>
@@ -1248,10 +1248,10 @@
         <v>-100</v>
       </c>
       <c r="H24" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I24" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J24" s="3">
         <v>-300</v>
@@ -1308,25 +1308,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-43900</v>
+        <v>-44200</v>
       </c>
       <c r="E26" s="3">
-        <v>-24000</v>
+        <v>-24200</v>
       </c>
       <c r="F26" s="3">
-        <v>-26100</v>
+        <v>-26300</v>
       </c>
       <c r="G26" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="H26" s="3">
         <v>-2900</v>
       </c>
       <c r="I26" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="J26" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K26" s="3">
         <v>-4900</v>
@@ -1344,25 +1344,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-43900</v>
+        <v>-44200</v>
       </c>
       <c r="E27" s="3">
-        <v>-24000</v>
+        <v>-24200</v>
       </c>
       <c r="F27" s="3">
-        <v>-26100</v>
+        <v>-26300</v>
       </c>
       <c r="G27" s="3">
-        <v>-20600</v>
+        <v>-20700</v>
       </c>
       <c r="H27" s="3">
         <v>-2900</v>
       </c>
       <c r="I27" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="J27" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K27" s="3">
         <v>-4900</v>
@@ -1539,7 +1539,7 @@
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>109900</v>
+        <v>110600</v>
       </c>
       <c r="J32" s="3">
         <v>1000</v>
@@ -1560,25 +1560,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43600</v>
+        <v>-43900</v>
       </c>
       <c r="E33" s="3">
-        <v>-24300</v>
+        <v>-24500</v>
       </c>
       <c r="F33" s="3">
-        <v>-26100</v>
+        <v>-26300</v>
       </c>
       <c r="G33" s="3">
-        <v>-22200</v>
+        <v>-22400</v>
       </c>
       <c r="H33" s="3">
         <v>-2900</v>
       </c>
       <c r="I33" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="J33" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K33" s="3">
         <v>-4900</v>
@@ -1632,25 +1632,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43600</v>
+        <v>-43900</v>
       </c>
       <c r="E35" s="3">
-        <v>-24300</v>
+        <v>-24500</v>
       </c>
       <c r="F35" s="3">
-        <v>-26100</v>
+        <v>-26300</v>
       </c>
       <c r="G35" s="3">
-        <v>-22200</v>
+        <v>-22400</v>
       </c>
       <c r="H35" s="3">
         <v>-2900</v>
       </c>
       <c r="I35" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="J35" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K35" s="3">
         <v>-4900</v>
@@ -1741,25 +1741,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23500</v>
+        <v>23700</v>
       </c>
       <c r="E41" s="3">
-        <v>36100</v>
+        <v>36400</v>
       </c>
       <c r="F41" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="G41" s="3">
-        <v>49500</v>
+        <v>49800</v>
       </c>
       <c r="H41" s="3">
-        <v>50200</v>
+        <v>50600</v>
       </c>
       <c r="I41" s="3">
-        <v>56500</v>
+        <v>56900</v>
       </c>
       <c r="J41" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="K41" s="3">
         <v>12200</v>
@@ -1813,7 +1813,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="E43" s="3">
         <v>5700</v>
@@ -1825,7 +1825,7 @@
         <v>4800</v>
       </c>
       <c r="H43" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="I43" s="3">
         <v>2600</v>
@@ -1849,19 +1849,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18300</v>
+        <v>18400</v>
       </c>
       <c r="E44" s="3">
-        <v>17400</v>
+        <v>17600</v>
       </c>
       <c r="F44" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="G44" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="H44" s="3">
-        <v>24400</v>
+        <v>24500</v>
       </c>
       <c r="I44" s="3">
         <v>13900</v>
@@ -1885,16 +1885,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="E45" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F45" s="3">
         <v>6900</v>
       </c>
       <c r="G45" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H45" s="3">
         <v>4800</v>
@@ -1921,25 +1921,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="E46" s="3">
-        <v>62800</v>
+        <v>63200</v>
       </c>
       <c r="F46" s="3">
-        <v>72500</v>
+        <v>73000</v>
       </c>
       <c r="G46" s="3">
-        <v>79300</v>
+        <v>79900</v>
       </c>
       <c r="H46" s="3">
-        <v>82500</v>
+        <v>83100</v>
       </c>
       <c r="I46" s="3">
-        <v>79200</v>
+        <v>79700</v>
       </c>
       <c r="J46" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="K46" s="3">
         <v>24300</v>
@@ -1996,22 +1996,22 @@
         <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>41200</v>
+        <v>41500</v>
       </c>
       <c r="F48" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="G48" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="H48" s="3">
-        <v>39900</v>
+        <v>40200</v>
       </c>
       <c r="I48" s="3">
-        <v>36900</v>
+        <v>37200</v>
       </c>
       <c r="J48" s="3">
-        <v>27800</v>
+        <v>28000</v>
       </c>
       <c r="K48" s="3">
         <v>23700</v>
@@ -2032,10 +2032,10 @@
         <v>3100</v>
       </c>
       <c r="E49" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="F49" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="G49" s="3">
         <v>3500</v>
@@ -2044,7 +2044,7 @@
         <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="J49" s="3">
         <v>1300</v>
@@ -2146,13 +2146,13 @@
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="H52" s="3">
-        <v>11200</v>
+        <v>11300</v>
       </c>
       <c r="I52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J52" s="3">
         <v>2500</v>
@@ -2209,25 +2209,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63300</v>
+        <v>63800</v>
       </c>
       <c r="E54" s="3">
-        <v>108900</v>
+        <v>109600</v>
       </c>
       <c r="F54" s="3">
-        <v>95500</v>
+        <v>96200</v>
       </c>
       <c r="G54" s="3">
-        <v>115300</v>
+        <v>116100</v>
       </c>
       <c r="H54" s="3">
-        <v>135900</v>
+        <v>136900</v>
       </c>
       <c r="I54" s="3">
-        <v>123900</v>
+        <v>124800</v>
       </c>
       <c r="J54" s="3">
-        <v>61600</v>
+        <v>62100</v>
       </c>
       <c r="K54" s="3">
         <v>49100</v>
@@ -2280,22 +2280,22 @@
         <v>1500</v>
       </c>
       <c r="E57" s="3">
-        <v>12900</v>
+        <v>13000</v>
       </c>
       <c r="F57" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="G57" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="H57" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="I57" s="3">
         <v>8600</v>
       </c>
       <c r="J57" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="K57" s="3">
         <v>8000</v>
@@ -2316,7 +2316,7 @@
         <v>300</v>
       </c>
       <c r="E58" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="K58" s="3">
         <v>2900</v>
@@ -2349,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>85700</v>
+        <v>86300</v>
       </c>
       <c r="E59" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="F59" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="G59" s="3">
         <v>10400</v>
       </c>
       <c r="H59" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
         <v>6100</v>
@@ -2385,25 +2385,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>87500</v>
+        <v>88100</v>
       </c>
       <c r="E60" s="3">
-        <v>34400</v>
+        <v>34600</v>
       </c>
       <c r="F60" s="3">
-        <v>24100</v>
+        <v>24300</v>
       </c>
       <c r="G60" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="H60" s="3">
-        <v>21200</v>
+        <v>21300</v>
       </c>
       <c r="I60" s="3">
-        <v>14600</v>
+        <v>14700</v>
       </c>
       <c r="J60" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="K60" s="3">
         <v>13500</v>
@@ -2424,7 +2424,7 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>56300</v>
+        <v>56700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2463,19 +2463,19 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="G62" s="3">
-        <v>17200</v>
+        <v>17300</v>
       </c>
       <c r="H62" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="I62" s="3">
         <v>4800</v>
       </c>
       <c r="J62" s="3">
-        <v>41500</v>
+        <v>41800</v>
       </c>
       <c r="K62" s="3">
         <v>34700</v>
@@ -2601,25 +2601,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>87700</v>
+        <v>88300</v>
       </c>
       <c r="E66" s="3">
-        <v>90700</v>
+        <v>91300</v>
       </c>
       <c r="F66" s="3">
-        <v>42900</v>
+        <v>43200</v>
       </c>
       <c r="G66" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="H66" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="I66" s="3">
-        <v>19400</v>
+        <v>19600</v>
       </c>
       <c r="J66" s="3">
-        <v>61700</v>
+        <v>62100</v>
       </c>
       <c r="K66" s="3">
         <v>56500</v>
@@ -2797,22 +2797,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-115400</v>
+        <v>-116200</v>
       </c>
       <c r="E72" s="3">
-        <v>-71900</v>
+        <v>-72400</v>
       </c>
       <c r="F72" s="3">
-        <v>-37400</v>
+        <v>-37700</v>
       </c>
       <c r="G72" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="H72" s="3">
-        <v>-111000</v>
+        <v>-111800</v>
       </c>
       <c r="I72" s="3">
-        <v>-108000</v>
+        <v>-108700</v>
       </c>
       <c r="J72" s="3">
         <v>-3200</v>
@@ -2941,22 +2941,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-24400</v>
+        <v>-24600</v>
       </c>
       <c r="E76" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="F76" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="G76" s="3">
-        <v>79000</v>
+        <v>79600</v>
       </c>
       <c r="H76" s="3">
-        <v>104000</v>
+        <v>104800</v>
       </c>
       <c r="I76" s="3">
-        <v>104500</v>
+        <v>105200</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -3054,25 +3054,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43600</v>
+        <v>-43900</v>
       </c>
       <c r="E81" s="3">
-        <v>-24300</v>
+        <v>-24500</v>
       </c>
       <c r="F81" s="3">
-        <v>-26100</v>
+        <v>-26300</v>
       </c>
       <c r="G81" s="3">
-        <v>-22200</v>
+        <v>-22400</v>
       </c>
       <c r="H81" s="3">
         <v>-2900</v>
       </c>
       <c r="I81" s="3">
-        <v>-102500</v>
+        <v>-103200</v>
       </c>
       <c r="J81" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="K81" s="3">
         <v>-4900</v>
@@ -3106,25 +3106,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="E83" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="F83" s="3">
         <v>6400</v>
       </c>
       <c r="G83" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H83" s="3">
         <v>6900</v>
       </c>
       <c r="I83" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="J83" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="K83" s="3">
         <v>3800</v>
@@ -3325,22 +3325,22 @@
         <v>-8800</v>
       </c>
       <c r="E89" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="F89" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="G89" s="3">
         <v>7700</v>
       </c>
       <c r="H89" s="3">
-        <v>8700</v>
+        <v>8800</v>
       </c>
       <c r="I89" s="3">
         <v>12200</v>
       </c>
       <c r="J89" s="3">
-        <v>13200</v>
+        <v>13300</v>
       </c>
       <c r="K89" s="3">
         <v>11300</v>
@@ -3380,19 +3380,19 @@
         <v>-800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>-7500</v>
+        <v>-7600</v>
       </c>
       <c r="H91" s="3">
-        <v>-16000</v>
+        <v>-16100</v>
       </c>
       <c r="I91" s="3">
-        <v>-13100</v>
+        <v>-13200</v>
       </c>
       <c r="J91" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="K91" s="3">
         <v>-6600</v>
@@ -3488,13 +3488,13 @@
         <v>-4400</v>
       </c>
       <c r="F94" s="3">
-        <v>-6400</v>
+        <v>-6500</v>
       </c>
       <c r="G94" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="H94" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="I94" s="3">
         <v>-14100</v>
@@ -3681,7 +3681,7 @@
         <v>-4700</v>
       </c>
       <c r="E100" s="3">
-        <v>-18100</v>
+        <v>-18200</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -3693,7 +3693,7 @@
         <v>2200</v>
       </c>
       <c r="I100" s="3">
-        <v>43000</v>
+        <v>43300</v>
       </c>
       <c r="J100" s="3">
         <v>500</v>
@@ -3750,22 +3750,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="E102" s="3">
         <v>3300</v>
       </c>
       <c r="F102" s="3">
-        <v>-16700</v>
+        <v>-16800</v>
       </c>
       <c r="G102" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H102" s="3">
         <v>-6300</v>
       </c>
       <c r="I102" s="3">
-        <v>41100</v>
+        <v>41400</v>
       </c>
       <c r="J102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -732,16 +732,16 @@
         <v>167000</v>
       </c>
       <c r="G8" s="3">
-        <v>175900</v>
+        <v>175800</v>
       </c>
       <c r="H8" s="3">
-        <v>169600</v>
+        <v>169500</v>
       </c>
       <c r="I8" s="3">
-        <v>141900</v>
+        <v>141800</v>
       </c>
       <c r="J8" s="3">
-        <v>111400</v>
+        <v>111300</v>
       </c>
       <c r="K8" s="3">
         <v>85800</v>
@@ -768,7 +768,7 @@
         <v>90100</v>
       </c>
       <c r="G9" s="3">
-        <v>91700</v>
+        <v>91600</v>
       </c>
       <c r="H9" s="3">
         <v>84400</v>
@@ -1004,19 +1004,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>137200</v>
+        <v>137100</v>
       </c>
       <c r="E17" s="3">
-        <v>175200</v>
+        <v>175100</v>
       </c>
       <c r="F17" s="3">
-        <v>188800</v>
+        <v>188700</v>
       </c>
       <c r="G17" s="3">
         <v>195200</v>
       </c>
       <c r="H17" s="3">
-        <v>174500</v>
+        <v>174400</v>
       </c>
       <c r="I17" s="3">
         <v>129900</v>
@@ -1040,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-41700</v>
+        <v>-41600</v>
       </c>
       <c r="E18" s="3">
         <v>-21000</v>
@@ -1052,7 +1052,7 @@
         <v>-19400</v>
       </c>
       <c r="H18" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="I18" s="3">
         <v>11900</v>
@@ -1323,7 +1323,7 @@
         <v>-2900</v>
       </c>
       <c r="I26" s="3">
-        <v>-103200</v>
+        <v>-103100</v>
       </c>
       <c r="J26" s="3">
         <v>5100</v>
@@ -1359,7 +1359,7 @@
         <v>-2900</v>
       </c>
       <c r="I27" s="3">
-        <v>-103200</v>
+        <v>-103100</v>
       </c>
       <c r="J27" s="3">
         <v>5100</v>
@@ -1575,7 +1575,7 @@
         <v>-2900</v>
       </c>
       <c r="I33" s="3">
-        <v>-103200</v>
+        <v>-103100</v>
       </c>
       <c r="J33" s="3">
         <v>5100</v>
@@ -1647,7 +1647,7 @@
         <v>-2900</v>
       </c>
       <c r="I35" s="3">
-        <v>-103200</v>
+        <v>-103100</v>
       </c>
       <c r="J35" s="3">
         <v>5100</v>
@@ -1852,7 +1852,7 @@
         <v>18400</v>
       </c>
       <c r="E44" s="3">
-        <v>17600</v>
+        <v>17500</v>
       </c>
       <c r="F44" s="3">
         <v>27000</v>
@@ -1921,7 +1921,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58400</v>
+        <v>58300</v>
       </c>
       <c r="E46" s="3">
         <v>63200</v>
@@ -1930,7 +1930,7 @@
         <v>73000</v>
       </c>
       <c r="G46" s="3">
-        <v>79900</v>
+        <v>79800</v>
       </c>
       <c r="H46" s="3">
         <v>83100</v>
@@ -1996,7 +1996,7 @@
         <v>2300</v>
       </c>
       <c r="E48" s="3">
-        <v>41500</v>
+        <v>41400</v>
       </c>
       <c r="F48" s="3">
         <v>18700</v>
@@ -2005,10 +2005,10 @@
         <v>28700</v>
       </c>
       <c r="H48" s="3">
-        <v>40200</v>
+        <v>40100</v>
       </c>
       <c r="I48" s="3">
-        <v>37200</v>
+        <v>37100</v>
       </c>
       <c r="J48" s="3">
         <v>28000</v>
@@ -2215,19 +2215,19 @@
         <v>109600</v>
       </c>
       <c r="F54" s="3">
-        <v>96200</v>
+        <v>96100</v>
       </c>
       <c r="G54" s="3">
         <v>116100</v>
       </c>
       <c r="H54" s="3">
-        <v>136900</v>
+        <v>136800</v>
       </c>
       <c r="I54" s="3">
         <v>124800</v>
       </c>
       <c r="J54" s="3">
-        <v>62100</v>
+        <v>62000</v>
       </c>
       <c r="K54" s="3">
         <v>49100</v>
@@ -2349,7 +2349,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86300</v>
+        <v>86200</v>
       </c>
       <c r="E59" s="3">
         <v>8700</v>
@@ -2385,7 +2385,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88100</v>
+        <v>88000</v>
       </c>
       <c r="E60" s="3">
         <v>34600</v>
@@ -2610,7 +2610,7 @@
         <v>43200</v>
       </c>
       <c r="G66" s="3">
-        <v>36600</v>
+        <v>36500</v>
       </c>
       <c r="H66" s="3">
         <v>32100</v>
@@ -2803,13 +2803,13 @@
         <v>-72400</v>
       </c>
       <c r="F72" s="3">
-        <v>-37700</v>
+        <v>-37600</v>
       </c>
       <c r="G72" s="3">
         <v>-11600</v>
       </c>
       <c r="H72" s="3">
-        <v>-111800</v>
+        <v>-111700</v>
       </c>
       <c r="I72" s="3">
         <v>-108700</v>
@@ -2947,13 +2947,13 @@
         <v>18300</v>
       </c>
       <c r="F76" s="3">
-        <v>53000</v>
+        <v>52900</v>
       </c>
       <c r="G76" s="3">
-        <v>79600</v>
+        <v>79500</v>
       </c>
       <c r="H76" s="3">
-        <v>104800</v>
+        <v>104700</v>
       </c>
       <c r="I76" s="3">
         <v>105200</v>
@@ -3069,7 +3069,7 @@
         <v>-2900</v>
       </c>
       <c r="I81" s="3">
-        <v>-103200</v>
+        <v>-103100</v>
       </c>
       <c r="J81" s="3">
         <v>5100</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
   <si>
     <t>DTEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,180 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43498</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43134</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42763</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42399</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42035</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41664</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41300</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>95500</v>
+        <v>79800</v>
       </c>
       <c r="E8" s="3">
-        <v>154200</v>
+        <v>93300</v>
       </c>
       <c r="F8" s="3">
-        <v>167000</v>
+        <v>150600</v>
       </c>
       <c r="G8" s="3">
-        <v>175800</v>
+        <v>163100</v>
       </c>
       <c r="H8" s="3">
-        <v>169500</v>
+        <v>171700</v>
       </c>
       <c r="I8" s="3">
-        <v>141800</v>
+        <v>165600</v>
       </c>
       <c r="J8" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K8" s="3">
         <v>111300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>85800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>53100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>56500</v>
+        <v>46700</v>
       </c>
       <c r="E9" s="3">
-        <v>69000</v>
+        <v>55200</v>
       </c>
       <c r="F9" s="3">
-        <v>90100</v>
+        <v>67400</v>
       </c>
       <c r="G9" s="3">
-        <v>91600</v>
+        <v>88000</v>
       </c>
       <c r="H9" s="3">
-        <v>84400</v>
+        <v>89500</v>
       </c>
       <c r="I9" s="3">
-        <v>67000</v>
+        <v>82400</v>
       </c>
       <c r="J9" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K9" s="3">
         <v>50400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>38400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>23400</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>39000</v>
+        <v>33100</v>
       </c>
       <c r="E10" s="3">
-        <v>85200</v>
+        <v>38100</v>
       </c>
       <c r="F10" s="3">
-        <v>76900</v>
+        <v>83200</v>
       </c>
       <c r="G10" s="3">
-        <v>84200</v>
+        <v>75100</v>
       </c>
       <c r="H10" s="3">
-        <v>85100</v>
+        <v>82200</v>
       </c>
       <c r="I10" s="3">
-        <v>74800</v>
+        <v>83100</v>
       </c>
       <c r="J10" s="3">
+        <v>73100</v>
+      </c>
+      <c r="K10" s="3">
         <v>61000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>29700</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,8 +853,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -876,9 +889,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,81 +928,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>42700</v>
+        <v>-62300</v>
       </c>
       <c r="E14" s="3">
-        <v>14000</v>
+        <v>41700</v>
       </c>
       <c r="F14" s="3">
-        <v>9900</v>
+        <v>13700</v>
       </c>
       <c r="G14" s="3">
-        <v>11900</v>
+        <v>9700</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>11600</v>
       </c>
       <c r="I14" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="E15" s="3">
-        <v>15200</v>
+        <v>5700</v>
       </c>
       <c r="F15" s="3">
-        <v>6400</v>
+        <v>14900</v>
       </c>
       <c r="G15" s="3">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H15" s="3">
-        <v>6900</v>
+        <v>7600</v>
       </c>
       <c r="I15" s="3">
-        <v>5100</v>
+        <v>6800</v>
       </c>
       <c r="J15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K15" s="3">
         <v>4300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>3800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2300</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -998,80 +1023,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>137100</v>
+        <v>20700</v>
       </c>
       <c r="E17" s="3">
-        <v>175100</v>
+        <v>134000</v>
       </c>
       <c r="F17" s="3">
-        <v>188700</v>
+        <v>171100</v>
       </c>
       <c r="G17" s="3">
-        <v>195200</v>
+        <v>184400</v>
       </c>
       <c r="H17" s="3">
-        <v>174400</v>
+        <v>190700</v>
       </c>
       <c r="I17" s="3">
-        <v>129900</v>
+        <v>170400</v>
       </c>
       <c r="J17" s="3">
+        <v>126900</v>
+      </c>
+      <c r="K17" s="3">
         <v>103700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>79900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>50500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-41600</v>
+        <v>59100</v>
       </c>
       <c r="E18" s="3">
-        <v>-21000</v>
+        <v>-40700</v>
       </c>
       <c r="F18" s="3">
-        <v>-21800</v>
+        <v>-20500</v>
       </c>
       <c r="G18" s="3">
-        <v>-19400</v>
+        <v>-21300</v>
       </c>
       <c r="H18" s="3">
-        <v>-4900</v>
+        <v>-18900</v>
       </c>
       <c r="I18" s="3">
-        <v>11900</v>
+        <v>-4800</v>
       </c>
       <c r="J18" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K18" s="3">
         <v>7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1086,188 +1118,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>400</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>-110600</v>
+        <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>-108000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-35500</v>
+        <v>62600</v>
       </c>
       <c r="E21" s="3">
-        <v>-5000</v>
+        <v>-34600</v>
       </c>
       <c r="F21" s="3">
-        <v>-16100</v>
+        <v>-4800</v>
       </c>
       <c r="G21" s="3">
-        <v>-11200</v>
+        <v>-15700</v>
       </c>
       <c r="H21" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="I21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-93600</v>
-      </c>
       <c r="J21" s="3">
+        <v>-91400</v>
+      </c>
+      <c r="K21" s="3">
         <v>10900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
-        <v>5500</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1900</v>
+      <c r="F22" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-43900</v>
+        <v>59100</v>
       </c>
       <c r="E23" s="3">
-        <v>-25700</v>
+        <v>-42900</v>
       </c>
       <c r="F23" s="3">
-        <v>-22500</v>
+        <v>-25100</v>
       </c>
       <c r="G23" s="3">
-        <v>-20800</v>
+        <v>-22000</v>
       </c>
       <c r="H23" s="3">
-        <v>-4600</v>
+        <v>-20300</v>
       </c>
       <c r="I23" s="3">
-        <v>-99500</v>
+        <v>-4500</v>
       </c>
       <c r="J23" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="K23" s="3">
         <v>4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1500</v>
       </c>
-      <c r="F24" s="3">
-        <v>3800</v>
-      </c>
       <c r="G24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>-1800</v>
-      </c>
       <c r="I24" s="3">
-        <v>3700</v>
+        <v>-1700</v>
       </c>
       <c r="J24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1301,81 +1349,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-44200</v>
+        <v>59900</v>
       </c>
       <c r="E26" s="3">
-        <v>-24200</v>
+        <v>-43200</v>
       </c>
       <c r="F26" s="3">
-        <v>-26300</v>
+        <v>-23600</v>
       </c>
       <c r="G26" s="3">
-        <v>-20700</v>
+        <v>-25700</v>
       </c>
       <c r="H26" s="3">
-        <v>-2900</v>
+        <v>-20200</v>
       </c>
       <c r="I26" s="3">
-        <v>-103100</v>
+        <v>-2800</v>
       </c>
       <c r="J26" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="K26" s="3">
         <v>5100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-44200</v>
+        <v>59900</v>
       </c>
       <c r="E27" s="3">
-        <v>-24200</v>
+        <v>-43200</v>
       </c>
       <c r="F27" s="3">
-        <v>-26300</v>
+        <v>-23600</v>
       </c>
       <c r="G27" s="3">
-        <v>-20700</v>
+        <v>-25700</v>
       </c>
       <c r="H27" s="3">
-        <v>-2900</v>
+        <v>-20200</v>
       </c>
       <c r="I27" s="3">
-        <v>-103100</v>
+        <v>-2800</v>
       </c>
       <c r="J27" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="K27" s="3">
         <v>5100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1409,27 +1466,30 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-300</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1600</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1445,9 +1505,12 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1481,9 +1544,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1517,81 +1583,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-400</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>110600</v>
+        <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>108000</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-43900</v>
+        <v>59900</v>
       </c>
       <c r="E33" s="3">
-        <v>-24500</v>
+        <v>-42900</v>
       </c>
       <c r="F33" s="3">
-        <v>-26300</v>
+        <v>-23900</v>
       </c>
       <c r="G33" s="3">
-        <v>-22400</v>
+        <v>-25700</v>
       </c>
       <c r="H33" s="3">
-        <v>-2900</v>
+        <v>-21900</v>
       </c>
       <c r="I33" s="3">
-        <v>-103100</v>
+        <v>-2800</v>
       </c>
       <c r="J33" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="K33" s="3">
         <v>5100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1625,86 +1700,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-43900</v>
+        <v>59900</v>
       </c>
       <c r="E35" s="3">
-        <v>-24500</v>
+        <v>-42900</v>
       </c>
       <c r="F35" s="3">
-        <v>-26300</v>
+        <v>-23900</v>
       </c>
       <c r="G35" s="3">
-        <v>-22400</v>
+        <v>-25700</v>
       </c>
       <c r="H35" s="3">
-        <v>-2900</v>
+        <v>-21900</v>
       </c>
       <c r="I35" s="3">
-        <v>-103100</v>
+        <v>-2800</v>
       </c>
       <c r="J35" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="K35" s="3">
         <v>5100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43498</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42763</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42399</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42035</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41664</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41300</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1719,8 +1803,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,44 +1820,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>23700</v>
+        <v>19200</v>
       </c>
       <c r="E41" s="3">
-        <v>36400</v>
+        <v>23200</v>
       </c>
       <c r="F41" s="3">
-        <v>33000</v>
+        <v>35500</v>
       </c>
       <c r="G41" s="3">
-        <v>49800</v>
+        <v>32300</v>
       </c>
       <c r="H41" s="3">
-        <v>50600</v>
+        <v>48700</v>
       </c>
       <c r="I41" s="3">
-        <v>56900</v>
+        <v>49400</v>
       </c>
       <c r="J41" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K41" s="3">
         <v>15500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>12200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5500</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1806,153 +1895,168 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4900</v>
+        <v>2500</v>
       </c>
       <c r="E43" s="3">
-        <v>5700</v>
+        <v>4800</v>
       </c>
       <c r="F43" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="G43" s="3">
-        <v>4800</v>
+        <v>6000</v>
       </c>
       <c r="H43" s="3">
-        <v>3200</v>
+        <v>4700</v>
       </c>
       <c r="I43" s="3">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="J43" s="3">
         <v>2500</v>
       </c>
       <c r="K43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>18400</v>
+        <v>23800</v>
       </c>
       <c r="E44" s="3">
-        <v>17500</v>
+        <v>18000</v>
       </c>
       <c r="F44" s="3">
-        <v>27000</v>
+        <v>17100</v>
       </c>
       <c r="G44" s="3">
-        <v>19200</v>
+        <v>26300</v>
       </c>
       <c r="H44" s="3">
-        <v>24500</v>
+        <v>18700</v>
       </c>
       <c r="I44" s="3">
-        <v>13900</v>
+        <v>24000</v>
       </c>
       <c r="J44" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K44" s="3">
         <v>9800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>7900</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11400</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>3600</v>
+        <v>11100</v>
       </c>
       <c r="F45" s="3">
-        <v>6900</v>
+        <v>3500</v>
       </c>
       <c r="G45" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="H45" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>58300</v>
+        <v>48700</v>
       </c>
       <c r="E46" s="3">
-        <v>63200</v>
+        <v>57000</v>
       </c>
       <c r="F46" s="3">
-        <v>73000</v>
+        <v>61700</v>
       </c>
       <c r="G46" s="3">
-        <v>79800</v>
+        <v>71300</v>
       </c>
       <c r="H46" s="3">
-        <v>83100</v>
+        <v>78000</v>
       </c>
       <c r="I46" s="3">
-        <v>79700</v>
+        <v>81100</v>
       </c>
       <c r="J46" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K46" s="3">
         <v>30300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1986,81 +2090,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2300</v>
       </c>
-      <c r="E48" s="3">
-        <v>41400</v>
-      </c>
       <c r="F48" s="3">
-        <v>18700</v>
+        <v>40500</v>
       </c>
       <c r="G48" s="3">
-        <v>28700</v>
+        <v>18200</v>
       </c>
       <c r="H48" s="3">
-        <v>40100</v>
+        <v>28000</v>
       </c>
       <c r="I48" s="3">
-        <v>37100</v>
+        <v>39200</v>
       </c>
       <c r="J48" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K48" s="3">
         <v>28000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18900</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="F49" s="3">
-        <v>4500</v>
+        <v>4900</v>
       </c>
       <c r="G49" s="3">
-        <v>3500</v>
+        <v>4400</v>
       </c>
       <c r="H49" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
-        <v>1800</v>
-      </c>
       <c r="J49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2094,9 +2207,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2130,9 +2246,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,33 +2261,36 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>11300</v>
+        <v>4000</v>
       </c>
       <c r="I52" s="3">
-        <v>6200</v>
+        <v>11000</v>
       </c>
       <c r="J52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2500</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2202,45 +2324,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63800</v>
+        <v>60300</v>
       </c>
       <c r="E54" s="3">
-        <v>109600</v>
+        <v>62300</v>
       </c>
       <c r="F54" s="3">
-        <v>96100</v>
+        <v>107100</v>
       </c>
       <c r="G54" s="3">
-        <v>116100</v>
+        <v>93900</v>
       </c>
       <c r="H54" s="3">
-        <v>136800</v>
+        <v>113400</v>
       </c>
       <c r="I54" s="3">
-        <v>124800</v>
+        <v>133700</v>
       </c>
       <c r="J54" s="3">
+        <v>121900</v>
+      </c>
+      <c r="K54" s="3">
         <v>62000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36200</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2255,8 +2383,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2271,55 +2400,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1500</v>
+        <v>8500</v>
       </c>
       <c r="E57" s="3">
-        <v>13000</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>11800</v>
+        <v>12700</v>
       </c>
       <c r="G57" s="3">
-        <v>8800</v>
+        <v>11500</v>
       </c>
       <c r="H57" s="3">
-        <v>11000</v>
+        <v>8600</v>
       </c>
       <c r="I57" s="3">
-        <v>8600</v>
+        <v>10700</v>
       </c>
       <c r="J57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="K57" s="3">
         <v>9800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4700</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>12900</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>12600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2327,107 +2460,116 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>86200</v>
+        <v>5100</v>
       </c>
       <c r="E59" s="3">
-        <v>8700</v>
+        <v>84200</v>
       </c>
       <c r="F59" s="3">
-        <v>12500</v>
+        <v>8500</v>
       </c>
       <c r="G59" s="3">
-        <v>10400</v>
+        <v>12200</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>10200</v>
       </c>
       <c r="I59" s="3">
-        <v>6100</v>
+        <v>10100</v>
       </c>
       <c r="J59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>88000</v>
+        <v>15400</v>
       </c>
       <c r="E60" s="3">
-        <v>34600</v>
+        <v>86000</v>
       </c>
       <c r="F60" s="3">
-        <v>24300</v>
+        <v>33800</v>
       </c>
       <c r="G60" s="3">
-        <v>19200</v>
+        <v>23700</v>
       </c>
       <c r="H60" s="3">
-        <v>21300</v>
+        <v>18800</v>
       </c>
       <c r="I60" s="3">
-        <v>14700</v>
+        <v>20800</v>
       </c>
       <c r="J60" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K60" s="3">
         <v>15500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9800</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
-        <v>56700</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>55400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2439,56 +2581,62 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>4800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4900</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F62" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>17300</v>
+        <v>18500</v>
       </c>
       <c r="H62" s="3">
-        <v>10800</v>
+        <v>16900</v>
       </c>
       <c r="I62" s="3">
-        <v>4800</v>
+        <v>10500</v>
       </c>
       <c r="J62" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K62" s="3">
         <v>41800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>24300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2522,9 +2670,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2558,9 +2709,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2594,45 +2748,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88300</v>
+        <v>23200</v>
       </c>
       <c r="E66" s="3">
-        <v>91300</v>
+        <v>86300</v>
       </c>
       <c r="F66" s="3">
-        <v>43200</v>
+        <v>89200</v>
       </c>
       <c r="G66" s="3">
-        <v>36500</v>
+        <v>42200</v>
       </c>
       <c r="H66" s="3">
-        <v>32100</v>
+        <v>35700</v>
       </c>
       <c r="I66" s="3">
-        <v>19600</v>
+        <v>31300</v>
       </c>
       <c r="J66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K66" s="3">
         <v>62100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>56500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39000</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2647,8 +2807,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2682,9 +2843,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2718,9 +2882,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2754,9 +2921,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2790,45 +2960,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-116200</v>
+        <v>-54200</v>
       </c>
       <c r="E72" s="3">
-        <v>-72400</v>
+        <v>-113500</v>
       </c>
       <c r="F72" s="3">
-        <v>-37600</v>
+        <v>-70700</v>
       </c>
       <c r="G72" s="3">
-        <v>-11600</v>
+        <v>-36800</v>
       </c>
       <c r="H72" s="3">
-        <v>-111700</v>
+        <v>-11300</v>
       </c>
       <c r="I72" s="3">
-        <v>-108700</v>
+        <v>-109200</v>
       </c>
       <c r="J72" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,9 +3038,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2898,9 +3077,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2934,45 +3116,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-24600</v>
+        <v>37000</v>
       </c>
       <c r="E76" s="3">
-        <v>18300</v>
+        <v>-24000</v>
       </c>
       <c r="F76" s="3">
-        <v>52900</v>
+        <v>17900</v>
       </c>
       <c r="G76" s="3">
-        <v>79500</v>
+        <v>51700</v>
       </c>
       <c r="H76" s="3">
-        <v>104700</v>
+        <v>77700</v>
       </c>
       <c r="I76" s="3">
-        <v>105200</v>
+        <v>102300</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>102800</v>
       </c>
       <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
         <v>-7400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3006,86 +3194,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43498</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43134</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42763</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42399</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42035</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41664</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41300</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-43900</v>
+        <v>59900</v>
       </c>
       <c r="E81" s="3">
-        <v>-24500</v>
+        <v>-42900</v>
       </c>
       <c r="F81" s="3">
-        <v>-26300</v>
+        <v>-23900</v>
       </c>
       <c r="G81" s="3">
-        <v>-22400</v>
+        <v>-25700</v>
       </c>
       <c r="H81" s="3">
-        <v>-2900</v>
+        <v>-21900</v>
       </c>
       <c r="I81" s="3">
-        <v>-103100</v>
+        <v>-2800</v>
       </c>
       <c r="J81" s="3">
+        <v>-100800</v>
+      </c>
+      <c r="K81" s="3">
         <v>5100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3100,44 +3297,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>5900</v>
+        <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>15200</v>
+        <v>5700</v>
       </c>
       <c r="F83" s="3">
-        <v>6400</v>
+        <v>14900</v>
       </c>
       <c r="G83" s="3">
-        <v>7800</v>
+        <v>6300</v>
       </c>
       <c r="H83" s="3">
-        <v>6900</v>
+        <v>7600</v>
       </c>
       <c r="I83" s="3">
-        <v>5100</v>
+        <v>6800</v>
       </c>
       <c r="J83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3171,9 +3372,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3207,9 +3411,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3243,9 +3450,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3279,9 +3489,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3315,45 +3528,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-8800</v>
+        <v>-3300</v>
       </c>
       <c r="E89" s="3">
-        <v>26000</v>
+        <v>-8600</v>
       </c>
       <c r="F89" s="3">
-        <v>-10400</v>
+        <v>25400</v>
       </c>
       <c r="G89" s="3">
-        <v>7700</v>
+        <v>-10100</v>
       </c>
       <c r="H89" s="3">
-        <v>8800</v>
+        <v>7600</v>
       </c>
       <c r="I89" s="3">
-        <v>12200</v>
+        <v>8600</v>
       </c>
       <c r="J89" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K89" s="3">
         <v>13300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3368,44 +3587,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
-        <v>-3100</v>
-      </c>
       <c r="G91" s="3">
-        <v>-7600</v>
+        <v>-3000</v>
       </c>
       <c r="H91" s="3">
-        <v>-16100</v>
+        <v>-7400</v>
       </c>
       <c r="I91" s="3">
-        <v>-13200</v>
+        <v>-15700</v>
       </c>
       <c r="J91" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3439,9 +3662,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3475,45 +3701,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-4400</v>
-      </c>
       <c r="F94" s="3">
-        <v>-6500</v>
+        <v>-4300</v>
       </c>
       <c r="G94" s="3">
-        <v>-9900</v>
+        <v>-6300</v>
       </c>
       <c r="H94" s="3">
-        <v>-17300</v>
+        <v>-9700</v>
       </c>
       <c r="I94" s="3">
-        <v>-14100</v>
+        <v>-16900</v>
       </c>
       <c r="J94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-10300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3528,8 +3760,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3563,9 +3796,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3599,9 +3835,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3635,9 +3874,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3671,45 +3913,51 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4700</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>-18200</v>
+        <v>-4600</v>
       </c>
       <c r="F100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="H100" s="3">
-        <v>2200</v>
-      </c>
       <c r="I100" s="3">
-        <v>43300</v>
+        <v>2100</v>
       </c>
       <c r="J100" s="3">
+        <v>42300</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>13000</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3743,43 +3991,49 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12700</v>
+        <v>-3900</v>
       </c>
       <c r="E102" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F102" s="3">
         <v>3300</v>
       </c>
-      <c r="F102" s="3">
-        <v>-16800</v>
-      </c>
       <c r="G102" s="3">
-        <v>-800</v>
+        <v>-16400</v>
       </c>
       <c r="H102" s="3">
-        <v>-6300</v>
+        <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>41400</v>
+        <v>-6200</v>
       </c>
       <c r="J102" s="3">
+        <v>40400</v>
+      </c>
+      <c r="K102" s="3">
         <v>3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>79800</v>
+        <v>80500</v>
       </c>
       <c r="E8" s="3">
-        <v>93300</v>
+        <v>94200</v>
       </c>
       <c r="F8" s="3">
-        <v>150600</v>
+        <v>152000</v>
       </c>
       <c r="G8" s="3">
-        <v>163100</v>
+        <v>164600</v>
       </c>
       <c r="H8" s="3">
-        <v>171700</v>
+        <v>173300</v>
       </c>
       <c r="I8" s="3">
-        <v>165600</v>
+        <v>167100</v>
       </c>
       <c r="J8" s="3">
-        <v>138500</v>
+        <v>139800</v>
       </c>
       <c r="K8" s="3">
         <v>111300</v>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>46700</v>
+        <v>47100</v>
       </c>
       <c r="E9" s="3">
-        <v>55200</v>
+        <v>55700</v>
       </c>
       <c r="F9" s="3">
-        <v>67400</v>
+        <v>68000</v>
       </c>
       <c r="G9" s="3">
-        <v>88000</v>
+        <v>88800</v>
       </c>
       <c r="H9" s="3">
-        <v>89500</v>
+        <v>90400</v>
       </c>
       <c r="I9" s="3">
-        <v>82400</v>
+        <v>83200</v>
       </c>
       <c r="J9" s="3">
-        <v>65400</v>
+        <v>66000</v>
       </c>
       <c r="K9" s="3">
         <v>50400</v>
@@ -804,25 +804,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>33100</v>
+        <v>33400</v>
       </c>
       <c r="E10" s="3">
-        <v>38100</v>
+        <v>38500</v>
       </c>
       <c r="F10" s="3">
-        <v>83200</v>
+        <v>84000</v>
       </c>
       <c r="G10" s="3">
-        <v>75100</v>
+        <v>75800</v>
       </c>
       <c r="H10" s="3">
-        <v>82200</v>
+        <v>83000</v>
       </c>
       <c r="I10" s="3">
-        <v>83100</v>
+        <v>83900</v>
       </c>
       <c r="J10" s="3">
-        <v>73100</v>
+        <v>73800</v>
       </c>
       <c r="K10" s="3">
         <v>61000</v>
@@ -938,22 +938,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-62300</v>
+        <v>-62800</v>
       </c>
       <c r="E14" s="3">
-        <v>41700</v>
+        <v>42100</v>
       </c>
       <c r="F14" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="G14" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="H14" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -980,22 +980,22 @@
         <v>3300</v>
       </c>
       <c r="E15" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F15" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G15" s="3">
         <v>6300</v>
       </c>
       <c r="H15" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I15" s="3">
         <v>6800</v>
       </c>
       <c r="J15" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K15" s="3">
         <v>4300</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="E17" s="3">
-        <v>134000</v>
+        <v>135200</v>
       </c>
       <c r="F17" s="3">
-        <v>171100</v>
+        <v>172700</v>
       </c>
       <c r="G17" s="3">
-        <v>184400</v>
+        <v>186100</v>
       </c>
       <c r="H17" s="3">
-        <v>190700</v>
+        <v>192400</v>
       </c>
       <c r="I17" s="3">
-        <v>170400</v>
+        <v>172000</v>
       </c>
       <c r="J17" s="3">
-        <v>126900</v>
+        <v>128000</v>
       </c>
       <c r="K17" s="3">
         <v>103700</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>59100</v>
+        <v>59700</v>
       </c>
       <c r="E18" s="3">
-        <v>-40700</v>
+        <v>-41100</v>
       </c>
       <c r="F18" s="3">
-        <v>-20500</v>
+        <v>-20700</v>
       </c>
       <c r="G18" s="3">
-        <v>-21300</v>
+        <v>-21500</v>
       </c>
       <c r="H18" s="3">
-        <v>-18900</v>
+        <v>-19100</v>
       </c>
       <c r="I18" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="J18" s="3">
-        <v>11700</v>
+        <v>11800</v>
       </c>
       <c r="K18" s="3">
         <v>7700</v>
@@ -1143,7 +1143,7 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
-        <v>-108000</v>
+        <v>-109000</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62600</v>
+        <v>63100</v>
       </c>
       <c r="E21" s="3">
-        <v>-34600</v>
+        <v>-35000</v>
       </c>
       <c r="F21" s="3">
-        <v>-4800</v>
+        <v>-5000</v>
       </c>
       <c r="G21" s="3">
-        <v>-15700</v>
+        <v>-15800</v>
       </c>
       <c r="H21" s="3">
-        <v>-10900</v>
+        <v>-11000</v>
       </c>
       <c r="I21" s="3">
         <v>2300</v>
       </c>
       <c r="J21" s="3">
-        <v>-91400</v>
+        <v>-92300</v>
       </c>
       <c r="K21" s="3">
         <v>10900</v>
@@ -1209,7 +1209,7 @@
         <v>2500</v>
       </c>
       <c r="F22" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>59100</v>
+        <v>59700</v>
       </c>
       <c r="E23" s="3">
-        <v>-42900</v>
+        <v>-43300</v>
       </c>
       <c r="F23" s="3">
-        <v>-25100</v>
+        <v>-25300</v>
       </c>
       <c r="G23" s="3">
-        <v>-22000</v>
+        <v>-22200</v>
       </c>
       <c r="H23" s="3">
-        <v>-20300</v>
+        <v>-20500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4500</v>
+        <v>-4600</v>
       </c>
       <c r="J23" s="3">
-        <v>-97200</v>
+        <v>-98100</v>
       </c>
       <c r="K23" s="3">
         <v>4800</v>
@@ -1290,7 +1290,7 @@
         <v>-1500</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>59900</v>
+        <v>60400</v>
       </c>
       <c r="E26" s="3">
-        <v>-43200</v>
+        <v>-43600</v>
       </c>
       <c r="F26" s="3">
-        <v>-23600</v>
+        <v>-23800</v>
       </c>
       <c r="G26" s="3">
-        <v>-25700</v>
+        <v>-26000</v>
       </c>
       <c r="H26" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="I26" s="3">
         <v>-2800</v>
       </c>
       <c r="J26" s="3">
-        <v>-100800</v>
+        <v>-101700</v>
       </c>
       <c r="K26" s="3">
         <v>5100</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>59900</v>
+        <v>60400</v>
       </c>
       <c r="E27" s="3">
-        <v>-43200</v>
+        <v>-43600</v>
       </c>
       <c r="F27" s="3">
-        <v>-23600</v>
+        <v>-23800</v>
       </c>
       <c r="G27" s="3">
-        <v>-25700</v>
+        <v>-26000</v>
       </c>
       <c r="H27" s="3">
-        <v>-20200</v>
+        <v>-20400</v>
       </c>
       <c r="I27" s="3">
         <v>-2800</v>
       </c>
       <c r="J27" s="3">
-        <v>-100800</v>
+        <v>-101700</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1611,7 +1611,7 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
-        <v>108000</v>
+        <v>109000</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>59900</v>
+        <v>60500</v>
       </c>
       <c r="E33" s="3">
-        <v>-42900</v>
+        <v>-43300</v>
       </c>
       <c r="F33" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="G33" s="3">
-        <v>-25700</v>
+        <v>-26000</v>
       </c>
       <c r="H33" s="3">
-        <v>-21900</v>
+        <v>-22100</v>
       </c>
       <c r="I33" s="3">
         <v>-2800</v>
       </c>
       <c r="J33" s="3">
-        <v>-100800</v>
+        <v>-101700</v>
       </c>
       <c r="K33" s="3">
         <v>5100</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>59900</v>
+        <v>60500</v>
       </c>
       <c r="E35" s="3">
-        <v>-42900</v>
+        <v>-43300</v>
       </c>
       <c r="F35" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="G35" s="3">
-        <v>-25700</v>
+        <v>-26000</v>
       </c>
       <c r="H35" s="3">
-        <v>-21900</v>
+        <v>-22100</v>
       </c>
       <c r="I35" s="3">
         <v>-2800</v>
       </c>
       <c r="J35" s="3">
-        <v>-100800</v>
+        <v>-101700</v>
       </c>
       <c r="K35" s="3">
         <v>5100</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19200</v>
+        <v>19400</v>
       </c>
       <c r="E41" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="F41" s="3">
-        <v>35500</v>
+        <v>35900</v>
       </c>
       <c r="G41" s="3">
-        <v>32300</v>
+        <v>32600</v>
       </c>
       <c r="H41" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="I41" s="3">
-        <v>49400</v>
+        <v>49900</v>
       </c>
       <c r="J41" s="3">
-        <v>55600</v>
+        <v>56100</v>
       </c>
       <c r="K41" s="3">
         <v>15500</v>
@@ -1923,7 +1923,7 @@
         <v>3100</v>
       </c>
       <c r="J43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23800</v>
+        <v>24000</v>
       </c>
       <c r="E44" s="3">
-        <v>18000</v>
+        <v>18200</v>
       </c>
       <c r="F44" s="3">
-        <v>17100</v>
+        <v>17300</v>
       </c>
       <c r="G44" s="3">
-        <v>26300</v>
+        <v>26600</v>
       </c>
       <c r="H44" s="3">
-        <v>18700</v>
+        <v>18900</v>
       </c>
       <c r="I44" s="3">
-        <v>24000</v>
+        <v>24200</v>
       </c>
       <c r="J44" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="K44" s="3">
         <v>9800</v>
@@ -1986,7 +1986,7 @@
         <v>3200</v>
       </c>
       <c r="E45" s="3">
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="F45" s="3">
         <v>3500</v>
@@ -1995,7 +1995,7 @@
         <v>6800</v>
       </c>
       <c r="H45" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I45" s="3">
         <v>4700</v>
@@ -2022,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>48700</v>
+        <v>49100</v>
       </c>
       <c r="E46" s="3">
-        <v>57000</v>
+        <v>57500</v>
       </c>
       <c r="F46" s="3">
-        <v>61700</v>
+        <v>62300</v>
       </c>
       <c r="G46" s="3">
-        <v>71300</v>
+        <v>72000</v>
       </c>
       <c r="H46" s="3">
-        <v>78000</v>
+        <v>78700</v>
       </c>
       <c r="I46" s="3">
-        <v>81100</v>
+        <v>81900</v>
       </c>
       <c r="J46" s="3">
-        <v>77800</v>
+        <v>78600</v>
       </c>
       <c r="K46" s="3">
         <v>30300</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="E48" s="3">
         <v>2300</v>
       </c>
       <c r="F48" s="3">
-        <v>40500</v>
+        <v>40900</v>
       </c>
       <c r="G48" s="3">
-        <v>18200</v>
+        <v>18400</v>
       </c>
       <c r="H48" s="3">
-        <v>28000</v>
+        <v>28300</v>
       </c>
       <c r="I48" s="3">
-        <v>39200</v>
+        <v>39600</v>
       </c>
       <c r="J48" s="3">
-        <v>36300</v>
+        <v>36600</v>
       </c>
       <c r="K48" s="3">
         <v>28000</v>
@@ -2271,10 +2271,10 @@
         <v>4000</v>
       </c>
       <c r="I52" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="J52" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K52" s="3">
         <v>2500</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60300</v>
+        <v>60800</v>
       </c>
       <c r="E54" s="3">
-        <v>62300</v>
+        <v>62900</v>
       </c>
       <c r="F54" s="3">
-        <v>107100</v>
+        <v>108100</v>
       </c>
       <c r="G54" s="3">
-        <v>93900</v>
+        <v>94800</v>
       </c>
       <c r="H54" s="3">
-        <v>113400</v>
+        <v>114500</v>
       </c>
       <c r="I54" s="3">
-        <v>133700</v>
+        <v>134900</v>
       </c>
       <c r="J54" s="3">
-        <v>121900</v>
+        <v>123000</v>
       </c>
       <c r="K54" s="3">
         <v>62000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>12800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="J57" s="3">
         <v>8500</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>12700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>11500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>8600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>10700</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8400</v>
       </c>
       <c r="K57" s="3">
         <v>9800</v>
@@ -2452,7 +2452,7 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2488,19 +2488,19 @@
         <v>5100</v>
       </c>
       <c r="E59" s="3">
-        <v>84200</v>
+        <v>85000</v>
       </c>
       <c r="F59" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="G59" s="3">
-        <v>12200</v>
+        <v>12300</v>
       </c>
       <c r="H59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I59" s="3">
         <v>10200</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10100</v>
       </c>
       <c r="J59" s="3">
         <v>6000</v>
@@ -2524,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="E60" s="3">
-        <v>86000</v>
+        <v>86800</v>
       </c>
       <c r="F60" s="3">
-        <v>33800</v>
+        <v>34100</v>
       </c>
       <c r="G60" s="3">
-        <v>23700</v>
+        <v>23900</v>
       </c>
       <c r="H60" s="3">
-        <v>18800</v>
+        <v>19000</v>
       </c>
       <c r="I60" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="J60" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="K60" s="3">
         <v>15500</v>
@@ -2563,13 +2563,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>55400</v>
+        <v>55900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>18500</v>
+        <v>18700</v>
       </c>
       <c r="H62" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="I62" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="J62" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="K62" s="3">
         <v>41800</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23200</v>
+        <v>23400</v>
       </c>
       <c r="E66" s="3">
-        <v>86300</v>
+        <v>87100</v>
       </c>
       <c r="F66" s="3">
-        <v>89200</v>
+        <v>90000</v>
       </c>
       <c r="G66" s="3">
-        <v>42200</v>
+        <v>42600</v>
       </c>
       <c r="H66" s="3">
-        <v>35700</v>
+        <v>36000</v>
       </c>
       <c r="I66" s="3">
-        <v>31300</v>
+        <v>31600</v>
       </c>
       <c r="J66" s="3">
-        <v>19100</v>
+        <v>19300</v>
       </c>
       <c r="K66" s="3">
         <v>62100</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-54200</v>
+        <v>-54700</v>
       </c>
       <c r="E72" s="3">
-        <v>-113500</v>
+        <v>-114600</v>
       </c>
       <c r="F72" s="3">
-        <v>-70700</v>
+        <v>-71400</v>
       </c>
       <c r="G72" s="3">
-        <v>-36800</v>
+        <v>-37100</v>
       </c>
       <c r="H72" s="3">
-        <v>-11300</v>
+        <v>-11400</v>
       </c>
       <c r="I72" s="3">
-        <v>-109200</v>
+        <v>-110200</v>
       </c>
       <c r="J72" s="3">
-        <v>-106200</v>
+        <v>-107100</v>
       </c>
       <c r="K72" s="3">
         <v>-3200</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37000</v>
+        <v>37400</v>
       </c>
       <c r="E76" s="3">
-        <v>-24000</v>
+        <v>-24200</v>
       </c>
       <c r="F76" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="G76" s="3">
-        <v>51700</v>
+        <v>52200</v>
       </c>
       <c r="H76" s="3">
-        <v>77700</v>
+        <v>78400</v>
       </c>
       <c r="I76" s="3">
-        <v>102300</v>
+        <v>103300</v>
       </c>
       <c r="J76" s="3">
-        <v>102800</v>
+        <v>103700</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>59900</v>
+        <v>60500</v>
       </c>
       <c r="E81" s="3">
-        <v>-42900</v>
+        <v>-43300</v>
       </c>
       <c r="F81" s="3">
-        <v>-23900</v>
+        <v>-24100</v>
       </c>
       <c r="G81" s="3">
-        <v>-25700</v>
+        <v>-26000</v>
       </c>
       <c r="H81" s="3">
-        <v>-21900</v>
+        <v>-22100</v>
       </c>
       <c r="I81" s="3">
         <v>-2800</v>
       </c>
       <c r="J81" s="3">
-        <v>-100800</v>
+        <v>-101700</v>
       </c>
       <c r="K81" s="3">
         <v>5100</v>
@@ -3307,22 +3307,22 @@
         <v>3300</v>
       </c>
       <c r="E83" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F83" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="G83" s="3">
         <v>6300</v>
       </c>
       <c r="H83" s="3">
-        <v>7600</v>
+        <v>7700</v>
       </c>
       <c r="I83" s="3">
         <v>6800</v>
       </c>
       <c r="J83" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3541,13 +3541,13 @@
         <v>-3300</v>
       </c>
       <c r="E89" s="3">
-        <v>-8600</v>
+        <v>-8700</v>
       </c>
       <c r="F89" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="G89" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="H89" s="3">
         <v>7600</v>
@@ -3556,7 +3556,7 @@
         <v>8600</v>
       </c>
       <c r="J89" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="K89" s="3">
         <v>13300</v>
@@ -3606,13 +3606,13 @@
         <v>-3000</v>
       </c>
       <c r="H91" s="3">
-        <v>-7400</v>
+        <v>-7500</v>
       </c>
       <c r="I91" s="3">
-        <v>-15700</v>
+        <v>-15900</v>
       </c>
       <c r="J91" s="3">
-        <v>-12900</v>
+        <v>-13000</v>
       </c>
       <c r="K91" s="3">
         <v>-9800</v>
@@ -3717,19 +3717,19 @@
         <v>900</v>
       </c>
       <c r="F94" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="G94" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="H94" s="3">
         <v>-9700</v>
       </c>
       <c r="I94" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="J94" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="K94" s="3">
         <v>-10300</v>
@@ -3929,7 +3929,7 @@
         <v>-4600</v>
       </c>
       <c r="F100" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3938,10 +3938,10 @@
         <v>1400</v>
       </c>
       <c r="I100" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J100" s="3">
-        <v>42300</v>
+        <v>42700</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
@@ -4004,13 +4004,13 @@
         <v>-3900</v>
       </c>
       <c r="E102" s="3">
-        <v>-12400</v>
+        <v>-12500</v>
       </c>
       <c r="F102" s="3">
         <v>3300</v>
       </c>
       <c r="G102" s="3">
-        <v>-16400</v>
+        <v>-16600</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
@@ -4019,7 +4019,7 @@
         <v>-6200</v>
       </c>
       <c r="J102" s="3">
-        <v>40400</v>
+        <v>40800</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>80500</v>
+        <v>78100</v>
       </c>
       <c r="E8" s="3">
-        <v>94200</v>
+        <v>91400</v>
       </c>
       <c r="F8" s="3">
-        <v>152000</v>
+        <v>147500</v>
       </c>
       <c r="G8" s="3">
-        <v>164600</v>
+        <v>159700</v>
       </c>
       <c r="H8" s="3">
-        <v>173300</v>
+        <v>168200</v>
       </c>
       <c r="I8" s="3">
-        <v>167100</v>
+        <v>162200</v>
       </c>
       <c r="J8" s="3">
-        <v>139800</v>
+        <v>135700</v>
       </c>
       <c r="K8" s="3">
         <v>111300</v>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>47100</v>
+        <v>45700</v>
       </c>
       <c r="E9" s="3">
-        <v>55700</v>
+        <v>54000</v>
       </c>
       <c r="F9" s="3">
-        <v>68000</v>
+        <v>66000</v>
       </c>
       <c r="G9" s="3">
-        <v>88800</v>
+        <v>86200</v>
       </c>
       <c r="H9" s="3">
-        <v>90400</v>
+        <v>87700</v>
       </c>
       <c r="I9" s="3">
-        <v>83200</v>
+        <v>80700</v>
       </c>
       <c r="J9" s="3">
-        <v>66000</v>
+        <v>64100</v>
       </c>
       <c r="K9" s="3">
         <v>50400</v>
@@ -804,25 +804,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="E10" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="F10" s="3">
-        <v>84000</v>
+        <v>81500</v>
       </c>
       <c r="G10" s="3">
-        <v>75800</v>
+        <v>73600</v>
       </c>
       <c r="H10" s="3">
-        <v>83000</v>
+        <v>80500</v>
       </c>
       <c r="I10" s="3">
-        <v>83900</v>
+        <v>81400</v>
       </c>
       <c r="J10" s="3">
-        <v>73800</v>
+        <v>71600</v>
       </c>
       <c r="K10" s="3">
         <v>61000</v>
@@ -938,22 +938,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-62800</v>
+        <v>-61000</v>
       </c>
       <c r="E14" s="3">
-        <v>42100</v>
+        <v>40800</v>
       </c>
       <c r="F14" s="3">
-        <v>13800</v>
+        <v>13400</v>
       </c>
       <c r="G14" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="H14" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="I14" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E15" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F15" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="G15" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H15" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="I15" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J15" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K15" s="3">
         <v>4300</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20800</v>
+        <v>20200</v>
       </c>
       <c r="E17" s="3">
-        <v>135200</v>
+        <v>131200</v>
       </c>
       <c r="F17" s="3">
-        <v>172700</v>
+        <v>167600</v>
       </c>
       <c r="G17" s="3">
-        <v>186100</v>
+        <v>180600</v>
       </c>
       <c r="H17" s="3">
-        <v>192400</v>
+        <v>186700</v>
       </c>
       <c r="I17" s="3">
-        <v>172000</v>
+        <v>166900</v>
       </c>
       <c r="J17" s="3">
-        <v>128000</v>
+        <v>124200</v>
       </c>
       <c r="K17" s="3">
         <v>103700</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="E18" s="3">
-        <v>-41100</v>
+        <v>-39800</v>
       </c>
       <c r="F18" s="3">
-        <v>-20700</v>
+        <v>-20100</v>
       </c>
       <c r="G18" s="3">
-        <v>-21500</v>
+        <v>-20800</v>
       </c>
       <c r="H18" s="3">
-        <v>-19100</v>
+        <v>-18500</v>
       </c>
       <c r="I18" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="J18" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="K18" s="3">
         <v>7700</v>
@@ -1131,7 +1131,7 @@
         <v>300</v>
       </c>
       <c r="F20" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G20" s="3">
         <v>-700</v>
@@ -1143,7 +1143,7 @@
         <v>400</v>
       </c>
       <c r="J20" s="3">
-        <v>-109000</v>
+        <v>-105800</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>63100</v>
+        <v>61200</v>
       </c>
       <c r="E21" s="3">
-        <v>-35000</v>
+        <v>-34000</v>
       </c>
       <c r="F21" s="3">
         <v>-5000</v>
       </c>
       <c r="G21" s="3">
-        <v>-15800</v>
+        <v>-15500</v>
       </c>
       <c r="H21" s="3">
-        <v>-11000</v>
+        <v>-10800</v>
       </c>
       <c r="I21" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J21" s="3">
-        <v>-92300</v>
+        <v>-89600</v>
       </c>
       <c r="K21" s="3">
         <v>10900</v>
@@ -1206,10 +1206,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="E23" s="3">
-        <v>-43300</v>
+        <v>-42000</v>
       </c>
       <c r="F23" s="3">
-        <v>-25300</v>
+        <v>-24600</v>
       </c>
       <c r="G23" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="H23" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="I23" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="J23" s="3">
-        <v>-98100</v>
+        <v>-95200</v>
       </c>
       <c r="K23" s="3">
         <v>4800</v>
@@ -1287,10 +1287,10 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G24" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
@@ -1299,7 +1299,7 @@
         <v>-1700</v>
       </c>
       <c r="J24" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K24" s="3">
         <v>-300</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>60400</v>
+        <v>58600</v>
       </c>
       <c r="E26" s="3">
-        <v>-43600</v>
+        <v>-42300</v>
       </c>
       <c r="F26" s="3">
-        <v>-23800</v>
+        <v>-23100</v>
       </c>
       <c r="G26" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H26" s="3">
-        <v>-20400</v>
+        <v>-19800</v>
       </c>
       <c r="I26" s="3">
         <v>-2800</v>
       </c>
       <c r="J26" s="3">
-        <v>-101700</v>
+        <v>-98700</v>
       </c>
       <c r="K26" s="3">
         <v>5100</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>60400</v>
+        <v>58600</v>
       </c>
       <c r="E27" s="3">
-        <v>-43600</v>
+        <v>-42300</v>
       </c>
       <c r="F27" s="3">
-        <v>-23800</v>
+        <v>-23100</v>
       </c>
       <c r="G27" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H27" s="3">
-        <v>-20400</v>
+        <v>-19800</v>
       </c>
       <c r="I27" s="3">
         <v>-2800</v>
       </c>
       <c r="J27" s="3">
-        <v>-101700</v>
+        <v>-98700</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1599,7 +1599,7 @@
         <v>-300</v>
       </c>
       <c r="F32" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G32" s="3">
         <v>700</v>
@@ -1611,7 +1611,7 @@
         <v>-400</v>
       </c>
       <c r="J32" s="3">
-        <v>109000</v>
+        <v>105800</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>60500</v>
+        <v>58700</v>
       </c>
       <c r="E33" s="3">
-        <v>-43300</v>
+        <v>-42000</v>
       </c>
       <c r="F33" s="3">
-        <v>-24100</v>
+        <v>-23400</v>
       </c>
       <c r="G33" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H33" s="3">
-        <v>-22100</v>
+        <v>-21400</v>
       </c>
       <c r="I33" s="3">
         <v>-2800</v>
       </c>
       <c r="J33" s="3">
-        <v>-101700</v>
+        <v>-98700</v>
       </c>
       <c r="K33" s="3">
         <v>5100</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>60500</v>
+        <v>58700</v>
       </c>
       <c r="E35" s="3">
-        <v>-43300</v>
+        <v>-42000</v>
       </c>
       <c r="F35" s="3">
-        <v>-24100</v>
+        <v>-23400</v>
       </c>
       <c r="G35" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H35" s="3">
-        <v>-22100</v>
+        <v>-21400</v>
       </c>
       <c r="I35" s="3">
         <v>-2800</v>
       </c>
       <c r="J35" s="3">
-        <v>-101700</v>
+        <v>-98700</v>
       </c>
       <c r="K35" s="3">
         <v>5100</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="E41" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="F41" s="3">
-        <v>35900</v>
+        <v>34800</v>
       </c>
       <c r="G41" s="3">
-        <v>32600</v>
+        <v>31600</v>
       </c>
       <c r="H41" s="3">
-        <v>49100</v>
+        <v>47700</v>
       </c>
       <c r="I41" s="3">
-        <v>49900</v>
+        <v>48400</v>
       </c>
       <c r="J41" s="3">
-        <v>56100</v>
+        <v>54400</v>
       </c>
       <c r="K41" s="3">
         <v>15500</v>
@@ -1905,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J43" s="3">
         <v>2500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G43" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2600</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>24000</v>
+        <v>23300</v>
       </c>
       <c r="E44" s="3">
-        <v>18200</v>
+        <v>17600</v>
       </c>
       <c r="F44" s="3">
-        <v>17300</v>
+        <v>16800</v>
       </c>
       <c r="G44" s="3">
-        <v>26600</v>
+        <v>25800</v>
       </c>
       <c r="H44" s="3">
-        <v>18900</v>
+        <v>18400</v>
       </c>
       <c r="I44" s="3">
-        <v>24200</v>
+        <v>23500</v>
       </c>
       <c r="J44" s="3">
-        <v>13700</v>
+        <v>13300</v>
       </c>
       <c r="K44" s="3">
         <v>9800</v>
@@ -1983,25 +1983,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>11200</v>
+        <v>10900</v>
       </c>
       <c r="F45" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G45" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="H45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J45" s="3">
         <v>6000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6100</v>
       </c>
       <c r="K45" s="3">
         <v>2400</v>
@@ -2022,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>49100</v>
+        <v>47700</v>
       </c>
       <c r="E46" s="3">
-        <v>57500</v>
+        <v>55800</v>
       </c>
       <c r="F46" s="3">
-        <v>62300</v>
+        <v>60400</v>
       </c>
       <c r="G46" s="3">
-        <v>72000</v>
+        <v>69900</v>
       </c>
       <c r="H46" s="3">
-        <v>78700</v>
+        <v>76400</v>
       </c>
       <c r="I46" s="3">
-        <v>81900</v>
+        <v>79500</v>
       </c>
       <c r="J46" s="3">
-        <v>78600</v>
+        <v>76200</v>
       </c>
       <c r="K46" s="3">
         <v>30300</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10000</v>
+        <v>9700</v>
       </c>
       <c r="E48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F48" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="G48" s="3">
-        <v>18400</v>
+        <v>17900</v>
       </c>
       <c r="H48" s="3">
-        <v>28300</v>
+        <v>27400</v>
       </c>
       <c r="I48" s="3">
-        <v>39600</v>
+        <v>38400</v>
       </c>
       <c r="J48" s="3">
-        <v>36600</v>
+        <v>35500</v>
       </c>
       <c r="K48" s="3">
         <v>28000</v>
@@ -2145,16 +2145,16 @@
         <v>3000</v>
       </c>
       <c r="F49" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="G49" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J49" s="3">
         <v>1700</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I52" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="J52" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K52" s="3">
         <v>2500</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60800</v>
+        <v>59000</v>
       </c>
       <c r="E54" s="3">
-        <v>62900</v>
+        <v>61000</v>
       </c>
       <c r="F54" s="3">
-        <v>108100</v>
+        <v>104900</v>
       </c>
       <c r="G54" s="3">
-        <v>94800</v>
+        <v>92000</v>
       </c>
       <c r="H54" s="3">
-        <v>114500</v>
+        <v>111100</v>
       </c>
       <c r="I54" s="3">
-        <v>134900</v>
+        <v>130900</v>
       </c>
       <c r="J54" s="3">
-        <v>123000</v>
+        <v>119400</v>
       </c>
       <c r="K54" s="3">
         <v>62000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>12800</v>
+        <v>12500</v>
       </c>
       <c r="G57" s="3">
-        <v>11600</v>
+        <v>11300</v>
       </c>
       <c r="H57" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="I57" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="J57" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="K57" s="3">
         <v>9800</v>
@@ -2452,7 +2452,7 @@
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>12700</v>
+        <v>12300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2485,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="E59" s="3">
-        <v>85000</v>
+        <v>82500</v>
       </c>
       <c r="F59" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="G59" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>10000</v>
       </c>
       <c r="I59" s="3">
-        <v>10200</v>
+        <v>9900</v>
       </c>
       <c r="J59" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="K59" s="3">
         <v>2300</v>
@@ -2524,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="E60" s="3">
-        <v>86800</v>
+        <v>84200</v>
       </c>
       <c r="F60" s="3">
-        <v>34100</v>
+        <v>33100</v>
       </c>
       <c r="G60" s="3">
-        <v>23900</v>
+        <v>23200</v>
       </c>
       <c r="H60" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="I60" s="3">
-        <v>21000</v>
+        <v>20400</v>
       </c>
       <c r="J60" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="K60" s="3">
         <v>15500</v>
@@ -2563,13 +2563,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7900</v>
+        <v>7700</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>55900</v>
+        <v>54200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="H62" s="3">
-        <v>17100</v>
+        <v>16600</v>
       </c>
       <c r="I62" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="J62" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="K62" s="3">
         <v>41800</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23400</v>
+        <v>22700</v>
       </c>
       <c r="E66" s="3">
-        <v>87100</v>
+        <v>84500</v>
       </c>
       <c r="F66" s="3">
-        <v>90000</v>
+        <v>87300</v>
       </c>
       <c r="G66" s="3">
-        <v>42600</v>
+        <v>41300</v>
       </c>
       <c r="H66" s="3">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="I66" s="3">
-        <v>31600</v>
+        <v>30700</v>
       </c>
       <c r="J66" s="3">
-        <v>19300</v>
+        <v>18700</v>
       </c>
       <c r="K66" s="3">
         <v>62100</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-54700</v>
+        <v>-53100</v>
       </c>
       <c r="E72" s="3">
-        <v>-114600</v>
+        <v>-111200</v>
       </c>
       <c r="F72" s="3">
-        <v>-71400</v>
+        <v>-69300</v>
       </c>
       <c r="G72" s="3">
-        <v>-37100</v>
+        <v>-36000</v>
       </c>
       <c r="H72" s="3">
-        <v>-11400</v>
+        <v>-11100</v>
       </c>
       <c r="I72" s="3">
-        <v>-110200</v>
+        <v>-106900</v>
       </c>
       <c r="J72" s="3">
-        <v>-107100</v>
+        <v>-104000</v>
       </c>
       <c r="K72" s="3">
         <v>-3200</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>37400</v>
+        <v>36300</v>
       </c>
       <c r="E76" s="3">
-        <v>-24200</v>
+        <v>-23500</v>
       </c>
       <c r="F76" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="G76" s="3">
-        <v>52200</v>
+        <v>50700</v>
       </c>
       <c r="H76" s="3">
-        <v>78400</v>
+        <v>76100</v>
       </c>
       <c r="I76" s="3">
-        <v>103300</v>
+        <v>100200</v>
       </c>
       <c r="J76" s="3">
-        <v>103700</v>
+        <v>100600</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>60500</v>
+        <v>58700</v>
       </c>
       <c r="E81" s="3">
-        <v>-43300</v>
+        <v>-42000</v>
       </c>
       <c r="F81" s="3">
-        <v>-24100</v>
+        <v>-23400</v>
       </c>
       <c r="G81" s="3">
-        <v>-26000</v>
+        <v>-25200</v>
       </c>
       <c r="H81" s="3">
-        <v>-22100</v>
+        <v>-21400</v>
       </c>
       <c r="I81" s="3">
         <v>-2800</v>
       </c>
       <c r="J81" s="3">
-        <v>-101700</v>
+        <v>-98700</v>
       </c>
       <c r="K81" s="3">
         <v>5100</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="E83" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F83" s="3">
-        <v>15000</v>
+        <v>14600</v>
       </c>
       <c r="G83" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="H83" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="I83" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="J83" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3300</v>
+        <v>-3200</v>
       </c>
       <c r="E89" s="3">
-        <v>-8700</v>
+        <v>-8500</v>
       </c>
       <c r="F89" s="3">
-        <v>25600</v>
+        <v>24900</v>
       </c>
       <c r="G89" s="3">
-        <v>-10200</v>
+        <v>-9900</v>
       </c>
       <c r="H89" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="I89" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="J89" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="K89" s="3">
         <v>13300</v>
@@ -3603,16 +3603,16 @@
         <v>-800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3000</v>
+        <v>-2900</v>
       </c>
       <c r="H91" s="3">
-        <v>-7500</v>
+        <v>-7200</v>
       </c>
       <c r="I91" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="J91" s="3">
-        <v>-13000</v>
+        <v>-12700</v>
       </c>
       <c r="K91" s="3">
         <v>-9800</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="G94" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="H94" s="3">
-        <v>-9700</v>
+        <v>-9500</v>
       </c>
       <c r="I94" s="3">
-        <v>-17000</v>
+        <v>-16500</v>
       </c>
       <c r="J94" s="3">
-        <v>-13900</v>
+        <v>-13500</v>
       </c>
       <c r="K94" s="3">
         <v>-10300</v>
@@ -3926,22 +3926,22 @@
         <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="F100" s="3">
-        <v>-17900</v>
+        <v>-17400</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I100" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J100" s="3">
-        <v>42700</v>
+        <v>41400</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="E102" s="3">
-        <v>-12500</v>
+        <v>-12100</v>
       </c>
       <c r="F102" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G102" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J102" s="3">
-        <v>40800</v>
+        <v>39600</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>78100</v>
+        <v>75300</v>
       </c>
       <c r="E8" s="3">
-        <v>91400</v>
+        <v>88000</v>
       </c>
       <c r="F8" s="3">
-        <v>147500</v>
+        <v>142100</v>
       </c>
       <c r="G8" s="3">
-        <v>159700</v>
+        <v>153900</v>
       </c>
       <c r="H8" s="3">
-        <v>168200</v>
+        <v>162000</v>
       </c>
       <c r="I8" s="3">
-        <v>162200</v>
+        <v>156200</v>
       </c>
       <c r="J8" s="3">
-        <v>135700</v>
+        <v>130700</v>
       </c>
       <c r="K8" s="3">
         <v>111300</v>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>45700</v>
+        <v>44000</v>
       </c>
       <c r="E9" s="3">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="F9" s="3">
-        <v>66000</v>
+        <v>63600</v>
       </c>
       <c r="G9" s="3">
-        <v>86200</v>
+        <v>83000</v>
       </c>
       <c r="H9" s="3">
-        <v>87700</v>
+        <v>84500</v>
       </c>
       <c r="I9" s="3">
-        <v>80700</v>
+        <v>77800</v>
       </c>
       <c r="J9" s="3">
-        <v>64100</v>
+        <v>61700</v>
       </c>
       <c r="K9" s="3">
         <v>50400</v>
@@ -804,25 +804,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>32400</v>
+        <v>31200</v>
       </c>
       <c r="E10" s="3">
-        <v>37300</v>
+        <v>36000</v>
       </c>
       <c r="F10" s="3">
-        <v>81500</v>
+        <v>78500</v>
       </c>
       <c r="G10" s="3">
-        <v>73600</v>
+        <v>70900</v>
       </c>
       <c r="H10" s="3">
-        <v>80500</v>
+        <v>77600</v>
       </c>
       <c r="I10" s="3">
-        <v>81400</v>
+        <v>78400</v>
       </c>
       <c r="J10" s="3">
-        <v>71600</v>
+        <v>68900</v>
       </c>
       <c r="K10" s="3">
         <v>61000</v>
@@ -938,22 +938,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-61000</v>
+        <v>-58700</v>
       </c>
       <c r="E14" s="3">
-        <v>40800</v>
+        <v>39300</v>
       </c>
       <c r="F14" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="G14" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="H14" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="I14" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J14" s="3">
         <v>200</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E15" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F15" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="G15" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H15" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I15" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K15" s="3">
         <v>4300</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>20200</v>
+        <v>19500</v>
       </c>
       <c r="E17" s="3">
-        <v>131200</v>
+        <v>126400</v>
       </c>
       <c r="F17" s="3">
-        <v>167600</v>
+        <v>161400</v>
       </c>
       <c r="G17" s="3">
-        <v>180600</v>
+        <v>173900</v>
       </c>
       <c r="H17" s="3">
-        <v>186700</v>
+        <v>179900</v>
       </c>
       <c r="I17" s="3">
-        <v>166900</v>
+        <v>160800</v>
       </c>
       <c r="J17" s="3">
-        <v>124200</v>
+        <v>119700</v>
       </c>
       <c r="K17" s="3">
         <v>103700</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>57900</v>
+        <v>55800</v>
       </c>
       <c r="E18" s="3">
-        <v>-39800</v>
+        <v>-38400</v>
       </c>
       <c r="F18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-20100</v>
       </c>
-      <c r="G18" s="3">
-        <v>-20800</v>
-      </c>
       <c r="H18" s="3">
-        <v>-18500</v>
+        <v>-17900</v>
       </c>
       <c r="I18" s="3">
-        <v>-4700</v>
+        <v>-4600</v>
       </c>
       <c r="J18" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="K18" s="3">
         <v>7700</v>
@@ -1140,10 +1140,10 @@
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>-105800</v>
+        <v>-101900</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>61200</v>
+        <v>59000</v>
       </c>
       <c r="E21" s="3">
-        <v>-34000</v>
+        <v>-32700</v>
       </c>
       <c r="F21" s="3">
-        <v>-5000</v>
+        <v>-4600</v>
       </c>
       <c r="G21" s="3">
-        <v>-15500</v>
+        <v>-14800</v>
       </c>
       <c r="H21" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="I21" s="3">
         <v>2200</v>
       </c>
       <c r="J21" s="3">
-        <v>-89600</v>
+        <v>-86200</v>
       </c>
       <c r="K21" s="3">
         <v>10900</v>
@@ -1206,16 +1206,16 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="F22" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>57900</v>
+        <v>55800</v>
       </c>
       <c r="E23" s="3">
-        <v>-42000</v>
+        <v>-40500</v>
       </c>
       <c r="F23" s="3">
-        <v>-24600</v>
+        <v>-23600</v>
       </c>
       <c r="G23" s="3">
-        <v>-21500</v>
+        <v>-20700</v>
       </c>
       <c r="H23" s="3">
-        <v>-19900</v>
+        <v>-19200</v>
       </c>
       <c r="I23" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="J23" s="3">
-        <v>-95200</v>
+        <v>-91700</v>
       </c>
       <c r="K23" s="3">
         <v>4800</v>
@@ -1290,16 +1290,16 @@
         <v>-1400</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="J24" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K24" s="3">
         <v>-300</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>58600</v>
+        <v>56500</v>
       </c>
       <c r="E26" s="3">
-        <v>-42300</v>
+        <v>-40700</v>
       </c>
       <c r="F26" s="3">
-        <v>-23100</v>
+        <v>-22300</v>
       </c>
       <c r="G26" s="3">
-        <v>-25200</v>
+        <v>-24300</v>
       </c>
       <c r="H26" s="3">
-        <v>-19800</v>
+        <v>-19100</v>
       </c>
       <c r="I26" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J26" s="3">
-        <v>-98700</v>
+        <v>-95100</v>
       </c>
       <c r="K26" s="3">
         <v>5100</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>58600</v>
+        <v>56500</v>
       </c>
       <c r="E27" s="3">
-        <v>-42300</v>
+        <v>-40700</v>
       </c>
       <c r="F27" s="3">
-        <v>-23100</v>
+        <v>-22300</v>
       </c>
       <c r="G27" s="3">
-        <v>-25200</v>
+        <v>-24300</v>
       </c>
       <c r="H27" s="3">
-        <v>-19800</v>
+        <v>-19100</v>
       </c>
       <c r="I27" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J27" s="3">
-        <v>-98700</v>
+        <v>-95100</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1608,10 +1608,10 @@
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>105800</v>
+        <v>101900</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>58700</v>
+        <v>56500</v>
       </c>
       <c r="E33" s="3">
-        <v>-42000</v>
+        <v>-40500</v>
       </c>
       <c r="F33" s="3">
-        <v>-23400</v>
+        <v>-22600</v>
       </c>
       <c r="G33" s="3">
-        <v>-25200</v>
+        <v>-24300</v>
       </c>
       <c r="H33" s="3">
-        <v>-21400</v>
+        <v>-20600</v>
       </c>
       <c r="I33" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J33" s="3">
-        <v>-98700</v>
+        <v>-95100</v>
       </c>
       <c r="K33" s="3">
         <v>5100</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>58700</v>
+        <v>56500</v>
       </c>
       <c r="E35" s="3">
-        <v>-42000</v>
+        <v>-40500</v>
       </c>
       <c r="F35" s="3">
-        <v>-23400</v>
+        <v>-22600</v>
       </c>
       <c r="G35" s="3">
-        <v>-25200</v>
+        <v>-24300</v>
       </c>
       <c r="H35" s="3">
-        <v>-21400</v>
+        <v>-20600</v>
       </c>
       <c r="I35" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J35" s="3">
-        <v>-98700</v>
+        <v>-95100</v>
       </c>
       <c r="K35" s="3">
         <v>5100</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18900</v>
+        <v>18200</v>
       </c>
       <c r="E41" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="F41" s="3">
-        <v>34800</v>
+        <v>33500</v>
       </c>
       <c r="G41" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="H41" s="3">
-        <v>47700</v>
+        <v>45900</v>
       </c>
       <c r="I41" s="3">
-        <v>48400</v>
+        <v>46600</v>
       </c>
       <c r="J41" s="3">
-        <v>54400</v>
+        <v>52400</v>
       </c>
       <c r="K41" s="3">
         <v>15500</v>
@@ -1905,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J43" s="3">
         <v>2400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2500</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23300</v>
+        <v>22500</v>
       </c>
       <c r="E44" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="F44" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="G44" s="3">
-        <v>25800</v>
+        <v>24800</v>
       </c>
       <c r="H44" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="I44" s="3">
-        <v>23500</v>
+        <v>22600</v>
       </c>
       <c r="J44" s="3">
-        <v>13300</v>
+        <v>12800</v>
       </c>
       <c r="K44" s="3">
         <v>9800</v>
@@ -1983,25 +1983,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="F45" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G45" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H45" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="I45" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J45" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="K45" s="3">
         <v>2400</v>
@@ -2022,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>47700</v>
+        <v>45900</v>
       </c>
       <c r="E46" s="3">
-        <v>55800</v>
+        <v>53800</v>
       </c>
       <c r="F46" s="3">
-        <v>60400</v>
+        <v>58200</v>
       </c>
       <c r="G46" s="3">
-        <v>69900</v>
+        <v>67300</v>
       </c>
       <c r="H46" s="3">
-        <v>76400</v>
+        <v>73600</v>
       </c>
       <c r="I46" s="3">
-        <v>79500</v>
+        <v>76500</v>
       </c>
       <c r="J46" s="3">
-        <v>76200</v>
+        <v>73400</v>
       </c>
       <c r="K46" s="3">
         <v>30300</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="E48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="F48" s="3">
-        <v>39700</v>
+        <v>38200</v>
       </c>
       <c r="G48" s="3">
-        <v>17900</v>
+        <v>17200</v>
       </c>
       <c r="H48" s="3">
-        <v>27400</v>
+        <v>26400</v>
       </c>
       <c r="I48" s="3">
-        <v>38400</v>
+        <v>37000</v>
       </c>
       <c r="J48" s="3">
-        <v>35500</v>
+        <v>34200</v>
       </c>
       <c r="K48" s="3">
         <v>28000</v>
@@ -2139,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F49" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="G49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I49" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="J49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K49" s="3">
         <v>1300</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="I52" s="3">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="J52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K52" s="3">
         <v>2500</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59000</v>
+        <v>56800</v>
       </c>
       <c r="E54" s="3">
-        <v>61000</v>
+        <v>58800</v>
       </c>
       <c r="F54" s="3">
-        <v>104900</v>
+        <v>101000</v>
       </c>
       <c r="G54" s="3">
-        <v>92000</v>
+        <v>88600</v>
       </c>
       <c r="H54" s="3">
-        <v>111100</v>
+        <v>107000</v>
       </c>
       <c r="I54" s="3">
-        <v>130900</v>
+        <v>126100</v>
       </c>
       <c r="J54" s="3">
-        <v>119400</v>
+        <v>115000</v>
       </c>
       <c r="K54" s="3">
         <v>62000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="E57" s="3">
         <v>1400</v>
       </c>
       <c r="F57" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="G57" s="3">
-        <v>11300</v>
+        <v>10800</v>
       </c>
       <c r="H57" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="I57" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="J57" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="K57" s="3">
         <v>9800</v>
@@ -2446,13 +2446,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2485,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="E59" s="3">
-        <v>82500</v>
+        <v>79500</v>
       </c>
       <c r="F59" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="G59" s="3">
-        <v>12000</v>
+        <v>11500</v>
       </c>
       <c r="H59" s="3">
-        <v>10000</v>
+        <v>9600</v>
       </c>
       <c r="I59" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="J59" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K59" s="3">
         <v>2300</v>
@@ -2524,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="E60" s="3">
-        <v>84200</v>
+        <v>81100</v>
       </c>
       <c r="F60" s="3">
-        <v>33100</v>
+        <v>31900</v>
       </c>
       <c r="G60" s="3">
-        <v>23200</v>
+        <v>22400</v>
       </c>
       <c r="H60" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="I60" s="3">
-        <v>20400</v>
+        <v>19600</v>
       </c>
       <c r="J60" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="K60" s="3">
         <v>15500</v>
@@ -2563,13 +2563,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7700</v>
+        <v>7400</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>54200</v>
+        <v>52200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="H62" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="I62" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="J62" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="K62" s="3">
         <v>41800</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22700</v>
+        <v>21900</v>
       </c>
       <c r="E66" s="3">
-        <v>84500</v>
+        <v>81400</v>
       </c>
       <c r="F66" s="3">
-        <v>87300</v>
+        <v>84100</v>
       </c>
       <c r="G66" s="3">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="H66" s="3">
-        <v>35000</v>
+        <v>33700</v>
       </c>
       <c r="I66" s="3">
-        <v>30700</v>
+        <v>29600</v>
       </c>
       <c r="J66" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="K66" s="3">
         <v>62100</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-53100</v>
+        <v>-51100</v>
       </c>
       <c r="E72" s="3">
-        <v>-111200</v>
+        <v>-107100</v>
       </c>
       <c r="F72" s="3">
-        <v>-69300</v>
+        <v>-66700</v>
       </c>
       <c r="G72" s="3">
-        <v>-36000</v>
+        <v>-34700</v>
       </c>
       <c r="H72" s="3">
-        <v>-11100</v>
+        <v>-10600</v>
       </c>
       <c r="I72" s="3">
-        <v>-106900</v>
+        <v>-103000</v>
       </c>
       <c r="J72" s="3">
-        <v>-104000</v>
+        <v>-100100</v>
       </c>
       <c r="K72" s="3">
         <v>-3200</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>36300</v>
+        <v>34900</v>
       </c>
       <c r="E76" s="3">
-        <v>-23500</v>
+        <v>-22600</v>
       </c>
       <c r="F76" s="3">
-        <v>17500</v>
+        <v>16900</v>
       </c>
       <c r="G76" s="3">
-        <v>50700</v>
+        <v>48800</v>
       </c>
       <c r="H76" s="3">
-        <v>76100</v>
+        <v>73300</v>
       </c>
       <c r="I76" s="3">
-        <v>100200</v>
+        <v>96500</v>
       </c>
       <c r="J76" s="3">
-        <v>100600</v>
+        <v>96900</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>58700</v>
+        <v>56500</v>
       </c>
       <c r="E81" s="3">
-        <v>-42000</v>
+        <v>-40500</v>
       </c>
       <c r="F81" s="3">
-        <v>-23400</v>
+        <v>-22600</v>
       </c>
       <c r="G81" s="3">
-        <v>-25200</v>
+        <v>-24300</v>
       </c>
       <c r="H81" s="3">
-        <v>-21400</v>
+        <v>-20600</v>
       </c>
       <c r="I81" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="J81" s="3">
-        <v>-98700</v>
+        <v>-95100</v>
       </c>
       <c r="K81" s="3">
         <v>5100</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="F83" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="G83" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="H83" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I83" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="J83" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="E89" s="3">
-        <v>-8500</v>
+        <v>-8100</v>
       </c>
       <c r="F89" s="3">
-        <v>24900</v>
+        <v>23900</v>
       </c>
       <c r="G89" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="H89" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="I89" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="J89" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="K89" s="3">
         <v>13300</v>
@@ -3600,19 +3600,19 @@
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
-        <v>-2900</v>
+        <v>-2800</v>
       </c>
       <c r="H91" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="I91" s="3">
-        <v>-15400</v>
+        <v>-14800</v>
       </c>
       <c r="J91" s="3">
-        <v>-12700</v>
+        <v>-12200</v>
       </c>
       <c r="K91" s="3">
         <v>-9800</v>
@@ -3717,19 +3717,19 @@
         <v>800</v>
       </c>
       <c r="F94" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="G94" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="H94" s="3">
-        <v>-9500</v>
+        <v>-9100</v>
       </c>
       <c r="I94" s="3">
-        <v>-16500</v>
+        <v>-15900</v>
       </c>
       <c r="J94" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="K94" s="3">
         <v>-10300</v>
@@ -3926,10 +3926,10 @@
         <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>-4500</v>
+        <v>-4300</v>
       </c>
       <c r="F100" s="3">
-        <v>-17400</v>
+        <v>-16800</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -3938,10 +3938,10 @@
         <v>1300</v>
       </c>
       <c r="I100" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J100" s="3">
-        <v>41400</v>
+        <v>39900</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3800</v>
+        <v>-3700</v>
       </c>
       <c r="E102" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="F102" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G102" s="3">
-        <v>-16100</v>
+        <v>-15500</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
       </c>
       <c r="I102" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="J102" s="3">
-        <v>39600</v>
+        <v>38100</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>DTEA</t>
   </si>
@@ -726,25 +726,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>75300</v>
+        <v>104100</v>
       </c>
       <c r="E8" s="3">
-        <v>88000</v>
+        <v>121700</v>
       </c>
       <c r="F8" s="3">
-        <v>142100</v>
+        <v>196500</v>
       </c>
       <c r="G8" s="3">
-        <v>153900</v>
+        <v>212800</v>
       </c>
       <c r="H8" s="3">
-        <v>162000</v>
+        <v>224000</v>
       </c>
       <c r="I8" s="3">
-        <v>156200</v>
+        <v>216000</v>
       </c>
       <c r="J8" s="3">
-        <v>130700</v>
+        <v>180700</v>
       </c>
       <c r="K8" s="3">
         <v>111300</v>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>44000</v>
+        <v>60900</v>
       </c>
       <c r="E9" s="3">
-        <v>52000</v>
+        <v>72000</v>
       </c>
       <c r="F9" s="3">
-        <v>63600</v>
+        <v>87900</v>
       </c>
       <c r="G9" s="3">
-        <v>83000</v>
+        <v>114800</v>
       </c>
       <c r="H9" s="3">
-        <v>84500</v>
+        <v>116800</v>
       </c>
       <c r="I9" s="3">
-        <v>77800</v>
+        <v>107500</v>
       </c>
       <c r="J9" s="3">
-        <v>61700</v>
+        <v>85400</v>
       </c>
       <c r="K9" s="3">
         <v>50400</v>
@@ -804,25 +804,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>31200</v>
+        <v>43200</v>
       </c>
       <c r="E10" s="3">
-        <v>36000</v>
+        <v>49700</v>
       </c>
       <c r="F10" s="3">
-        <v>78500</v>
+        <v>108600</v>
       </c>
       <c r="G10" s="3">
-        <v>70900</v>
+        <v>98000</v>
       </c>
       <c r="H10" s="3">
-        <v>77600</v>
+        <v>107200</v>
       </c>
       <c r="I10" s="3">
-        <v>78400</v>
+        <v>108500</v>
       </c>
       <c r="J10" s="3">
-        <v>68900</v>
+        <v>95300</v>
       </c>
       <c r="K10" s="3">
         <v>61000</v>
@@ -938,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-58700</v>
+        <v>-81200</v>
       </c>
       <c r="E14" s="3">
-        <v>39300</v>
+        <v>54400</v>
       </c>
       <c r="F14" s="3">
-        <v>12900</v>
+        <v>17900</v>
       </c>
       <c r="G14" s="3">
-        <v>9100</v>
+        <v>12600</v>
       </c>
       <c r="H14" s="3">
-        <v>11000</v>
+        <v>15200</v>
       </c>
       <c r="I14" s="3">
-        <v>5700</v>
+        <v>7900</v>
       </c>
       <c r="J14" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K14" s="3">
         <v>3200</v>
@@ -977,25 +977,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3100</v>
+        <v>4300</v>
       </c>
       <c r="E15" s="3">
-        <v>5400</v>
+        <v>7500</v>
       </c>
       <c r="F15" s="3">
-        <v>14000</v>
+        <v>19400</v>
       </c>
       <c r="G15" s="3">
-        <v>5900</v>
+        <v>8200</v>
       </c>
       <c r="H15" s="3">
-        <v>7200</v>
+        <v>9900</v>
       </c>
       <c r="I15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J15" s="3">
         <v>6400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4700</v>
       </c>
       <c r="K15" s="3">
         <v>4300</v>
@@ -1030,25 +1030,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>19500</v>
+        <v>26900</v>
       </c>
       <c r="E17" s="3">
-        <v>126400</v>
+        <v>174700</v>
       </c>
       <c r="F17" s="3">
-        <v>161400</v>
+        <v>223200</v>
       </c>
       <c r="G17" s="3">
-        <v>173900</v>
+        <v>240500</v>
       </c>
       <c r="H17" s="3">
-        <v>179900</v>
+        <v>248700</v>
       </c>
       <c r="I17" s="3">
-        <v>160800</v>
+        <v>222300</v>
       </c>
       <c r="J17" s="3">
-        <v>119700</v>
+        <v>165500</v>
       </c>
       <c r="K17" s="3">
         <v>103700</v>
@@ -1069,25 +1069,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55800</v>
+        <v>77100</v>
       </c>
       <c r="E18" s="3">
-        <v>-38400</v>
+        <v>-53100</v>
       </c>
       <c r="F18" s="3">
-        <v>-19300</v>
+        <v>-26700</v>
       </c>
       <c r="G18" s="3">
-        <v>-20100</v>
+        <v>-27700</v>
       </c>
       <c r="H18" s="3">
-        <v>-17900</v>
+        <v>-24700</v>
       </c>
       <c r="I18" s="3">
-        <v>-4600</v>
+        <v>-6300</v>
       </c>
       <c r="J18" s="3">
-        <v>11000</v>
+        <v>15200</v>
       </c>
       <c r="K18" s="3">
         <v>7700</v>
@@ -1128,22 +1128,22 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I20" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J20" s="3">
-        <v>-101900</v>
+        <v>-140900</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1164,25 +1164,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>59000</v>
+        <v>84800</v>
       </c>
       <c r="E21" s="3">
-        <v>-32700</v>
+        <v>-33300</v>
       </c>
       <c r="F21" s="3">
-        <v>-4600</v>
+        <v>-17500</v>
       </c>
       <c r="G21" s="3">
-        <v>-14800</v>
+        <v>-18800</v>
       </c>
       <c r="H21" s="3">
-        <v>-10300</v>
+        <v>-15300</v>
       </c>
       <c r="I21" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-86200</v>
+        <v>600</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K21" s="3">
         <v>10900</v>
@@ -1206,22 +1206,22 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="F22" s="3">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>1800</v>
@@ -1242,25 +1242,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>55800</v>
+        <v>77100</v>
       </c>
       <c r="E23" s="3">
-        <v>-40500</v>
+        <v>-55900</v>
       </c>
       <c r="F23" s="3">
-        <v>-23600</v>
+        <v>-32700</v>
       </c>
       <c r="G23" s="3">
-        <v>-20700</v>
+        <v>-28700</v>
       </c>
       <c r="H23" s="3">
-        <v>-19200</v>
+        <v>-26500</v>
       </c>
       <c r="I23" s="3">
-        <v>-4300</v>
+        <v>-5900</v>
       </c>
       <c r="J23" s="3">
-        <v>-91700</v>
+        <v>-126800</v>
       </c>
       <c r="K23" s="3">
         <v>4800</v>
@@ -1281,25 +1281,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-700</v>
+        <v>-900</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F24" s="3">
-        <v>-1400</v>
+        <v>-1900</v>
       </c>
       <c r="G24" s="3">
-        <v>3500</v>
+        <v>4900</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
-        <v>-1600</v>
+        <v>-2200</v>
       </c>
       <c r="J24" s="3">
-        <v>3400</v>
+        <v>4700</v>
       </c>
       <c r="K24" s="3">
         <v>-300</v>
@@ -1359,25 +1359,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>56500</v>
+        <v>78100</v>
       </c>
       <c r="E26" s="3">
-        <v>-40700</v>
+        <v>-56300</v>
       </c>
       <c r="F26" s="3">
-        <v>-22300</v>
+        <v>-30800</v>
       </c>
       <c r="G26" s="3">
-        <v>-24300</v>
+        <v>-33500</v>
       </c>
       <c r="H26" s="3">
-        <v>-19100</v>
+        <v>-26400</v>
       </c>
       <c r="I26" s="3">
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="J26" s="3">
-        <v>-95100</v>
+        <v>-131400</v>
       </c>
       <c r="K26" s="3">
         <v>5100</v>
@@ -1398,25 +1398,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>56500</v>
+        <v>78100</v>
       </c>
       <c r="E27" s="3">
-        <v>-40700</v>
+        <v>-56300</v>
       </c>
       <c r="F27" s="3">
-        <v>-22300</v>
+        <v>-30800</v>
       </c>
       <c r="G27" s="3">
-        <v>-24300</v>
+        <v>-33500</v>
       </c>
       <c r="H27" s="3">
-        <v>-19100</v>
+        <v>-26400</v>
       </c>
       <c r="I27" s="3">
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="J27" s="3">
-        <v>-95100</v>
+        <v>-131400</v>
       </c>
       <c r="K27" s="3">
         <v>5100</v>
@@ -1476,19 +1476,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E29" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F29" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-1500</v>
+        <v>-2100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
@@ -1596,22 +1596,22 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
-        <v>-700</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="I32" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="J32" s="3">
-        <v>101900</v>
+        <v>140900</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1632,25 +1632,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>56500</v>
+        <v>78100</v>
       </c>
       <c r="E33" s="3">
-        <v>-40500</v>
+        <v>-55900</v>
       </c>
       <c r="F33" s="3">
-        <v>-22600</v>
+        <v>-31200</v>
       </c>
       <c r="G33" s="3">
-        <v>-24300</v>
+        <v>-33500</v>
       </c>
       <c r="H33" s="3">
-        <v>-20600</v>
+        <v>-28500</v>
       </c>
       <c r="I33" s="3">
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="J33" s="3">
-        <v>-95100</v>
+        <v>-131400</v>
       </c>
       <c r="K33" s="3">
         <v>5100</v>
@@ -1710,25 +1710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>56500</v>
+        <v>78100</v>
       </c>
       <c r="E35" s="3">
-        <v>-40500</v>
+        <v>-55900</v>
       </c>
       <c r="F35" s="3">
-        <v>-22600</v>
+        <v>-31200</v>
       </c>
       <c r="G35" s="3">
-        <v>-24300</v>
+        <v>-33500</v>
       </c>
       <c r="H35" s="3">
-        <v>-20600</v>
+        <v>-28500</v>
       </c>
       <c r="I35" s="3">
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="J35" s="3">
-        <v>-95100</v>
+        <v>-131400</v>
       </c>
       <c r="K35" s="3">
         <v>5100</v>
@@ -1827,25 +1827,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>18200</v>
+        <v>25100</v>
       </c>
       <c r="E41" s="3">
-        <v>21800</v>
+        <v>30200</v>
       </c>
       <c r="F41" s="3">
-        <v>33500</v>
+        <v>46300</v>
       </c>
       <c r="G41" s="3">
-        <v>30400</v>
+        <v>42100</v>
       </c>
       <c r="H41" s="3">
-        <v>45900</v>
+        <v>63500</v>
       </c>
       <c r="I41" s="3">
-        <v>46600</v>
+        <v>64400</v>
       </c>
       <c r="J41" s="3">
-        <v>52400</v>
+        <v>72500</v>
       </c>
       <c r="K41" s="3">
         <v>15500</v>
@@ -1905,25 +1905,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2300</v>
+        <v>3200</v>
       </c>
       <c r="E43" s="3">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="F43" s="3">
-        <v>5200</v>
+        <v>7300</v>
       </c>
       <c r="G43" s="3">
-        <v>5600</v>
+        <v>7800</v>
       </c>
       <c r="H43" s="3">
-        <v>4400</v>
+        <v>6100</v>
       </c>
       <c r="I43" s="3">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="J43" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="K43" s="3">
         <v>2500</v>
@@ -1944,25 +1944,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22500</v>
+        <v>31000</v>
       </c>
       <c r="E44" s="3">
-        <v>17000</v>
+        <v>23500</v>
       </c>
       <c r="F44" s="3">
-        <v>16200</v>
+        <v>22400</v>
       </c>
       <c r="G44" s="3">
-        <v>24800</v>
+        <v>34400</v>
       </c>
       <c r="H44" s="3">
-        <v>17700</v>
+        <v>24400</v>
       </c>
       <c r="I44" s="3">
-        <v>22600</v>
+        <v>31300</v>
       </c>
       <c r="J44" s="3">
-        <v>12800</v>
+        <v>17800</v>
       </c>
       <c r="K44" s="3">
         <v>9800</v>
@@ -1983,25 +1983,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>4100</v>
       </c>
       <c r="E45" s="3">
-        <v>10500</v>
+        <v>14500</v>
       </c>
       <c r="F45" s="3">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="G45" s="3">
-        <v>6400</v>
+        <v>8800</v>
       </c>
       <c r="H45" s="3">
-        <v>5600</v>
+        <v>7700</v>
       </c>
       <c r="I45" s="3">
-        <v>4400</v>
+        <v>6100</v>
       </c>
       <c r="J45" s="3">
-        <v>5700</v>
+        <v>7900</v>
       </c>
       <c r="K45" s="3">
         <v>2400</v>
@@ -2022,25 +2022,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45900</v>
+        <v>63500</v>
       </c>
       <c r="E46" s="3">
-        <v>53800</v>
+        <v>74300</v>
       </c>
       <c r="F46" s="3">
-        <v>58200</v>
+        <v>80500</v>
       </c>
       <c r="G46" s="3">
-        <v>67300</v>
+        <v>93000</v>
       </c>
       <c r="H46" s="3">
-        <v>73600</v>
+        <v>101700</v>
       </c>
       <c r="I46" s="3">
-        <v>76500</v>
+        <v>105800</v>
       </c>
       <c r="J46" s="3">
-        <v>73400</v>
+        <v>101500</v>
       </c>
       <c r="K46" s="3">
         <v>30300</v>
@@ -2100,25 +2100,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9300</v>
+        <v>12900</v>
       </c>
       <c r="E48" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="F48" s="3">
-        <v>38200</v>
+        <v>52800</v>
       </c>
       <c r="G48" s="3">
-        <v>17200</v>
+        <v>23800</v>
       </c>
       <c r="H48" s="3">
-        <v>26400</v>
+        <v>36600</v>
       </c>
       <c r="I48" s="3">
-        <v>37000</v>
+        <v>51200</v>
       </c>
       <c r="J48" s="3">
-        <v>34200</v>
+        <v>47300</v>
       </c>
       <c r="K48" s="3">
         <v>28000</v>
@@ -2139,25 +2139,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2800</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>4600</v>
+        <v>6300</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>5700</v>
       </c>
       <c r="H49" s="3">
-        <v>3200</v>
+        <v>4400</v>
       </c>
       <c r="I49" s="3">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="J49" s="3">
-        <v>1600</v>
+        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>1300</v>
@@ -2268,13 +2268,13 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="I52" s="3">
-        <v>10400</v>
+        <v>14400</v>
       </c>
       <c r="J52" s="3">
-        <v>5700</v>
+        <v>7900</v>
       </c>
       <c r="K52" s="3">
         <v>2500</v>
@@ -2334,25 +2334,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>56800</v>
+        <v>78600</v>
       </c>
       <c r="E54" s="3">
-        <v>58800</v>
+        <v>81200</v>
       </c>
       <c r="F54" s="3">
-        <v>101000</v>
+        <v>139700</v>
       </c>
       <c r="G54" s="3">
-        <v>88600</v>
+        <v>122500</v>
       </c>
       <c r="H54" s="3">
-        <v>107000</v>
+        <v>147900</v>
       </c>
       <c r="I54" s="3">
-        <v>126100</v>
+        <v>174300</v>
       </c>
       <c r="J54" s="3">
-        <v>115000</v>
+        <v>159000</v>
       </c>
       <c r="K54" s="3">
         <v>62000</v>
@@ -2407,25 +2407,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8000</v>
+        <v>11100</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1900</v>
       </c>
       <c r="F57" s="3">
-        <v>12000</v>
+        <v>16600</v>
       </c>
       <c r="G57" s="3">
-        <v>10800</v>
+        <v>15000</v>
       </c>
       <c r="H57" s="3">
-        <v>8100</v>
+        <v>11200</v>
       </c>
       <c r="I57" s="3">
-        <v>10100</v>
+        <v>14000</v>
       </c>
       <c r="J57" s="3">
-        <v>7900</v>
+        <v>11000</v>
       </c>
       <c r="K57" s="3">
         <v>9800</v>
@@ -2446,13 +2446,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>11900</v>
+        <v>16400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2485,25 +2485,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="E59" s="3">
-        <v>79500</v>
+        <v>109900</v>
       </c>
       <c r="F59" s="3">
-        <v>8000</v>
+        <v>11100</v>
       </c>
       <c r="G59" s="3">
-        <v>11500</v>
+        <v>15900</v>
       </c>
       <c r="H59" s="3">
-        <v>9600</v>
+        <v>13300</v>
       </c>
       <c r="I59" s="3">
-        <v>9500</v>
+        <v>13100</v>
       </c>
       <c r="J59" s="3">
-        <v>5600</v>
+        <v>7800</v>
       </c>
       <c r="K59" s="3">
         <v>2300</v>
@@ -2524,25 +2524,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14500</v>
+        <v>20100</v>
       </c>
       <c r="E60" s="3">
-        <v>81100</v>
+        <v>112200</v>
       </c>
       <c r="F60" s="3">
-        <v>31900</v>
+        <v>44100</v>
       </c>
       <c r="G60" s="3">
-        <v>22400</v>
+        <v>30900</v>
       </c>
       <c r="H60" s="3">
-        <v>17700</v>
+        <v>24500</v>
       </c>
       <c r="I60" s="3">
-        <v>19600</v>
+        <v>27100</v>
       </c>
       <c r="J60" s="3">
-        <v>13600</v>
+        <v>18800</v>
       </c>
       <c r="K60" s="3">
         <v>15500</v>
@@ -2563,13 +2563,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7400</v>
+        <v>10200</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F61" s="3">
-        <v>52200</v>
+        <v>72200</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>17500</v>
+        <v>24100</v>
       </c>
       <c r="H62" s="3">
-        <v>16000</v>
+        <v>22100</v>
       </c>
       <c r="I62" s="3">
-        <v>9900</v>
+        <v>13800</v>
       </c>
       <c r="J62" s="3">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="K62" s="3">
         <v>41800</v>
@@ -2758,25 +2758,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21900</v>
+        <v>30300</v>
       </c>
       <c r="E66" s="3">
-        <v>81400</v>
+        <v>112500</v>
       </c>
       <c r="F66" s="3">
-        <v>84100</v>
+        <v>116300</v>
       </c>
       <c r="G66" s="3">
-        <v>39800</v>
+        <v>55000</v>
       </c>
       <c r="H66" s="3">
-        <v>33700</v>
+        <v>46600</v>
       </c>
       <c r="I66" s="3">
-        <v>29600</v>
+        <v>40900</v>
       </c>
       <c r="J66" s="3">
-        <v>18000</v>
+        <v>24900</v>
       </c>
       <c r="K66" s="3">
         <v>62100</v>
@@ -2970,25 +2970,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51100</v>
+        <v>-70700</v>
       </c>
       <c r="E72" s="3">
-        <v>-107100</v>
+        <v>-148100</v>
       </c>
       <c r="F72" s="3">
-        <v>-66700</v>
+        <v>-92300</v>
       </c>
       <c r="G72" s="3">
-        <v>-34700</v>
+        <v>-48000</v>
       </c>
       <c r="H72" s="3">
-        <v>-10600</v>
+        <v>-14700</v>
       </c>
       <c r="I72" s="3">
-        <v>-103000</v>
+        <v>-142400</v>
       </c>
       <c r="J72" s="3">
-        <v>-100100</v>
+        <v>-138500</v>
       </c>
       <c r="K72" s="3">
         <v>-3200</v>
@@ -3126,25 +3126,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34900</v>
+        <v>48300</v>
       </c>
       <c r="E76" s="3">
-        <v>-22600</v>
+        <v>-31300</v>
       </c>
       <c r="F76" s="3">
-        <v>16900</v>
+        <v>23300</v>
       </c>
       <c r="G76" s="3">
-        <v>48800</v>
+        <v>67500</v>
       </c>
       <c r="H76" s="3">
-        <v>73300</v>
+        <v>101400</v>
       </c>
       <c r="I76" s="3">
-        <v>96500</v>
+        <v>133400</v>
       </c>
       <c r="J76" s="3">
-        <v>96900</v>
+        <v>134000</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -3248,25 +3248,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>56500</v>
+        <v>78100</v>
       </c>
       <c r="E81" s="3">
-        <v>-40500</v>
+        <v>-55900</v>
       </c>
       <c r="F81" s="3">
-        <v>-22600</v>
+        <v>-31200</v>
       </c>
       <c r="G81" s="3">
-        <v>-24300</v>
+        <v>-33500</v>
       </c>
       <c r="H81" s="3">
-        <v>-20600</v>
+        <v>-28500</v>
       </c>
       <c r="I81" s="3">
-        <v>-2700</v>
+        <v>-3700</v>
       </c>
       <c r="J81" s="3">
-        <v>-95100</v>
+        <v>-131400</v>
       </c>
       <c r="K81" s="3">
         <v>5100</v>
@@ -3304,25 +3304,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3100</v>
+        <v>7500</v>
       </c>
       <c r="E83" s="3">
-        <v>5400</v>
+        <v>19400</v>
       </c>
       <c r="F83" s="3">
-        <v>14000</v>
+        <v>8200</v>
       </c>
       <c r="G83" s="3">
-        <v>5900</v>
+        <v>9900</v>
       </c>
       <c r="H83" s="3">
-        <v>7200</v>
+        <v>8800</v>
       </c>
       <c r="I83" s="3">
         <v>6400</v>
       </c>
-      <c r="J83" s="3">
-        <v>4700</v>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>4300</v>
@@ -3538,25 +3538,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-3100</v>
+        <v>-11300</v>
       </c>
       <c r="E89" s="3">
-        <v>-8100</v>
+        <v>33100</v>
       </c>
       <c r="F89" s="3">
-        <v>23900</v>
+        <v>-13200</v>
       </c>
       <c r="G89" s="3">
-        <v>-9600</v>
+        <v>9900</v>
       </c>
       <c r="H89" s="3">
-        <v>7100</v>
+        <v>11200</v>
       </c>
       <c r="I89" s="3">
-        <v>8100</v>
+        <v>15600</v>
       </c>
       <c r="J89" s="3">
-        <v>11300</v>
+        <v>17000</v>
       </c>
       <c r="K89" s="3">
         <v>13300</v>
@@ -3594,25 +3594,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="F91" s="3">
-        <v>-700</v>
+        <v>-3900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2800</v>
+        <v>-9600</v>
       </c>
       <c r="H91" s="3">
-        <v>-7000</v>
+        <v>-20500</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-16900</v>
       </c>
       <c r="J91" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="K91" s="3">
         <v>-9800</v>
@@ -3711,25 +3711,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="E94" s="3">
-        <v>800</v>
+        <v>-5700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4100</v>
+        <v>-8300</v>
       </c>
       <c r="G94" s="3">
-        <v>-6000</v>
+        <v>-12600</v>
       </c>
       <c r="H94" s="3">
-        <v>-9100</v>
+        <v>-22000</v>
       </c>
       <c r="I94" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-13000</v>
+        <v>-18000</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>-10300</v>
@@ -3923,25 +3923,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-600</v>
+        <v>-6000</v>
       </c>
       <c r="E100" s="3">
-        <v>-4300</v>
+        <v>-23200</v>
       </c>
       <c r="F100" s="3">
-        <v>-16800</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>1800</v>
       </c>
       <c r="H100" s="3">
-        <v>1300</v>
+        <v>2800</v>
       </c>
       <c r="I100" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J100" s="3">
-        <v>39900</v>
+        <v>55200</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>500</v>
@@ -3979,8 +3979,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4001,25 +4001,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3700</v>
+        <v>-16100</v>
       </c>
       <c r="E102" s="3">
-        <v>-11700</v>
+        <v>4300</v>
       </c>
       <c r="F102" s="3">
-        <v>3100</v>
+        <v>-21400</v>
       </c>
       <c r="G102" s="3">
-        <v>-15500</v>
+        <v>-1000</v>
       </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>-8100</v>
       </c>
       <c r="I102" s="3">
-        <v>-5800</v>
+        <v>52700</v>
       </c>
       <c r="J102" s="3">
-        <v>38100</v>
+        <v>4400</v>
       </c>
       <c r="K102" s="3">
         <v>3500</v>

--- a/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DTEA_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>DTEA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,180 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43134</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42763</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42399</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42035</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41664</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41300</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E8" s="3">
         <v>104100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>121700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>196500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>212800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>224000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>216000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>180700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>111300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>85800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>53100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>60900</v>
+        <v>54700</v>
       </c>
       <c r="E9" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F9" s="3">
         <v>72000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>87900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>114800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>116800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>107500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>85400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>38400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>23400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>43200</v>
+        <v>28300</v>
       </c>
       <c r="E10" s="3">
+        <v>42300</v>
+      </c>
+      <c r="F10" s="3">
         <v>49700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>108600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>98000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>107200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>108500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>95300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>29700</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,9 +905,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -931,87 +947,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-81200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>54400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>12600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>15200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G15" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>9900</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L15" s="3">
         <v>4300</v>
       </c>
-      <c r="E15" s="3">
-        <v>7500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>19400</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>9900</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2300</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1024,86 +1049,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E17" s="3">
         <v>26900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>174700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>223200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>240500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>248700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>222300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>165500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>103700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>79900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>50500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E18" s="3">
         <v>77100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-53100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-26700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-27700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-24700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,203 +1151,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-140900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>84800</v>
+        <v>-10700</v>
       </c>
       <c r="E21" s="3">
-        <v>-33300</v>
+        <v>81600</v>
       </c>
       <c r="F21" s="3">
-        <v>-17500</v>
+        <v>-45200</v>
       </c>
       <c r="G21" s="3">
-        <v>-18800</v>
+        <v>-6300</v>
       </c>
       <c r="H21" s="3">
-        <v>-15300</v>
+        <v>-20500</v>
       </c>
       <c r="I21" s="3">
-        <v>600</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>10900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7000</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>77100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-55900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-28700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-126800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-2200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,87 +1400,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E26" s="3">
         <v>78100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-33500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-131400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E27" s="3">
         <v>78100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-33500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-131400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1469,30 +1526,33 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>100</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1508,9 +1568,12 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1547,9 +1610,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1586,87 +1652,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>140900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>78100</v>
+        <v>-14900</v>
       </c>
       <c r="E33" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-55900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-33500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-28500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-131400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,92 +1778,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>78100</v>
+        <v>-14900</v>
       </c>
       <c r="E35" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-55900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-33500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-28500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-131400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43134</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42763</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42399</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42035</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41664</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41300</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1804,8 +1888,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1821,47 +1906,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E41" s="3">
         <v>25100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>30200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>46300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>63500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>64400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>72500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5500</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1898,165 +1987,180 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E44" s="3">
         <v>31000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>23500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>22400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>34400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>24400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>31300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>17800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>9800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>7900</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E45" s="3">
         <v>4100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>6100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>51100</v>
+      </c>
+      <c r="E46" s="3">
         <v>63500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>74300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>80500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>93000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>101700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>105800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>101500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2093,87 +2197,96 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E48" s="3">
         <v>12900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>52800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>23800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>51200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>47300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18900</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>2200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>6300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2210,9 +2323,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2249,9 +2365,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2264,33 +2383,36 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
         <v>5200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>7900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2500</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2327,48 +2449,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E54" s="3">
         <v>78600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>81200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>122500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>147900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>174300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>159000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36200</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2384,8 +2512,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2401,179 +2530,192 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E57" s="3">
         <v>11100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>16600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>15000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>14000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>9800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4700</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E58" s="3">
         <v>2400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16400</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>109900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>15900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E60" s="3">
         <v>20100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>112200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>44100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>30900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>24500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>27100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E61" s="3">
         <v>10200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>72200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2584,20 +2726,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>4800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>8300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4900</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2607,36 +2752,39 @@
       <c r="E62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>24100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>22100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>13800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>24300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2673,9 +2821,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2712,9 +2863,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2751,48 +2905,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E66" s="3">
         <v>30300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>112500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>116300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>46600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>40900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>62100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>56500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2808,8 +2968,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2846,9 +3007,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2885,9 +3049,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2924,9 +3091,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2963,48 +3133,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-70700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-148100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-92300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-142400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-138500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3041,9 +3217,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3080,9 +3259,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3119,48 +3301,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E76" s="3">
         <v>48300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-31300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>67500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>101400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>134000</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
         <v>-7400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3197,92 +3385,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43134</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42763</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42399</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42035</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41664</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41300</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>78100</v>
+        <v>-14900</v>
       </c>
       <c r="E81" s="3">
+        <v>78200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-55900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-33500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-28500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-131400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3298,47 +3495,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F83" s="3">
         <v>7500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>19400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>8200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>9900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8800</v>
       </c>
-      <c r="I83" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3">
         <v>4300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2300</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3375,9 +3576,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3414,9 +3618,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3453,9 +3660,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3492,9 +3702,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3531,48 +3744,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>33100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-13200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11200</v>
       </c>
-      <c r="I89" s="3">
-        <v>15600</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3588,47 +3807,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-9600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-16900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3665,9 +3888,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3704,48 +3930,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-12600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-22000</v>
       </c>
-      <c r="I94" s="3">
-        <v>-18000</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3">
         <v>-10300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3761,8 +3993,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3799,9 +4032,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3838,9 +4074,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3877,9 +4116,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3916,48 +4158,54 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-23200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>2800</v>
       </c>
-      <c r="I100" s="3">
-        <v>55200</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>13000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3979,11 +4227,11 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -3994,46 +4242,52 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-16100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>4300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8100</v>
       </c>
-      <c r="I102" s="3">
-        <v>52700</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
